--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:10</t>
+    <t>21:15</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.881944444445</v>
+        <v>45452.885416666664</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689499</v>
+        <v>1689501</v>
       </c>
       <c r="D6" s="0">
-        <v>444857</v>
+        <v>446149</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2633</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208088</v>
       </c>
       <c r="D7" s="0">
-        <v>58251</v>
+        <v>58398</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2799</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25954</v>
       </c>
       <c r="D8" s="0">
-        <v>6003</v>
+        <v>6037</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2313</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="9">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4035</v>
+        <v>4076</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3008</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="10">
@@ -10355,10 +10355,10 @@
         <v>15875</v>
       </c>
       <c r="D10" s="0">
-        <v>4505</v>
+        <v>4527</v>
       </c>
       <c r="E10" s="8">
-        <v>0.2838</v>
+        <v>0.2852</v>
       </c>
     </row>
     <row r="11">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8374</v>
+        <v>8401</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3434</v>
+        <v>0.3445</v>
       </c>
     </row>
     <row r="14">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5371</v>
+        <v>5394</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3481</v>
+        <v>0.3496</v>
       </c>
     </row>
     <row r="17">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>53055</v>
+        <v>53148</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2544</v>
+        <v>0.2548</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5342</v>
+        <v>5353</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3379</v>
+        <v>0.3386</v>
       </c>
     </row>
     <row r="21">
@@ -10556,10 +10556,10 @@
         <v>12475</v>
       </c>
       <c r="D22" s="0">
-        <v>2543</v>
+        <v>2560</v>
       </c>
       <c r="E22" s="8">
-        <v>0.2038</v>
+        <v>0.2052</v>
       </c>
     </row>
     <row r="23">
@@ -10573,10 +10573,10 @@
         <v>18284</v>
       </c>
       <c r="D23" s="0">
-        <v>3676</v>
+        <v>3712</v>
       </c>
       <c r="E23" s="8">
-        <v>0.2011</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="24">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5680</v>
+        <v>5690</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2249</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="25">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2729</v>
+        <v>2737</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2156</v>
+        <v>0.2163</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4716</v>
+        <v>4727</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2614</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="28">
@@ -10706,10 +10706,10 @@
         <v>219992</v>
       </c>
       <c r="D31" s="0">
-        <v>62524</v>
+        <v>62597</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2842</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="32">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>5742</v>
+        <v>5790</v>
       </c>
       <c r="E33" s="8">
-        <v>0.2846</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="34">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6023</v>
+        <v>6048</v>
       </c>
       <c r="E37" s="8">
-        <v>0.2742</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="38">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>54097</v>
+        <v>54141</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2593</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="44">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6143</v>
+        <v>6187</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2484</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="54">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>55175</v>
+        <v>55395</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2622</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4506</v>
+        <v>4521</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2645</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="57">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8359</v>
+        <v>8372</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2848</v>
+        <v>0.2852</v>
       </c>
     </row>
     <row r="58">
@@ -11176,10 +11176,10 @@
         <v>18123</v>
       </c>
       <c r="D59" s="0">
-        <v>4739</v>
+        <v>4767</v>
       </c>
       <c r="E59" s="8">
-        <v>0.2615</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="60">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5555</v>
+        <v>5583</v>
       </c>
       <c r="E60" s="8">
-        <v>0.2963</v>
+        <v>0.2978</v>
       </c>
     </row>
     <row r="61">
@@ -11244,10 +11244,10 @@
         <v>17242</v>
       </c>
       <c r="D63" s="0">
-        <v>4456</v>
+        <v>4562</v>
       </c>
       <c r="E63" s="8">
-        <v>0.2584</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="64">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5113</v>
+        <v>5143</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2505</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>56847</v>
+        <v>57001</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2614</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>5809</v>
+        <v>5835</v>
       </c>
       <c r="E68" s="8">
-        <v>0.256</v>
+        <v>0.2572</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6412</v>
+        <v>6455</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2629</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="70">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>4805</v>
+        <v>4819</v>
       </c>
       <c r="E72" s="8">
-        <v>0.227</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6372</v>
+        <v>6391</v>
       </c>
       <c r="E73" s="8">
-        <v>0.275</v>
+        <v>0.2759</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4614</v>
+        <v>4628</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2711</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="75">
@@ -11462,10 +11462,10 @@
         <v>17172</v>
       </c>
       <c r="D76" s="0">
-        <v>4962</v>
+        <v>5000</v>
       </c>
       <c r="E76" s="8">
-        <v>0.289</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="77">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>47852</v>
+        <v>48053</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2315</v>
+        <v>0.2325</v>
       </c>
     </row>
     <row r="80">
@@ -11527,10 +11527,10 @@
         <v>27753</v>
       </c>
       <c r="D80" s="0">
-        <v>4837</v>
+        <v>4845</v>
       </c>
       <c r="E80" s="8">
-        <v>0.1743</v>
+        <v>0.1746</v>
       </c>
     </row>
     <row r="81">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>6627</v>
+        <v>6651</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2629</v>
+        <v>0.2638</v>
       </c>
     </row>
     <row r="82">
@@ -11612,10 +11612,10 @@
         <v>21076</v>
       </c>
       <c r="D85" s="0">
-        <v>4754</v>
+        <v>4866</v>
       </c>
       <c r="E85" s="8">
-        <v>0.2256</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="86">
@@ -11629,10 +11629,10 @@
         <v>17307</v>
       </c>
       <c r="D86" s="0">
-        <v>4122</v>
+        <v>4179</v>
       </c>
       <c r="E86" s="8">
-        <v>0.2382</v>
+        <v>0.2415</v>
       </c>
     </row>
     <row r="87">
@@ -11708,13 +11708,13 @@
         <v>119</v>
       </c>
       <c r="C91" s="0">
-        <v>209675</v>
+        <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>53340</v>
+        <v>53665</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2544</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4639</v>
+        <v>4677</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2194</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4041</v>
+        <v>4060</v>
       </c>
       <c r="E93" s="8">
-        <v>0.2862</v>
+        <v>0.2875</v>
       </c>
     </row>
     <row r="94">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6463</v>
+        <v>6498</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2658</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6181</v>
+        <v>6223</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2488</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="97">
@@ -11810,13 +11810,13 @@
         <v>125</v>
       </c>
       <c r="C97" s="0">
-        <v>17766</v>
+        <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>4712</v>
+        <v>4731</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2652</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4219</v>
+        <v>4244</v>
       </c>
       <c r="E98" s="8">
-        <v>0.2559</v>
+        <v>0.2574</v>
       </c>
     </row>
     <row r="99">
@@ -11847,10 +11847,10 @@
         <v>18016</v>
       </c>
       <c r="D99" s="0">
-        <v>4209</v>
+        <v>4246</v>
       </c>
       <c r="E99" s="8">
-        <v>0.2336</v>
+        <v>0.2357</v>
       </c>
     </row>
     <row r="100">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>5980</v>
+        <v>6006</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2808</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>4507</v>
+        <v>4565</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2649</v>
+        <v>0.2683</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4807</v>
+        <v>4833</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2458</v>
+        <v>0.2471</v>
       </c>
     </row>
   </sheetData>
@@ -13956,10 +13956,10 @@
         <v>334</v>
       </c>
       <c r="F16" s="0">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="G16" s="8">
-        <v>0.3683</v>
+        <v>0.4701</v>
       </c>
     </row>
     <row r="17">
@@ -14922,10 +14922,10 @@
         <v>243</v>
       </c>
       <c r="F58" s="0">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="G58" s="8">
-        <v>0.3374</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="59">
@@ -15497,10 +15497,10 @@
         <v>145</v>
       </c>
       <c r="F83" s="0">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G83" s="8">
-        <v>0.3103</v>
+        <v>0.4621</v>
       </c>
     </row>
     <row r="84">
@@ -17843,10 +17843,10 @@
         <v>300</v>
       </c>
       <c r="F185" s="0">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="G185" s="8">
-        <v>0.4167</v>
+        <v>0.5067</v>
       </c>
     </row>
     <row r="186">
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="F245" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G245" s="8">
         <v>0</v>
@@ -19821,10 +19821,10 @@
         <v>282</v>
       </c>
       <c r="F271" s="0">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="G271" s="8">
-        <v>0.461</v>
+        <v>0.5426</v>
       </c>
     </row>
     <row r="272">
@@ -23202,10 +23202,10 @@
         <v>83</v>
       </c>
       <c r="F418" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G418" s="8">
-        <v>0.506</v>
+        <v>0.6386</v>
       </c>
     </row>
     <row r="419">
@@ -24490,10 +24490,10 @@
         <v>131</v>
       </c>
       <c r="F474" s="0">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G474" s="8">
-        <v>0.3511</v>
+        <v>0.4809</v>
       </c>
     </row>
     <row r="475">
@@ -25042,10 +25042,10 @@
         <v>520</v>
       </c>
       <c r="F498" s="0">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="G498" s="8">
-        <v>0.1885</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="499">
@@ -25985,10 +25985,10 @@
         <v>42</v>
       </c>
       <c r="F539" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G539" s="8">
-        <v>0.2619</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="540">
@@ -26146,10 +26146,10 @@
         <v>42</v>
       </c>
       <c r="F546" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G546" s="8">
-        <v>0.2143</v>
+        <v>0.2857</v>
       </c>
     </row>
     <row r="547">
@@ -29435,10 +29435,10 @@
         <v>96</v>
       </c>
       <c r="F689" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G689" s="8">
-        <v>0.3438</v>
+        <v>0.4271</v>
       </c>
     </row>
     <row r="690">
@@ -29941,10 +29941,10 @@
         <v>50</v>
       </c>
       <c r="F711" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G711" s="8">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="712">
@@ -35806,10 +35806,10 @@
         <v>428</v>
       </c>
       <c r="F966" s="0">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="G966" s="8">
-        <v>0.25</v>
+        <v>0.3621</v>
       </c>
     </row>
     <row r="967">
@@ -38382,10 +38382,10 @@
         <v>292</v>
       </c>
       <c r="F1078" s="0">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G1078" s="8">
-        <v>0.4247</v>
+        <v>0.5103</v>
       </c>
     </row>
     <row r="1079">
@@ -44615,7 +44615,7 @@
         <v>0</v>
       </c>
       <c r="F1349" s="0">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G1349" s="8">
         <v>0</v>
@@ -49123,10 +49123,10 @@
         <v>335</v>
       </c>
       <c r="F1545" s="0">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G1545" s="8">
-        <v>0.2119</v>
+        <v>0.3433</v>
       </c>
     </row>
     <row r="1546">
@@ -50549,10 +50549,10 @@
         <v>185</v>
       </c>
       <c r="F1607" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G1607" s="8">
-        <v>0.1622</v>
+        <v>0.2432</v>
       </c>
     </row>
     <row r="1608">
@@ -51446,10 +51446,10 @@
         <v>251</v>
       </c>
       <c r="F1646" s="0">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G1646" s="8">
-        <v>0.251</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="1647">
@@ -52757,10 +52757,10 @@
         <v>212</v>
       </c>
       <c r="F1703" s="0">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G1703" s="8">
-        <v>0.3255</v>
+        <v>0.4575</v>
       </c>
     </row>
     <row r="1704">
@@ -53516,10 +53516,10 @@
         <v>241</v>
       </c>
       <c r="F1736" s="0">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G1736" s="8">
-        <v>0.2697</v>
+        <v>0.3859</v>
       </c>
     </row>
     <row r="1737">
@@ -55264,10 +55264,10 @@
         <v>573</v>
       </c>
       <c r="F1812" s="0">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="G1812" s="8">
-        <v>0.2653</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="1813">
@@ -57909,10 +57909,10 @@
         <v>233</v>
       </c>
       <c r="F1927" s="0">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G1927" s="8">
-        <v>0.2017</v>
+        <v>0.3305</v>
       </c>
     </row>
     <row r="1928">
@@ -59289,10 +59289,10 @@
         <v>149</v>
       </c>
       <c r="F1987" s="0">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G1987" s="8">
-        <v>0.2953</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="1988">
@@ -60163,10 +60163,10 @@
         <v>490</v>
       </c>
       <c r="F2025" s="0">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G2025" s="8">
-        <v>0.2265</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="2026">
@@ -63682,10 +63682,10 @@
         <v>230</v>
       </c>
       <c r="F2178" s="0">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G2178" s="8">
-        <v>0.1826</v>
+        <v>0.2435</v>
       </c>
     </row>
     <row r="2179">
@@ -65361,10 +65361,10 @@
         <v>164</v>
       </c>
       <c r="F2251" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G2251" s="8">
-        <v>0.2988</v>
+        <v>0.4146</v>
       </c>
     </row>
     <row r="2252">
@@ -66603,10 +66603,10 @@
         <v>93</v>
       </c>
       <c r="F2305" s="0">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G2305" s="8">
-        <v>0.2581</v>
+        <v>0.4086</v>
       </c>
     </row>
     <row r="2306">
@@ -68282,10 +68282,10 @@
         <v>135</v>
       </c>
       <c r="F2378" s="0">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G2378" s="8">
-        <v>0.3333</v>
+        <v>0.4889</v>
       </c>
     </row>
     <row r="2379">
@@ -68604,10 +68604,10 @@
         <v>95</v>
       </c>
       <c r="F2392" s="0">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G2392" s="8">
-        <v>0.2842</v>
+        <v>0.4632</v>
       </c>
     </row>
     <row r="2393">
@@ -71663,10 +71663,10 @@
         <v>82</v>
       </c>
       <c r="F2525" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2525" s="8">
-        <v>0.3293</v>
+        <v>0.4268</v>
       </c>
     </row>
     <row r="2526">
@@ -72514,10 +72514,10 @@
         <v>212</v>
       </c>
       <c r="F2562" s="0">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G2562" s="8">
-        <v>0.2123</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="2563">
@@ -72905,10 +72905,10 @@
         <v>169</v>
       </c>
       <c r="F2579" s="0">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G2579" s="8">
-        <v>0.2071</v>
+        <v>0.2722</v>
       </c>
     </row>
     <row r="2580">
@@ -76470,7 +76470,7 @@
         <v>0</v>
       </c>
       <c r="F2734" s="0">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G2734" s="8">
         <v>0</v>
@@ -76815,10 +76815,10 @@
         <v>557</v>
       </c>
       <c r="F2749" s="0">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="G2749" s="8">
-        <v>0.228</v>
+        <v>0.3303</v>
       </c>
     </row>
     <row r="2750">
@@ -78954,10 +78954,10 @@
         <v>276</v>
       </c>
       <c r="F2842" s="0">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="G2842" s="8">
-        <v>0.279</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="2843">
@@ -80495,10 +80495,10 @@
         <v>163</v>
       </c>
       <c r="F2909" s="0">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G2909" s="8">
-        <v>0.3865</v>
+        <v>0.5031</v>
       </c>
     </row>
     <row r="2910">
@@ -82335,10 +82335,10 @@
         <v>192</v>
       </c>
       <c r="F2989" s="0">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G2989" s="8">
-        <v>0.25</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="2990">
@@ -82887,10 +82887,10 @@
         <v>78</v>
       </c>
       <c r="F3013" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G3013" s="8">
-        <v>0.2821</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="3014">
@@ -85003,10 +85003,10 @@
         <v>401</v>
       </c>
       <c r="F3105" s="0">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="G3105" s="8">
-        <v>0.3292</v>
+        <v>0.4339</v>
       </c>
     </row>
     <row r="3106">
@@ -85943,13 +85943,13 @@
         <v>3065</v>
       </c>
       <c r="E3146" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F3146" s="0">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G3146" s="8">
-        <v>0.2334</v>
+        <v>0.2915</v>
       </c>
     </row>
     <row r="3147">
@@ -86912,10 +86912,10 @@
         <v>619</v>
       </c>
       <c r="F3188" s="0">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="G3188" s="8">
-        <v>0.294</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="3189">
@@ -87786,10 +87786,10 @@
         <v>294</v>
       </c>
       <c r="F3226" s="0">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G3226" s="8">
-        <v>0.2109</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="3227">
@@ -89189,10 +89189,10 @@
         <v>247</v>
       </c>
       <c r="F3287" s="0">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G3287" s="8">
-        <v>0.2753</v>
+        <v>0.3806</v>
       </c>
     </row>
     <row r="3288">
@@ -89810,10 +89810,10 @@
         <v>509</v>
       </c>
       <c r="F3314" s="0">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="G3314" s="8">
-        <v>0.277</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="3315">
@@ -90661,10 +90661,10 @@
         <v>80</v>
       </c>
       <c r="F3351" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3351" s="8">
-        <v>0.1875</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="3352">
@@ -91420,10 +91420,10 @@
         <v>120</v>
       </c>
       <c r="F3384" s="0">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G3384" s="8">
-        <v>0.3083</v>
+        <v>0.4417</v>
       </c>
     </row>
     <row r="3385">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:15</t>
+    <t>21:20</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.885416666664</v>
+        <v>45452.88888888889</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689501</v>
       </c>
       <c r="D6" s="0">
-        <v>446149</v>
+        <v>447731</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2641</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208088</v>
       </c>
       <c r="D7" s="0">
-        <v>58398</v>
+        <v>58534</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2806</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="8">
@@ -10389,10 +10389,10 @@
         <v>20321</v>
       </c>
       <c r="D12" s="0">
-        <v>4978</v>
+        <v>5055</v>
       </c>
       <c r="E12" s="8">
-        <v>0.245</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="13">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4046</v>
+        <v>4105</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3036</v>
+        <v>0.3081</v>
       </c>
     </row>
     <row r="19">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>53148</v>
+        <v>53284</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2548</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5353</v>
+        <v>5363</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3386</v>
+        <v>0.3392</v>
       </c>
     </row>
     <row r="21">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5690</v>
+        <v>5713</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2253</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="25">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4727</v>
+        <v>4767</v>
       </c>
       <c r="E27" s="8">
-        <v>0.262</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="28">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6481</v>
+        <v>6544</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3141</v>
+        <v>0.3171</v>
       </c>
     </row>
     <row r="31">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>54141</v>
+        <v>54438</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2595</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3321</v>
+        <v>3379</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2353</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="45">
@@ -10975,10 +10975,10 @@
         <v>13315</v>
       </c>
       <c r="D47" s="0">
-        <v>3679</v>
+        <v>3722</v>
       </c>
       <c r="E47" s="8">
-        <v>0.2763</v>
+        <v>0.2795</v>
       </c>
     </row>
     <row r="48">
@@ -10992,10 +10992,10 @@
         <v>23277</v>
       </c>
       <c r="D48" s="0">
-        <v>6247</v>
+        <v>6341</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2684</v>
+        <v>0.2724</v>
       </c>
     </row>
     <row r="49">
@@ -11060,10 +11060,10 @@
         <v>21348</v>
       </c>
       <c r="D52" s="0">
-        <v>5069</v>
+        <v>5121</v>
       </c>
       <c r="E52" s="8">
-        <v>0.2374</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="53">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6187</v>
+        <v>6237</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2502</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="54">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>55395</v>
+        <v>55575</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2632</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="56">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8372</v>
+        <v>8421</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2852</v>
+        <v>0.2869</v>
       </c>
     </row>
     <row r="58">
@@ -11176,10 +11176,10 @@
         <v>18123</v>
       </c>
       <c r="D59" s="0">
-        <v>4767</v>
+        <v>4833</v>
       </c>
       <c r="E59" s="8">
-        <v>0.263</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="60">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5583</v>
+        <v>5605</v>
       </c>
       <c r="E60" s="8">
-        <v>0.2978</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="61">
@@ -11261,10 +11261,10 @@
         <v>17964</v>
       </c>
       <c r="D64" s="0">
-        <v>4568</v>
+        <v>4585</v>
       </c>
       <c r="E64" s="8">
-        <v>0.2543</v>
+        <v>0.2552</v>
       </c>
     </row>
     <row r="65">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5143</v>
+        <v>5169</v>
       </c>
       <c r="E66" s="8">
-        <v>0.252</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>57001</v>
+        <v>57340</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2621</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>5835</v>
+        <v>5906</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2572</v>
+        <v>0.2603</v>
       </c>
     </row>
     <row r="69">
@@ -11360,10 +11360,10 @@
         <v>25794</v>
       </c>
       <c r="D70" s="0">
-        <v>6739</v>
+        <v>6782</v>
       </c>
       <c r="E70" s="8">
-        <v>0.2613</v>
+        <v>0.2629</v>
       </c>
     </row>
     <row r="71">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>4885</v>
+        <v>4898</v>
       </c>
       <c r="E71" s="8">
-        <v>0.2869</v>
+        <v>0.2877</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>4819</v>
+        <v>4863</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2277</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6391</v>
+        <v>6470</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2759</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="74">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>3512</v>
+        <v>3525</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2404</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="76">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5177</v>
+        <v>5253</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2485</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="78">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>48053</v>
+        <v>48126</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2325</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>6651</v>
+        <v>6679</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2638</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="82">
@@ -11663,10 +11663,10 @@
         <v>16883</v>
       </c>
       <c r="D88" s="0">
-        <v>3742</v>
+        <v>3787</v>
       </c>
       <c r="E88" s="8">
-        <v>0.2216</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="89">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>53665</v>
+        <v>54086</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2559</v>
+        <v>0.2579</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4677</v>
+        <v>4709</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2212</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4060</v>
+        <v>4081</v>
       </c>
       <c r="E93" s="8">
-        <v>0.2875</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>3582</v>
+        <v>3595</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2371</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6498</v>
+        <v>6558</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2672</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6223</v>
+        <v>6240</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2505</v>
+        <v>0.2512</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>4731</v>
+        <v>4752</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2663</v>
+        <v>0.2674</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4244</v>
+        <v>4271</v>
       </c>
       <c r="E98" s="8">
-        <v>0.2574</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="99">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6006</v>
+        <v>6041</v>
       </c>
       <c r="E100" s="8">
-        <v>0.282</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>4565</v>
+        <v>4737</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2683</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4833</v>
+        <v>4856</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2471</v>
+        <v>0.2483</v>
       </c>
     </row>
   </sheetData>
@@ -16716,10 +16716,10 @@
         <v>859</v>
       </c>
       <c r="F136" s="0">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="G136" s="8">
-        <v>0.2352</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="137">
@@ -21661,10 +21661,10 @@
         <v>339</v>
       </c>
       <c r="F351" s="0">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="G351" s="8">
-        <v>0.3156</v>
+        <v>0.4897</v>
       </c>
     </row>
     <row r="352">
@@ -23455,10 +23455,10 @@
         <v>48</v>
       </c>
       <c r="F429" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G429" s="8">
-        <v>0.4167</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="430">
@@ -25962,10 +25962,10 @@
         <v>151</v>
       </c>
       <c r="F538" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G538" s="8">
-        <v>0.1987</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="539">
@@ -26698,10 +26698,10 @@
         <v>70</v>
       </c>
       <c r="F570" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G570" s="8">
-        <v>0.6571</v>
+        <v>0.7714</v>
       </c>
     </row>
     <row r="571">
@@ -30470,10 +30470,10 @@
         <v>218</v>
       </c>
       <c r="F734" s="0">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G734" s="8">
-        <v>0.3211</v>
+        <v>0.5046</v>
       </c>
     </row>
     <row r="735">
@@ -33897,10 +33897,10 @@
         <v>311</v>
       </c>
       <c r="F883" s="0">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="G883" s="8">
-        <v>0.2186</v>
+        <v>0.4212</v>
       </c>
     </row>
     <row r="884">
@@ -42361,10 +42361,10 @@
         <v>520</v>
       </c>
       <c r="F1251" s="0">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="G1251" s="8">
-        <v>0.2442</v>
+        <v>0.3558</v>
       </c>
     </row>
     <row r="1252">
@@ -44868,10 +44868,10 @@
         <v>293</v>
       </c>
       <c r="F1360" s="0">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="G1360" s="8">
-        <v>0.4096</v>
+        <v>0.5563</v>
       </c>
     </row>
     <row r="1361">
@@ -45857,10 +45857,10 @@
         <v>572</v>
       </c>
       <c r="F1403" s="0">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="G1403" s="8">
-        <v>0.2745</v>
+        <v>0.4388</v>
       </c>
     </row>
     <row r="1404">
@@ -48157,10 +48157,10 @@
         <v>567</v>
       </c>
       <c r="F1503" s="0">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G1503" s="8">
-        <v>0.3298</v>
+        <v>0.4215</v>
       </c>
     </row>
     <row r="1504">
@@ -49054,10 +49054,10 @@
         <v>465</v>
       </c>
       <c r="F1542" s="0">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="G1542" s="8">
-        <v>0.1892</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="1543">
@@ -51262,10 +51262,10 @@
         <v>352</v>
       </c>
       <c r="F1638" s="0">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="G1638" s="8">
-        <v>0.2812</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="1639">
@@ -52964,10 +52964,10 @@
         <v>435</v>
       </c>
       <c r="F1712" s="0">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="G1712" s="8">
-        <v>0.3448</v>
+        <v>0.4966</v>
       </c>
     </row>
     <row r="1713">
@@ -53654,10 +53654,10 @@
         <v>158</v>
       </c>
       <c r="F1742" s="0">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G1742" s="8">
-        <v>0.3861</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="1743">
@@ -56437,10 +56437,10 @@
         <v>195</v>
       </c>
       <c r="F1863" s="0">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G1863" s="8">
-        <v>0.2256</v>
+        <v>0.3128</v>
       </c>
     </row>
     <row r="1864">
@@ -58254,10 +58254,10 @@
         <v>435</v>
       </c>
       <c r="F1942" s="0">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G1942" s="8">
-        <v>0.2299</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="1943">
@@ -58599,10 +58599,10 @@
         <v>611</v>
       </c>
       <c r="F1957" s="0">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="G1957" s="8">
-        <v>0.2504</v>
+        <v>0.3666</v>
       </c>
     </row>
     <row r="1958">
@@ -61980,10 +61980,10 @@
         <v>313</v>
       </c>
       <c r="F2104" s="0">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="G2104" s="8">
-        <v>0.3131</v>
+        <v>0.4505</v>
       </c>
     </row>
     <row r="2105">
@@ -62509,10 +62509,10 @@
         <v>163</v>
       </c>
       <c r="F2127" s="0">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G2127" s="8">
-        <v>0.3006</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="2128">
@@ -63429,10 +63429,10 @@
         <v>249</v>
       </c>
       <c r="F2167" s="0">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G2167" s="8">
-        <v>0.3052</v>
+        <v>0.3896</v>
       </c>
     </row>
     <row r="2168">
@@ -64142,10 +64142,10 @@
         <v>273</v>
       </c>
       <c r="F2198" s="0">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G2198" s="8">
-        <v>0.2564</v>
+        <v>0.3407</v>
       </c>
     </row>
     <row r="2199">
@@ -64924,10 +64924,10 @@
         <v>635</v>
       </c>
       <c r="F2232" s="0">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="G2232" s="8">
-        <v>0.263</v>
+        <v>0.3874</v>
       </c>
     </row>
     <row r="2233">
@@ -67431,10 +67431,10 @@
         <v>185</v>
       </c>
       <c r="F2341" s="0">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G2341" s="8">
-        <v>0.2703</v>
+        <v>0.3405</v>
       </c>
     </row>
     <row r="2342">
@@ -69409,10 +69409,10 @@
         <v>260</v>
       </c>
       <c r="F2427" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G2427" s="8">
-        <v>0.2654</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="2428">
@@ -69455,10 +69455,10 @@
         <v>1047</v>
       </c>
       <c r="F2429" s="0">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="G2429" s="8">
-        <v>0.2034</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="2430">
@@ -72606,10 +72606,10 @@
         <v>188</v>
       </c>
       <c r="F2566" s="0">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G2566" s="8">
-        <v>0.3298</v>
+        <v>0.4787</v>
       </c>
     </row>
     <row r="2567">
@@ -77528,10 +77528,10 @@
         <v>699</v>
       </c>
       <c r="F2780" s="0">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="G2780" s="8">
-        <v>0.226</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="2781">
@@ -79345,10 +79345,10 @@
         <v>500</v>
       </c>
       <c r="F2859" s="0">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G2859" s="8">
-        <v>0.256</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="2860">
@@ -80472,10 +80472,10 @@
         <v>126</v>
       </c>
       <c r="F2908" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2908" s="8">
-        <v>0.2937</v>
+        <v>0.3492</v>
       </c>
     </row>
     <row r="2909">
@@ -80725,10 +80725,10 @@
         <v>106</v>
       </c>
       <c r="F2919" s="0">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G2919" s="8">
-        <v>0.4528</v>
+        <v>0.5849</v>
       </c>
     </row>
     <row r="2920">
@@ -81438,10 +81438,10 @@
         <v>247</v>
       </c>
       <c r="F2950" s="0">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G2950" s="8">
-        <v>0.3158</v>
+        <v>0.3684</v>
       </c>
     </row>
     <row r="2951">
@@ -82565,10 +82565,10 @@
         <v>180</v>
       </c>
       <c r="F2999" s="0">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G2999" s="8">
-        <v>0.2944</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="3000">
@@ -84129,10 +84129,10 @@
         <v>235</v>
       </c>
       <c r="F3067" s="0">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="G3067" s="8">
-        <v>0.234</v>
+        <v>0.3957</v>
       </c>
     </row>
     <row r="3068">
@@ -85164,10 +85164,10 @@
         <v>226</v>
       </c>
       <c r="F3112" s="0">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G3112" s="8">
-        <v>0.2212</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="3113">
@@ -86337,10 +86337,10 @@
         <v>293</v>
       </c>
       <c r="F3163" s="0">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G3163" s="8">
-        <v>0.2184</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="3164">
@@ -86866,10 +86866,10 @@
         <v>351</v>
       </c>
       <c r="F3186" s="0">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="G3186" s="8">
-        <v>0.302</v>
+        <v>0.3789</v>
       </c>
     </row>
     <row r="3187">
@@ -89258,10 +89258,10 @@
         <v>401</v>
       </c>
       <c r="F3290" s="0">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="G3290" s="8">
-        <v>0.1945</v>
+        <v>0.2818</v>
       </c>
     </row>
     <row r="3291">
@@ -89994,10 +89994,10 @@
         <v>403</v>
       </c>
       <c r="F3322" s="0">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="G3322" s="8">
-        <v>0.2531</v>
+        <v>0.3772</v>
       </c>
     </row>
     <row r="3323">
@@ -90109,10 +90109,10 @@
         <v>711</v>
       </c>
       <c r="F3327" s="0">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="G3327" s="8">
-        <v>0.2011</v>
+        <v>0.3727</v>
       </c>
     </row>
     <row r="3328">
@@ -91765,10 +91765,10 @@
         <v>316</v>
       </c>
       <c r="F3399" s="0">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G3399" s="8">
-        <v>0.2627</v>
+        <v>0.3354</v>
       </c>
     </row>
     <row r="3400">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:20</t>
+    <t>21:25</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.88888888889</v>
+        <v>45452.89236111111</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689501</v>
+        <v>1689502</v>
       </c>
       <c r="D6" s="0">
-        <v>447731</v>
+        <v>449424</v>
       </c>
       <c r="E6" s="8">
-        <v>0.265</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="7">
@@ -10301,13 +10301,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="0">
-        <v>208088</v>
+        <v>208089</v>
       </c>
       <c r="D7" s="0">
-        <v>58534</v>
+        <v>58865</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2813</v>
+        <v>0.2829</v>
       </c>
     </row>
     <row r="8">
@@ -10318,13 +10318,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="0">
-        <v>25954</v>
+        <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6037</v>
+        <v>6102</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2326</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="9">
@@ -10355,10 +10355,10 @@
         <v>15875</v>
       </c>
       <c r="D10" s="0">
-        <v>4527</v>
+        <v>4546</v>
       </c>
       <c r="E10" s="8">
-        <v>0.2852</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="11">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8401</v>
+        <v>8441</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3445</v>
+        <v>0.3461</v>
       </c>
     </row>
     <row r="14">
@@ -10423,10 +10423,10 @@
         <v>12396</v>
       </c>
       <c r="D14" s="0">
-        <v>3031</v>
+        <v>3042</v>
       </c>
       <c r="E14" s="8">
-        <v>0.2445</v>
+        <v>0.2454</v>
       </c>
     </row>
     <row r="15">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>5528</v>
+        <v>5557</v>
       </c>
       <c r="E15" s="8">
-        <v>0.2964</v>
+        <v>0.2979</v>
       </c>
     </row>
     <row r="16">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5394</v>
+        <v>5552</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3496</v>
+        <v>0.3598</v>
       </c>
     </row>
     <row r="17">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4105</v>
+        <v>4114</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3081</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="19">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>53284</v>
+        <v>53596</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2555</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5363</v>
+        <v>5368</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3392</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="21">
@@ -10539,10 +10539,10 @@
         <v>14513</v>
       </c>
       <c r="D21" s="0">
-        <v>3058</v>
+        <v>3191</v>
       </c>
       <c r="E21" s="8">
-        <v>0.2107</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="22">
@@ -10573,10 +10573,10 @@
         <v>18284</v>
       </c>
       <c r="D23" s="0">
-        <v>3712</v>
+        <v>3766</v>
       </c>
       <c r="E23" s="8">
-        <v>0.203</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="24">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5713</v>
+        <v>5722</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2262</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="25">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5616</v>
+        <v>5646</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2533</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2737</v>
+        <v>2750</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2163</v>
+        <v>0.2173</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4767</v>
+        <v>4799</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2642</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="28">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6544</v>
+        <v>6580</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3171</v>
+        <v>0.3189</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219992</v>
       </c>
       <c r="D31" s="0">
-        <v>62597</v>
+        <v>62820</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2845</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7608</v>
+        <v>7642</v>
       </c>
       <c r="E32" s="8">
-        <v>0.303</v>
+        <v>0.3043</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>5790</v>
+        <v>5833</v>
       </c>
       <c r="E33" s="8">
-        <v>0.287</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="34">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6048</v>
+        <v>6104</v>
       </c>
       <c r="E37" s="8">
-        <v>0.2753</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="38">
@@ -10876,10 +10876,10 @@
         <v>16726</v>
       </c>
       <c r="D41" s="0">
-        <v>4728</v>
+        <v>4818</v>
       </c>
       <c r="E41" s="8">
-        <v>0.2827</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="42">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>54438</v>
+        <v>54543</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2609</v>
+        <v>0.2614</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3379</v>
+        <v>3423</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2395</v>
+        <v>0.2426</v>
       </c>
     </row>
     <row r="45">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3340</v>
+        <v>3401</v>
       </c>
       <c r="E49" s="8">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="50">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>55575</v>
+        <v>55683</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2641</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4521</v>
+        <v>4547</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2654</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="57">
@@ -11159,10 +11159,10 @@
         <v>21305</v>
       </c>
       <c r="D58" s="0">
-        <v>4955</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="8">
-        <v>0.2326</v>
+        <v>0.2347</v>
       </c>
     </row>
     <row r="59">
@@ -11261,10 +11261,10 @@
         <v>17964</v>
       </c>
       <c r="D64" s="0">
-        <v>4585</v>
+        <v>4613</v>
       </c>
       <c r="E64" s="8">
-        <v>0.2552</v>
+        <v>0.2568</v>
       </c>
     </row>
     <row r="65">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5169</v>
+        <v>5178</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2533</v>
+        <v>0.2537</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>57340</v>
+        <v>57621</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2637</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>5906</v>
+        <v>5923</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2603</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6455</v>
+        <v>6490</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2646</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="70">
@@ -11360,10 +11360,10 @@
         <v>25794</v>
       </c>
       <c r="D70" s="0">
-        <v>6782</v>
+        <v>6799</v>
       </c>
       <c r="E70" s="8">
-        <v>0.2629</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="71">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>4898</v>
+        <v>4926</v>
       </c>
       <c r="E71" s="8">
-        <v>0.2877</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>4863</v>
+        <v>4906</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2297</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6470</v>
+        <v>6545</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2793</v>
+        <v>0.2825</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4628</v>
+        <v>4658</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2719</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="75">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>3525</v>
+        <v>3539</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2412</v>
+        <v>0.2422</v>
       </c>
     </row>
     <row r="76">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5253</v>
+        <v>5275</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2522</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="78">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>48126</v>
+        <v>48192</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2329</v>
+        <v>0.2332</v>
       </c>
     </row>
     <row r="80">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5006</v>
+        <v>5016</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2635</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="83">
@@ -11646,10 +11646,10 @@
         <v>13933</v>
       </c>
       <c r="D87" s="0">
-        <v>2877</v>
+        <v>2933</v>
       </c>
       <c r="E87" s="8">
-        <v>0.2065</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="88">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>54086</v>
+        <v>54332</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2579</v>
+        <v>0.2591</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4709</v>
+        <v>4762</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2227</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4081</v>
+        <v>4095</v>
       </c>
       <c r="E93" s="8">
-        <v>0.289</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="94">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6558</v>
+        <v>6582</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2697</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6240</v>
+        <v>6273</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2512</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>4752</v>
+        <v>4826</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2674</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="98">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6041</v>
+        <v>6071</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2837</v>
+        <v>0.2851</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>4737</v>
+        <v>4755</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2784</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="102">
@@ -14206,13 +14206,13 @@
         <v>489</v>
       </c>
       <c r="E27" s="0">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F27" s="0">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="G27" s="8">
-        <v>0.0931</v>
+        <v>0.1921</v>
       </c>
     </row>
     <row r="28">
@@ -15957,10 +15957,10 @@
         <v>156</v>
       </c>
       <c r="F103" s="0">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G103" s="8">
-        <v>0.2821</v>
+        <v>0.4038</v>
       </c>
     </row>
     <row r="104">
@@ -17199,10 +17199,10 @@
         <v>290</v>
       </c>
       <c r="F157" s="0">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="G157" s="8">
-        <v>0.4379</v>
+        <v>0.5759</v>
       </c>
     </row>
     <row r="158">
@@ -18280,10 +18280,10 @@
         <v>163</v>
       </c>
       <c r="F204" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G204" s="8">
-        <v>0.362</v>
+        <v>0.4294</v>
       </c>
     </row>
     <row r="205">
@@ -19154,10 +19154,10 @@
         <v>268</v>
       </c>
       <c r="F242" s="0">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="G242" s="8">
-        <v>0.4366</v>
+        <v>0.5448</v>
       </c>
     </row>
     <row r="243">
@@ -19522,10 +19522,10 @@
         <v>140</v>
       </c>
       <c r="F258" s="0">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="G258" s="8">
-        <v>0.4143</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="259">
@@ -20051,7 +20051,7 @@
         <v>0</v>
       </c>
       <c r="F281" s="0">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G281" s="8">
         <v>0</v>
@@ -21385,10 +21385,10 @@
         <v>102</v>
       </c>
       <c r="F339" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G339" s="8">
-        <v>0.3431</v>
+        <v>0.4314</v>
       </c>
     </row>
     <row r="340">
@@ -23179,10 +23179,10 @@
         <v>103</v>
       </c>
       <c r="F417" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G417" s="8">
-        <v>0.4272</v>
+        <v>0.4757</v>
       </c>
     </row>
     <row r="418">
@@ -24053,10 +24053,10 @@
         <v>1717</v>
       </c>
       <c r="F455" s="0">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="G455" s="8">
-        <v>0.1753</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="456">
@@ -24720,10 +24720,10 @@
         <v>457</v>
       </c>
       <c r="F484" s="0">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="G484" s="8">
-        <v>0.2823</v>
+        <v>0.4004</v>
       </c>
     </row>
     <row r="485">
@@ -25824,10 +25824,10 @@
         <v>67</v>
       </c>
       <c r="F532" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G532" s="8">
-        <v>0.4627</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="533">
@@ -28239,10 +28239,10 @@
         <v>261</v>
       </c>
       <c r="F637" s="0">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G637" s="8">
-        <v>0.3372</v>
+        <v>0.4521</v>
       </c>
     </row>
     <row r="638">
@@ -28837,10 +28837,10 @@
         <v>67</v>
       </c>
       <c r="F663" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G663" s="8">
-        <v>0.4179</v>
+        <v>0.4328</v>
       </c>
     </row>
     <row r="664">
@@ -29320,10 +29320,10 @@
         <v>34</v>
       </c>
       <c r="F684" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G684" s="8">
-        <v>0.5294</v>
+        <v>0.6765</v>
       </c>
     </row>
     <row r="685">
@@ -29596,10 +29596,10 @@
         <v>114</v>
       </c>
       <c r="F696" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G696" s="8">
-        <v>0.307</v>
+        <v>0.3684</v>
       </c>
     </row>
     <row r="697">
@@ -30263,10 +30263,10 @@
         <v>427</v>
       </c>
       <c r="F725" s="0">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="G725" s="8">
-        <v>0.2037</v>
+        <v>0.2787</v>
       </c>
     </row>
     <row r="726">
@@ -33736,10 +33736,10 @@
         <v>214</v>
       </c>
       <c r="F876" s="0">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="G876" s="8">
-        <v>0.3925</v>
+        <v>0.5607</v>
       </c>
     </row>
     <row r="877">
@@ -34817,10 +34817,10 @@
         <v>224</v>
       </c>
       <c r="F923" s="0">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G923" s="8">
-        <v>0.3125</v>
+        <v>0.4643</v>
       </c>
     </row>
     <row r="924">
@@ -36151,10 +36151,10 @@
         <v>289</v>
       </c>
       <c r="F981" s="0">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="G981" s="8">
-        <v>0.2976</v>
+        <v>0.4464</v>
       </c>
     </row>
     <row r="982">
@@ -38244,10 +38244,10 @@
         <v>350</v>
       </c>
       <c r="F1072" s="0">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="G1072" s="8">
-        <v>0.3829</v>
+        <v>0.5429</v>
       </c>
     </row>
     <row r="1073">
@@ -40843,10 +40843,10 @@
         <v>581</v>
       </c>
       <c r="F1185" s="0">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="G1185" s="8">
-        <v>0.3046</v>
+        <v>0.4596</v>
       </c>
     </row>
     <row r="1186">
@@ -42545,10 +42545,10 @@
         <v>239</v>
       </c>
       <c r="F1259" s="0">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G1259" s="8">
-        <v>0.2971</v>
+        <v>0.4477</v>
       </c>
     </row>
     <row r="1260">
@@ -42591,10 +42591,10 @@
         <v>131</v>
       </c>
       <c r="F1261" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1261" s="8">
-        <v>0.3359</v>
+        <v>0.3969</v>
       </c>
     </row>
     <row r="1262">
@@ -46133,10 +46133,10 @@
         <v>539</v>
       </c>
       <c r="F1415" s="0">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="G1415" s="8">
-        <v>0.2468</v>
+        <v>0.3599</v>
       </c>
     </row>
     <row r="1416">
@@ -50204,10 +50204,10 @@
         <v>154</v>
       </c>
       <c r="F1592" s="0">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G1592" s="8">
-        <v>0.3701</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="1593">
@@ -52136,10 +52136,10 @@
         <v>740</v>
       </c>
       <c r="F1676" s="0">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="G1676" s="8">
-        <v>0.1703</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="1677">
@@ -56391,10 +56391,10 @@
         <v>175</v>
       </c>
       <c r="F1861" s="0">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G1861" s="8">
-        <v>0.3314</v>
+        <v>0.4914</v>
       </c>
     </row>
     <row r="1862">
@@ -58208,10 +58208,10 @@
         <v>146</v>
       </c>
       <c r="F1940" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G1940" s="8">
-        <v>0.2329</v>
+        <v>0.2945</v>
       </c>
     </row>
     <row r="1941">
@@ -59013,10 +59013,10 @@
         <v>67</v>
       </c>
       <c r="F1975" s="0">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G1975" s="8">
-        <v>0.4627</v>
+        <v>0.7164</v>
       </c>
     </row>
     <row r="1976">
@@ -60232,10 +60232,10 @@
         <v>428</v>
       </c>
       <c r="F2028" s="0">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="G2028" s="8">
-        <v>0.2173</v>
+        <v>0.2991</v>
       </c>
     </row>
     <row r="2029">
@@ -61405,10 +61405,10 @@
         <v>227</v>
       </c>
       <c r="F2079" s="0">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G2079" s="8">
-        <v>0.4493</v>
+        <v>0.5242</v>
       </c>
     </row>
     <row r="2080">
@@ -62739,10 +62739,10 @@
         <v>232</v>
       </c>
       <c r="F2137" s="0">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G2137" s="8">
-        <v>0.2845</v>
+        <v>0.4052</v>
       </c>
     </row>
     <row r="2138">
@@ -63498,10 +63498,10 @@
         <v>374</v>
       </c>
       <c r="F2170" s="0">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="G2170" s="8">
-        <v>0.2406</v>
+        <v>0.3556</v>
       </c>
     </row>
     <row r="2171">
@@ -64694,10 +64694,10 @@
         <v>164</v>
       </c>
       <c r="F2222" s="0">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G2222" s="8">
-        <v>0.2073</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="2223">
@@ -65706,10 +65706,10 @@
         <v>311</v>
       </c>
       <c r="F2266" s="0">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="G2266" s="8">
-        <v>0.2508</v>
+        <v>0.4051</v>
       </c>
     </row>
     <row r="2267">
@@ -66465,10 +66465,10 @@
         <v>423</v>
       </c>
       <c r="F2299" s="0">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G2299" s="8">
-        <v>0.3026</v>
+        <v>0.3735</v>
       </c>
     </row>
     <row r="2300">
@@ -67385,10 +67385,10 @@
         <v>194</v>
       </c>
       <c r="F2339" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G2339" s="8">
-        <v>0.1649</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="2340">
@@ -69294,10 +69294,10 @@
         <v>191</v>
       </c>
       <c r="F2422" s="0">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G2422" s="8">
-        <v>0.3455</v>
+        <v>0.4607</v>
       </c>
     </row>
     <row r="2423">
@@ -70720,7 +70720,7 @@
         <v>0</v>
       </c>
       <c r="F2484" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G2484" s="8">
         <v>0</v>
@@ -71847,7 +71847,7 @@
         <v>0</v>
       </c>
       <c r="F2533" s="0">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G2533" s="8">
         <v>0</v>
@@ -74009,10 +74009,10 @@
         <v>139</v>
       </c>
       <c r="F2627" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G2627" s="8">
-        <v>0.3022</v>
+        <v>0.3741</v>
       </c>
     </row>
     <row r="2628">
@@ -77321,10 +77321,10 @@
         <v>528</v>
       </c>
       <c r="F2771" s="0">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="G2771" s="8">
-        <v>0.2273</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="2772">
@@ -79736,10 +79736,10 @@
         <v>643</v>
       </c>
       <c r="F2876" s="0">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="G2876" s="8">
-        <v>0.2519</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="2877">
@@ -80702,10 +80702,10 @@
         <v>129</v>
       </c>
       <c r="F2918" s="0">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G2918" s="8">
-        <v>0.3178</v>
+        <v>0.4264</v>
       </c>
     </row>
     <row r="2919">
@@ -83715,10 +83715,10 @@
         <v>45</v>
       </c>
       <c r="F3049" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3049" s="8">
-        <v>0.5111</v>
+        <v>0.6444</v>
       </c>
     </row>
     <row r="3050">
@@ -84336,10 +84336,10 @@
         <v>125</v>
       </c>
       <c r="F3076" s="0">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G3076" s="8">
-        <v>0.232</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="3077">
@@ -85095,10 +85095,10 @@
         <v>289</v>
       </c>
       <c r="F3109" s="0">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G3109" s="8">
-        <v>0.301</v>
+        <v>0.4152</v>
       </c>
     </row>
     <row r="3110">
@@ -86015,10 +86015,10 @@
         <v>749</v>
       </c>
       <c r="F3149" s="0">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="G3149" s="8">
-        <v>0.2363</v>
+        <v>0.3351</v>
       </c>
     </row>
     <row r="3150">
@@ -88407,10 +88407,10 @@
         <v>222</v>
       </c>
       <c r="F3253" s="0">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G3253" s="8">
-        <v>0.2838</v>
+        <v>0.4189</v>
       </c>
     </row>
     <row r="3254">
@@ -90040,10 +90040,10 @@
         <v>319</v>
       </c>
       <c r="F3324" s="0">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G3324" s="8">
-        <v>0.2382</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="3325">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:25</t>
+    <t>21:30</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.89236111111</v>
+        <v>45452.895833333336</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689502</v>
       </c>
       <c r="D6" s="0">
-        <v>449424</v>
+        <v>451368</v>
       </c>
       <c r="E6" s="8">
-        <v>0.266</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208089</v>
       </c>
       <c r="D7" s="0">
-        <v>58865</v>
+        <v>59023</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2829</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6102</v>
+        <v>6118</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2351</v>
+        <v>0.2357</v>
       </c>
     </row>
     <row r="9">
@@ -10389,10 +10389,10 @@
         <v>20321</v>
       </c>
       <c r="D12" s="0">
-        <v>5055</v>
+        <v>5136</v>
       </c>
       <c r="E12" s="8">
-        <v>0.2488</v>
+        <v>0.2527</v>
       </c>
     </row>
     <row r="13">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>5557</v>
+        <v>5595</v>
       </c>
       <c r="E15" s="8">
-        <v>0.2979</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5552</v>
+        <v>5562</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3598</v>
+        <v>0.3605</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7384</v>
+        <v>7397</v>
       </c>
       <c r="E17" s="8">
-        <v>0.263</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="18">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>53596</v>
+        <v>53794</v>
       </c>
       <c r="E19" s="8">
-        <v>0.257</v>
+        <v>0.2579</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5368</v>
+        <v>5371</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3396</v>
+        <v>0.3397</v>
       </c>
     </row>
     <row r="21">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5722</v>
+        <v>5733</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2266</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="25">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5646</v>
+        <v>5667</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2547</v>
+        <v>0.2557</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2750</v>
+        <v>2779</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2173</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4799</v>
+        <v>4882</v>
       </c>
       <c r="E27" s="8">
-        <v>0.266</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="28">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6580</v>
+        <v>6631</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3189</v>
+        <v>0.3214</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219992</v>
       </c>
       <c r="D31" s="0">
-        <v>62820</v>
+        <v>63094</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2856</v>
+        <v>0.2868</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7642</v>
+        <v>7696</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3043</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="33">
@@ -10791,10 +10791,10 @@
         <v>16496</v>
       </c>
       <c r="D36" s="0">
-        <v>4831</v>
+        <v>4941</v>
       </c>
       <c r="E36" s="8">
-        <v>0.2929</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="37">
@@ -10893,10 +10893,10 @@
         <v>22794</v>
       </c>
       <c r="D42" s="0">
-        <v>6738</v>
+        <v>6848</v>
       </c>
       <c r="E42" s="8">
-        <v>0.2956</v>
+        <v>0.3004</v>
       </c>
     </row>
     <row r="43">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>54543</v>
+        <v>54704</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2614</v>
+        <v>0.2622</v>
       </c>
     </row>
     <row r="44">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>4910</v>
+        <v>4968</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2462</v>
+        <v>0.2491</v>
       </c>
     </row>
     <row r="51">
@@ -11094,10 +11094,10 @@
         <v>22919</v>
       </c>
       <c r="D54" s="0">
-        <v>6022</v>
+        <v>6125</v>
       </c>
       <c r="E54" s="8">
-        <v>0.2628</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="55">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>55683</v>
+        <v>55827</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2646</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4547</v>
+        <v>4567</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2669</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="57">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8421</v>
+        <v>8451</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2869</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="58">
@@ -11244,10 +11244,10 @@
         <v>17242</v>
       </c>
       <c r="D63" s="0">
-        <v>4562</v>
+        <v>4617</v>
       </c>
       <c r="E63" s="8">
-        <v>0.2646</v>
+        <v>0.2678</v>
       </c>
     </row>
     <row r="64">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5178</v>
+        <v>5217</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2537</v>
+        <v>0.2556</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>57621</v>
+        <v>57790</v>
       </c>
       <c r="E67" s="8">
-        <v>0.265</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>5923</v>
+        <v>5980</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2611</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="69">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>4926</v>
+        <v>4954</v>
       </c>
       <c r="E71" s="8">
-        <v>0.2893</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="72">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6545</v>
+        <v>6583</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2825</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4658</v>
+        <v>4678</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2737</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="75">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5275</v>
+        <v>5301</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2532</v>
+        <v>0.2545</v>
       </c>
     </row>
     <row r="78">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>48192</v>
+        <v>48440</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2332</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>6679</v>
+        <v>6723</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2649</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5016</v>
+        <v>5031</v>
       </c>
       <c r="E82" s="8">
-        <v>0.264</v>
+        <v>0.2648</v>
       </c>
     </row>
     <row r="83">
@@ -11595,10 +11595,10 @@
         <v>23522</v>
       </c>
       <c r="D84" s="0">
-        <v>6015</v>
+        <v>6040</v>
       </c>
       <c r="E84" s="8">
-        <v>0.2557</v>
+        <v>0.2568</v>
       </c>
     </row>
     <row r="85">
@@ -11612,10 +11612,10 @@
         <v>21076</v>
       </c>
       <c r="D85" s="0">
-        <v>4866</v>
+        <v>4901</v>
       </c>
       <c r="E85" s="8">
-        <v>0.2309</v>
+        <v>0.2325</v>
       </c>
     </row>
     <row r="86">
@@ -11629,10 +11629,10 @@
         <v>17307</v>
       </c>
       <c r="D86" s="0">
-        <v>4179</v>
+        <v>4255</v>
       </c>
       <c r="E86" s="8">
-        <v>0.2415</v>
+        <v>0.2459</v>
       </c>
     </row>
     <row r="87">
@@ -11663,10 +11663,10 @@
         <v>16883</v>
       </c>
       <c r="D88" s="0">
-        <v>3787</v>
+        <v>3840</v>
       </c>
       <c r="E88" s="8">
-        <v>0.2243</v>
+        <v>0.2274</v>
       </c>
     </row>
     <row r="89">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>54332</v>
+        <v>54887</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2591</v>
+        <v>0.2618</v>
       </c>
     </row>
     <row r="92">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4095</v>
+        <v>4110</v>
       </c>
       <c r="E93" s="8">
-        <v>0.29</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>3595</v>
+        <v>3838</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2379</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6582</v>
+        <v>6588</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2707</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6273</v>
+        <v>6347</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2525</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>4826</v>
+        <v>4847</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2716</v>
+        <v>0.2728</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4271</v>
+        <v>4346</v>
       </c>
       <c r="E98" s="8">
-        <v>0.259</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="99">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6071</v>
+        <v>6088</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2851</v>
+        <v>0.2859</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>4755</v>
+        <v>4823</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2794</v>
+        <v>0.2834</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4856</v>
+        <v>4892</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2483</v>
+        <v>0.2502</v>
       </c>
     </row>
   </sheetData>
@@ -14232,10 +14232,10 @@
         <v>383</v>
       </c>
       <c r="F28" s="0">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G28" s="8">
-        <v>0.1645</v>
+        <v>0.2063</v>
       </c>
     </row>
     <row r="29">
@@ -16647,10 +16647,10 @@
         <v>548</v>
       </c>
       <c r="F133" s="0">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="G133" s="8">
-        <v>0.2427</v>
+        <v>0.3905</v>
       </c>
     </row>
     <row r="134">
@@ -18993,10 +18993,10 @@
         <v>310</v>
       </c>
       <c r="F235" s="0">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="G235" s="8">
-        <v>0.3806</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="236">
@@ -19476,10 +19476,10 @@
         <v>94</v>
       </c>
       <c r="F256" s="0">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G256" s="8">
-        <v>0.4362</v>
+        <v>0.5426</v>
       </c>
     </row>
     <row r="257">
@@ -20189,10 +20189,10 @@
         <v>219</v>
       </c>
       <c r="F287" s="0">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G287" s="8">
-        <v>0.3288</v>
+        <v>0.3881</v>
       </c>
     </row>
     <row r="288">
@@ -22627,10 +22627,10 @@
         <v>35</v>
       </c>
       <c r="F393" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G393" s="8">
-        <v>0.4857</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="394">
@@ -24605,7 +24605,7 @@
         <v>0</v>
       </c>
       <c r="F479" s="0">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="G479" s="8">
         <v>0</v>
@@ -25709,10 +25709,10 @@
         <v>93</v>
       </c>
       <c r="F527" s="0">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G527" s="8">
-        <v>0.2473</v>
+        <v>0.3656</v>
       </c>
     </row>
     <row r="528">
@@ -27940,10 +27940,10 @@
         <v>239</v>
       </c>
       <c r="F624" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G624" s="8">
-        <v>0.4351</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="625">
@@ -28607,10 +28607,10 @@
         <v>248</v>
       </c>
       <c r="F653" s="0">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G653" s="8">
-        <v>0.1976</v>
+        <v>0.3145</v>
       </c>
     </row>
     <row r="654">
@@ -30355,10 +30355,10 @@
         <v>346</v>
       </c>
       <c r="F729" s="0">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="G729" s="8">
-        <v>0.3237</v>
+        <v>0.4682</v>
       </c>
     </row>
     <row r="730">
@@ -30424,10 +30424,10 @@
         <v>156</v>
       </c>
       <c r="F732" s="0">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G732" s="8">
-        <v>0.2949</v>
+        <v>0.5064</v>
       </c>
     </row>
     <row r="733">
@@ -33989,10 +33989,10 @@
         <v>352</v>
       </c>
       <c r="F887" s="0">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="G887" s="8">
-        <v>0.3892</v>
+        <v>0.5341</v>
       </c>
     </row>
     <row r="888">
@@ -34725,10 +34725,10 @@
         <v>180</v>
       </c>
       <c r="F919" s="0">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G919" s="8">
-        <v>0.4389</v>
+        <v>0.5444</v>
       </c>
     </row>
     <row r="920">
@@ -35024,10 +35024,10 @@
         <v>186</v>
       </c>
       <c r="F932" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G932" s="8">
-        <v>0.2903</v>
+        <v>0.4785</v>
       </c>
     </row>
     <row r="933">
@@ -37991,10 +37991,10 @@
         <v>800</v>
       </c>
       <c r="F1061" s="0">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="G1061" s="8">
-        <v>0.265</v>
+        <v>0.4025</v>
       </c>
     </row>
     <row r="1062">
@@ -41648,10 +41648,10 @@
         <v>704</v>
       </c>
       <c r="F1220" s="0">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="G1220" s="8">
-        <v>0.2259</v>
+        <v>0.3821</v>
       </c>
     </row>
     <row r="1221">
@@ -46984,10 +46984,10 @@
         <v>502</v>
       </c>
       <c r="F1452" s="0">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G1452" s="8">
-        <v>0.2749</v>
+        <v>0.3904</v>
       </c>
     </row>
     <row r="1453">
@@ -49836,10 +49836,10 @@
         <v>525</v>
       </c>
       <c r="F1576" s="0">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="G1576" s="8">
-        <v>0.301</v>
+        <v>0.4971</v>
       </c>
     </row>
     <row r="1577">
@@ -50595,10 +50595,10 @@
         <v>118</v>
       </c>
       <c r="F1609" s="0">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G1609" s="8">
-        <v>0.2119</v>
+        <v>0.3814</v>
       </c>
     </row>
     <row r="1610">
@@ -51032,10 +51032,10 @@
         <v>270</v>
       </c>
       <c r="F1628" s="0">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="G1628" s="8">
-        <v>0.263</v>
+        <v>0.3741</v>
       </c>
     </row>
     <row r="1629">
@@ -55310,10 +55310,10 @@
         <v>358</v>
       </c>
       <c r="F1814" s="0">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="G1814" s="8">
-        <v>0.338</v>
+        <v>0.4916</v>
       </c>
     </row>
     <row r="1815">
@@ -58001,10 +58001,10 @@
         <v>398</v>
       </c>
       <c r="F1931" s="0">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G1931" s="8">
-        <v>0.2236</v>
+        <v>0.3216</v>
       </c>
     </row>
     <row r="1932">
@@ -59128,10 +59128,10 @@
         <v>386</v>
       </c>
       <c r="F1980" s="0">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="G1980" s="8">
-        <v>0.2461</v>
+        <v>0.3135</v>
       </c>
     </row>
     <row r="1981">
@@ -59910,10 +59910,10 @@
         <v>224</v>
       </c>
       <c r="F2014" s="0">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="G2014" s="8">
-        <v>0.3125</v>
+        <v>0.4509</v>
       </c>
     </row>
     <row r="2015">
@@ -62279,10 +62279,10 @@
         <v>198</v>
       </c>
       <c r="F2117" s="0">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G2117" s="8">
-        <v>0.399</v>
+        <v>0.5404</v>
       </c>
     </row>
     <row r="2118">
@@ -65729,10 +65729,10 @@
         <v>220</v>
       </c>
       <c r="F2267" s="0">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="G2267" s="8">
-        <v>0.2955</v>
+        <v>0.4682</v>
       </c>
     </row>
     <row r="2268">
@@ -66373,10 +66373,10 @@
         <v>217</v>
       </c>
       <c r="F2295" s="0">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G2295" s="8">
-        <v>0.2304</v>
+        <v>0.3226</v>
       </c>
     </row>
     <row r="2296">
@@ -69018,10 +69018,10 @@
         <v>279</v>
       </c>
       <c r="F2410" s="0">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G2410" s="8">
-        <v>0.3082</v>
+        <v>0.4014</v>
       </c>
     </row>
     <row r="2411">
@@ -72468,10 +72468,10 @@
         <v>412</v>
       </c>
       <c r="F2560" s="0">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G2560" s="8">
-        <v>0.2282</v>
+        <v>0.3131</v>
       </c>
     </row>
     <row r="2561">
@@ -73250,10 +73250,10 @@
         <v>96</v>
       </c>
       <c r="F2594" s="0">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G2594" s="8">
-        <v>0.3333</v>
+        <v>0.4271</v>
       </c>
     </row>
     <row r="2595">
@@ -74216,10 +74216,10 @@
         <v>99</v>
       </c>
       <c r="F2636" s="0">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G2636" s="8">
-        <v>0.3232</v>
+        <v>0.4747</v>
       </c>
     </row>
     <row r="2637">
@@ -74998,10 +74998,10 @@
         <v>251</v>
       </c>
       <c r="F2670" s="0">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G2670" s="8">
-        <v>0.2032</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="2671">
@@ -75918,10 +75918,10 @@
         <v>238</v>
       </c>
       <c r="F2710" s="0">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G2710" s="8">
-        <v>0.2941</v>
+        <v>0.4412</v>
       </c>
     </row>
     <row r="2711">
@@ -76746,10 +76746,10 @@
         <v>601</v>
       </c>
       <c r="F2746" s="0">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="G2746" s="8">
-        <v>0.2612</v>
+        <v>0.3877</v>
       </c>
     </row>
     <row r="2747">
@@ -77666,10 +77666,10 @@
         <v>775</v>
       </c>
       <c r="F2786" s="0">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="G2786" s="8">
-        <v>0.1935</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="2787">
@@ -80150,10 +80150,10 @@
         <v>176</v>
       </c>
       <c r="F2894" s="0">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2894" s="8">
-        <v>0.3409</v>
+        <v>0.4261</v>
       </c>
     </row>
     <row r="2895">
@@ -82013,7 +82013,7 @@
         <v>0</v>
       </c>
       <c r="F2975" s="0">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="G2975" s="8">
         <v>0</v>
@@ -82634,10 +82634,10 @@
         <v>45</v>
       </c>
       <c r="F3002" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3002" s="8">
-        <v>0.3333</v>
+        <v>0.3556</v>
       </c>
     </row>
     <row r="3003">
@@ -83508,10 +83508,10 @@
         <v>38</v>
       </c>
       <c r="F3040" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G3040" s="8">
-        <v>0.5789</v>
+        <v>0.7105</v>
       </c>
     </row>
     <row r="3041">
@@ -85463,10 +85463,10 @@
         <v>638</v>
       </c>
       <c r="F3125" s="0">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="G3125" s="8">
-        <v>0.2633</v>
+        <v>0.3793</v>
       </c>
     </row>
     <row r="3126">
@@ -86130,10 +86130,10 @@
         <v>244</v>
       </c>
       <c r="F3154" s="0">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G3154" s="8">
-        <v>0.3074</v>
+        <v>0.3934</v>
       </c>
     </row>
     <row r="3155">
@@ -86889,10 +86889,10 @@
         <v>676</v>
       </c>
       <c r="F3187" s="0">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="G3187" s="8">
-        <v>0.2441</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="3188">
@@ -89511,10 +89511,10 @@
         <v>174</v>
       </c>
       <c r="F3301" s="0">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G3301" s="8">
-        <v>0.3908</v>
+        <v>0.4885</v>
       </c>
     </row>
     <row r="3302">
@@ -89879,10 +89879,10 @@
         <v>515</v>
       </c>
       <c r="F3317" s="0">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="G3317" s="8">
-        <v>0.2291</v>
+        <v>0.3612</v>
       </c>
     </row>
     <row r="3318">
@@ -90523,10 +90523,10 @@
         <v>195</v>
       </c>
       <c r="F3345" s="0">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G3345" s="8">
-        <v>0.2974</v>
+        <v>0.3692</v>
       </c>
     </row>
     <row r="3346">
@@ -92179,10 +92179,10 @@
         <v>420</v>
       </c>
       <c r="F3417" s="0">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G3417" s="8">
-        <v>0.1881</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="3418">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:30</t>
+    <t>21:35</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.895833333336</v>
+        <v>45452.899305555555</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689502</v>
       </c>
       <c r="D6" s="0">
-        <v>451368</v>
+        <v>453184</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2672</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208089</v>
       </c>
       <c r="D7" s="0">
-        <v>59023</v>
+        <v>59314</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2836</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="8">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4076</v>
+        <v>4137</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3039</v>
+        <v>0.3085</v>
       </c>
     </row>
     <row r="10">
@@ -10355,10 +10355,10 @@
         <v>15875</v>
       </c>
       <c r="D10" s="0">
-        <v>4546</v>
+        <v>4584</v>
       </c>
       <c r="E10" s="8">
-        <v>0.2864</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="11">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8441</v>
+        <v>8486</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3461</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="14">
@@ -10423,10 +10423,10 @@
         <v>12396</v>
       </c>
       <c r="D14" s="0">
-        <v>3042</v>
+        <v>3093</v>
       </c>
       <c r="E14" s="8">
-        <v>0.2454</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="15">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5562</v>
+        <v>5615</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3605</v>
+        <v>0.3639</v>
       </c>
     </row>
     <row r="17">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4114</v>
+        <v>4157</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3087</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="19">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>53794</v>
+        <v>53852</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2579</v>
+        <v>0.2582</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5371</v>
+        <v>5386</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3397</v>
+        <v>0.3407</v>
       </c>
     </row>
     <row r="21">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5667</v>
+        <v>5689</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2557</v>
+        <v>0.2566</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2196</v>
+        <v>0.2198</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4882</v>
+        <v>4901</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2706</v>
+        <v>0.2717</v>
       </c>
     </row>
     <row r="28">
@@ -10706,10 +10706,10 @@
         <v>219992</v>
       </c>
       <c r="D31" s="0">
-        <v>63094</v>
+        <v>63315</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2868</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7696</v>
+        <v>7725</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3065</v>
+        <v>0.3076</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>5833</v>
+        <v>5901</v>
       </c>
       <c r="E33" s="8">
-        <v>0.2891</v>
+        <v>0.2925</v>
       </c>
     </row>
     <row r="34">
@@ -10774,10 +10774,10 @@
         <v>16936</v>
       </c>
       <c r="D35" s="0">
-        <v>4591</v>
+        <v>4638</v>
       </c>
       <c r="E35" s="8">
-        <v>0.2711</v>
+        <v>0.2739</v>
       </c>
     </row>
     <row r="36">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6104</v>
+        <v>6181</v>
       </c>
       <c r="E37" s="8">
-        <v>0.2778</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="38">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>54704</v>
+        <v>55001</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2622</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="44">
@@ -10958,10 +10958,10 @@
         <v>16101</v>
       </c>
       <c r="D46" s="0">
-        <v>4408</v>
+        <v>4515</v>
       </c>
       <c r="E46" s="8">
-        <v>0.2738</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="47">
@@ -10975,10 +10975,10 @@
         <v>13315</v>
       </c>
       <c r="D47" s="0">
-        <v>3722</v>
+        <v>3824</v>
       </c>
       <c r="E47" s="8">
-        <v>0.2795</v>
+        <v>0.2872</v>
       </c>
     </row>
     <row r="48">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3401</v>
+        <v>3433</v>
       </c>
       <c r="E49" s="8">
-        <v>0.226</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="50">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>4968</v>
+        <v>4969</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2491</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="51">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6237</v>
+        <v>6292</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2522</v>
+        <v>0.2544</v>
       </c>
     </row>
     <row r="54">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>55827</v>
+        <v>55909</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2653</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="56">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5217</v>
+        <v>5299</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2556</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>57790</v>
+        <v>58205</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2658</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="68">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6490</v>
+        <v>6561</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2661</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="70">
@@ -11360,10 +11360,10 @@
         <v>25794</v>
       </c>
       <c r="D70" s="0">
-        <v>6799</v>
+        <v>6828</v>
       </c>
       <c r="E70" s="8">
-        <v>0.2636</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="71">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>4954</v>
+        <v>5002</v>
       </c>
       <c r="E71" s="8">
-        <v>0.291</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>4906</v>
+        <v>4978</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2318</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6583</v>
+        <v>6611</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2841</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4678</v>
+        <v>4703</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2748</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="75">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>3539</v>
+        <v>3582</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2422</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="76">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5301</v>
+        <v>5374</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2545</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3560</v>
+        <v>3586</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2622</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>48440</v>
+        <v>48614</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2344</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>6723</v>
+        <v>6820</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2667</v>
+        <v>0.2705</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5031</v>
+        <v>5054</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2648</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>2890</v>
+        <v>2944</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2306</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="84">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>54887</v>
+        <v>55165</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2618</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4762</v>
+        <v>4780</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2252</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4110</v>
+        <v>4131</v>
       </c>
       <c r="E93" s="8">
-        <v>0.2911</v>
+        <v>0.2925</v>
       </c>
     </row>
     <row r="94">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6588</v>
+        <v>6639</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2709</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="96">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4346</v>
+        <v>4390</v>
       </c>
       <c r="E98" s="8">
-        <v>0.2636</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="99">
@@ -11847,10 +11847,10 @@
         <v>18016</v>
       </c>
       <c r="D99" s="0">
-        <v>4246</v>
+        <v>4259</v>
       </c>
       <c r="E99" s="8">
-        <v>0.2357</v>
+        <v>0.2364</v>
       </c>
     </row>
     <row r="100">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6088</v>
+        <v>6145</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2859</v>
+        <v>0.2886</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>4823</v>
+        <v>4893</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2834</v>
+        <v>0.2876</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4892</v>
+        <v>4896</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2502</v>
+        <v>0.2504</v>
       </c>
     </row>
   </sheetData>
@@ -14876,10 +14876,10 @@
         <v>380</v>
       </c>
       <c r="F56" s="0">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="G56" s="8">
-        <v>0.2947</v>
+        <v>0.4553</v>
       </c>
     </row>
     <row r="57">
@@ -15911,10 +15911,10 @@
         <v>381</v>
       </c>
       <c r="F101" s="0">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="G101" s="8">
-        <v>0.2493</v>
+        <v>0.3491</v>
       </c>
     </row>
     <row r="102">
@@ -17291,10 +17291,10 @@
         <v>347</v>
       </c>
       <c r="F161" s="0">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="G161" s="8">
-        <v>0.3919</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="162">
@@ -17406,10 +17406,10 @@
         <v>92</v>
       </c>
       <c r="F166" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G166" s="8">
-        <v>0.8913</v>
+        <v>0.8478</v>
       </c>
     </row>
     <row r="167">
@@ -18257,10 +18257,10 @@
         <v>433</v>
       </c>
       <c r="F203" s="0">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="G203" s="8">
-        <v>0.3095</v>
+        <v>0.4273</v>
       </c>
     </row>
     <row r="204">
@@ -19384,10 +19384,10 @@
         <v>266</v>
       </c>
       <c r="F252" s="0">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="G252" s="8">
-        <v>0.3346</v>
+        <v>0.5338</v>
       </c>
     </row>
     <row r="253">
@@ -21615,10 +21615,10 @@
         <v>255</v>
       </c>
       <c r="F349" s="0">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="G349" s="8">
-        <v>0.3255</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="350">
@@ -22903,10 +22903,10 @@
         <v>161</v>
       </c>
       <c r="F405" s="0">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G405" s="8">
-        <v>0.3727</v>
+        <v>0.4658</v>
       </c>
     </row>
     <row r="406">
@@ -26997,10 +26997,10 @@
         <v>149</v>
       </c>
       <c r="F583" s="0">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G583" s="8">
-        <v>0.349</v>
+        <v>0.4966</v>
       </c>
     </row>
     <row r="584">
@@ -29366,10 +29366,10 @@
         <v>30</v>
       </c>
       <c r="F686" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G686" s="8">
-        <v>0.5667</v>
+        <v>0.6333</v>
       </c>
     </row>
     <row r="687">
@@ -30401,10 +30401,10 @@
         <v>144</v>
       </c>
       <c r="F731" s="0">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G731" s="8">
-        <v>0.4861</v>
+        <v>0.6181</v>
       </c>
     </row>
     <row r="732">
@@ -34978,10 +34978,10 @@
         <v>191</v>
       </c>
       <c r="F930" s="0">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G930" s="8">
-        <v>0.356</v>
+        <v>0.5079</v>
       </c>
     </row>
     <row r="931">
@@ -35852,10 +35852,10 @@
         <v>610</v>
       </c>
       <c r="F968" s="0">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="G968" s="8">
-        <v>0.2885</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="969">
@@ -37577,10 +37577,10 @@
         <v>1000</v>
       </c>
       <c r="F1043" s="0">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G1043" s="8">
-        <v>0.115</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="1044">
@@ -38589,10 +38589,10 @@
         <v>486</v>
       </c>
       <c r="F1087" s="0">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="G1087" s="8">
-        <v>0.3683</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="1088">
@@ -44477,10 +44477,10 @@
         <v>626</v>
       </c>
       <c r="F1343" s="0">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="G1343" s="8">
-        <v>0.3594</v>
+        <v>0.5304</v>
       </c>
     </row>
     <row r="1344">
@@ -45006,10 +45006,10 @@
         <v>593</v>
       </c>
       <c r="F1366" s="0">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="G1366" s="8">
-        <v>0.3626</v>
+        <v>0.5346</v>
       </c>
     </row>
     <row r="1367">
@@ -46271,10 +46271,10 @@
         <v>347</v>
       </c>
       <c r="F1421" s="0">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="G1421" s="8">
-        <v>0.2507</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="1422">
@@ -46984,10 +46984,10 @@
         <v>502</v>
       </c>
       <c r="F1452" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1452" s="8">
-        <v>0.3904</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="1453">
@@ -49215,10 +49215,10 @@
         <v>318</v>
       </c>
       <c r="F1549" s="0">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="G1549" s="8">
-        <v>0.2296</v>
+        <v>0.4025</v>
       </c>
     </row>
     <row r="1550">
@@ -58231,10 +58231,10 @@
         <v>673</v>
       </c>
       <c r="F1941" s="0">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="G1941" s="8">
-        <v>0.3046</v>
+        <v>0.4264</v>
       </c>
     </row>
     <row r="1942">
@@ -60646,10 +60646,10 @@
         <v>691</v>
       </c>
       <c r="F2046" s="0">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="G2046" s="8">
-        <v>0.2446</v>
+        <v>0.3473</v>
       </c>
     </row>
     <row r="2047">
@@ -62026,10 +62026,10 @@
         <v>194</v>
       </c>
       <c r="F2106" s="0">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G2106" s="8">
-        <v>0.3454</v>
+        <v>0.4948</v>
       </c>
     </row>
     <row r="2107">
@@ -62348,10 +62348,10 @@
         <v>423</v>
       </c>
       <c r="F2120" s="0">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G2120" s="8">
-        <v>0.2813</v>
+        <v>0.3948</v>
       </c>
     </row>
     <row r="2121">
@@ -64165,10 +64165,10 @@
         <v>288</v>
       </c>
       <c r="F2199" s="0">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G2199" s="8">
-        <v>0.2812</v>
+        <v>0.3958</v>
       </c>
     </row>
     <row r="2200">
@@ -64257,10 +64257,10 @@
         <v>312</v>
       </c>
       <c r="F2203" s="0">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="G2203" s="8">
-        <v>0.2756</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="2204">
@@ -65223,10 +65223,10 @@
         <v>284</v>
       </c>
       <c r="F2245" s="0">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G2245" s="8">
-        <v>0.2289</v>
+        <v>0.3275</v>
       </c>
     </row>
     <row r="2246">
@@ -66051,10 +66051,10 @@
         <v>240</v>
       </c>
       <c r="F2281" s="0">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="G2281" s="8">
-        <v>0.3833</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="2282">
@@ -67569,10 +67569,10 @@
         <v>400</v>
       </c>
       <c r="F2347" s="0">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="G2347" s="8">
-        <v>0.265</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="2348">
@@ -69501,10 +69501,10 @@
         <v>787</v>
       </c>
       <c r="F2431" s="0">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="G2431" s="8">
-        <v>0.2338</v>
+        <v>0.3266</v>
       </c>
     </row>
     <row r="2432">
@@ -70076,10 +70076,10 @@
         <v>208</v>
       </c>
       <c r="F2456" s="0">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G2456" s="8">
-        <v>0.3077</v>
+        <v>0.4327</v>
       </c>
     </row>
     <row r="2457">
@@ -72100,10 +72100,10 @@
         <v>534</v>
       </c>
       <c r="F2544" s="0">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="G2544" s="8">
-        <v>0.236</v>
+        <v>0.4176</v>
       </c>
     </row>
     <row r="2545">
@@ -73733,10 +73733,10 @@
         <v>160</v>
       </c>
       <c r="F2615" s="0">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G2615" s="8">
-        <v>0.3375</v>
+        <v>0.4812</v>
       </c>
     </row>
     <row r="2616">
@@ -74561,10 +74561,10 @@
         <v>475</v>
       </c>
       <c r="F2651" s="0">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="G2651" s="8">
-        <v>0.2568</v>
+        <v>0.3705</v>
       </c>
     </row>
     <row r="2652">
@@ -79276,10 +79276,10 @@
         <v>147</v>
       </c>
       <c r="F2856" s="0">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G2856" s="8">
-        <v>0.2381</v>
+        <v>0.3605</v>
       </c>
     </row>
     <row r="2857">
@@ -80840,10 +80840,10 @@
         <v>138</v>
       </c>
       <c r="F2924" s="0">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G2924" s="8">
-        <v>0.3768</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="2925">
@@ -82841,10 +82841,10 @@
         <v>121</v>
       </c>
       <c r="F3011" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G3011" s="8">
-        <v>0.3967</v>
+        <v>0.5041</v>
       </c>
     </row>
     <row r="3012">
@@ -83025,10 +83025,10 @@
         <v>204</v>
       </c>
       <c r="F3019" s="0">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G3019" s="8">
-        <v>0.3039</v>
+        <v>0.3676</v>
       </c>
     </row>
     <row r="3020">
@@ -83209,10 +83209,10 @@
         <v>150</v>
       </c>
       <c r="F3027" s="0">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G3027" s="8">
-        <v>0.3867</v>
+        <v>0.5533</v>
       </c>
     </row>
     <row r="3028">
@@ -86935,10 +86935,10 @@
         <v>305</v>
       </c>
       <c r="F3189" s="0">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G3189" s="8">
-        <v>0.2131</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="3190">
@@ -87050,10 +87050,10 @@
         <v>308</v>
       </c>
       <c r="F3194" s="0">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="G3194" s="8">
-        <v>0.4123</v>
+        <v>0.4968</v>
       </c>
     </row>
     <row r="3195">
@@ -87717,10 +87717,10 @@
         <v>203</v>
       </c>
       <c r="F3223" s="0">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G3223" s="8">
-        <v>0.2759</v>
+        <v>0.3399</v>
       </c>
     </row>
     <row r="3224">
@@ -88154,10 +88154,10 @@
         <v>137</v>
       </c>
       <c r="F3242" s="0">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G3242" s="8">
-        <v>0.2993</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="3243">
@@ -88338,10 +88338,10 @@
         <v>233</v>
       </c>
       <c r="F3250" s="0">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="G3250" s="8">
-        <v>0.2489</v>
+        <v>0.4464</v>
       </c>
     </row>
     <row r="3251">
@@ -90132,10 +90132,10 @@
         <v>526</v>
       </c>
       <c r="F3328" s="0">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="G3328" s="8">
-        <v>0.3004</v>
+        <v>0.4335</v>
       </c>
     </row>
     <row r="3329">
@@ -91604,10 +91604,10 @@
         <v>109</v>
       </c>
       <c r="F3392" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3392" s="8">
-        <v>0.3303</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="3393">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:35</t>
+    <t>21:40</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.899305555555</v>
+        <v>45452.90277777778</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689502</v>
       </c>
       <c r="D6" s="0">
-        <v>453184</v>
+        <v>455660</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2682</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208089</v>
       </c>
       <c r="D7" s="0">
-        <v>59314</v>
+        <v>59616</v>
       </c>
       <c r="E7" s="8">
-        <v>0.285</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6118</v>
+        <v>6156</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2357</v>
+        <v>0.2372</v>
       </c>
     </row>
     <row r="9">
@@ -10389,10 +10389,10 @@
         <v>20321</v>
       </c>
       <c r="D12" s="0">
-        <v>5136</v>
+        <v>5170</v>
       </c>
       <c r="E12" s="8">
-        <v>0.2527</v>
+        <v>0.2544</v>
       </c>
     </row>
     <row r="13">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8486</v>
+        <v>8580</v>
       </c>
       <c r="E13" s="8">
-        <v>0.348</v>
+        <v>0.3518</v>
       </c>
     </row>
     <row r="14">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>5595</v>
+        <v>5655</v>
       </c>
       <c r="E15" s="8">
-        <v>0.3</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="16">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7397</v>
+        <v>7415</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2634</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="18">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4157</v>
+        <v>4215</v>
       </c>
       <c r="E18" s="8">
-        <v>0.312</v>
+        <v>0.3163</v>
       </c>
     </row>
     <row r="19">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>53852</v>
+        <v>54051</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2582</v>
+        <v>0.2592</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3407</v>
+        <v>0.3408</v>
       </c>
     </row>
     <row r="21">
@@ -10539,10 +10539,10 @@
         <v>14513</v>
       </c>
       <c r="D21" s="0">
-        <v>3191</v>
+        <v>3288</v>
       </c>
       <c r="E21" s="8">
-        <v>0.2199</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="22">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2781</v>
+        <v>2804</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2198</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4901</v>
+        <v>4923</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2717</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="28">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6631</v>
+        <v>6687</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3214</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219992</v>
       </c>
       <c r="D31" s="0">
-        <v>63315</v>
+        <v>63466</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2878</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7725</v>
+        <v>7789</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3076</v>
+        <v>0.3102</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>5901</v>
+        <v>5949</v>
       </c>
       <c r="E33" s="8">
-        <v>0.2925</v>
+        <v>0.2949</v>
       </c>
     </row>
     <row r="34">
@@ -10757,10 +10757,10 @@
         <v>25839</v>
       </c>
       <c r="D34" s="0">
-        <v>7490</v>
+        <v>7529</v>
       </c>
       <c r="E34" s="8">
-        <v>0.2899</v>
+        <v>0.2914</v>
       </c>
     </row>
     <row r="35">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>55001</v>
+        <v>55084</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2636</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="44">
@@ -10992,10 +10992,10 @@
         <v>23277</v>
       </c>
       <c r="D48" s="0">
-        <v>6341</v>
+        <v>6374</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2724</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="49">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3433</v>
+        <v>3483</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2282</v>
+        <v>0.2315</v>
       </c>
     </row>
     <row r="50">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>55909</v>
+        <v>56041</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2657</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4567</v>
+        <v>4601</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2681</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="57">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8451</v>
+        <v>8525</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2879</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="58">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5605</v>
+        <v>5629</v>
       </c>
       <c r="E60" s="8">
-        <v>0.299</v>
+        <v>0.3002</v>
       </c>
     </row>
     <row r="61">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>58205</v>
+        <v>59095</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2677</v>
+        <v>0.2718</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>5980</v>
+        <v>6011</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2636</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6561</v>
+        <v>6582</v>
       </c>
       <c r="E69" s="8">
-        <v>0.269</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="70">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5002</v>
+        <v>5036</v>
       </c>
       <c r="E71" s="8">
-        <v>0.2938</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>4978</v>
+        <v>5013</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2352</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6611</v>
+        <v>6655</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2854</v>
+        <v>0.2872</v>
       </c>
     </row>
     <row r="74">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>3582</v>
+        <v>4123</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2451</v>
+        <v>0.2822</v>
       </c>
     </row>
     <row r="76">
@@ -11462,10 +11462,10 @@
         <v>17172</v>
       </c>
       <c r="D76" s="0">
-        <v>5000</v>
+        <v>5034</v>
       </c>
       <c r="E76" s="8">
-        <v>0.2912</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="77">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5374</v>
+        <v>5487</v>
       </c>
       <c r="E77" s="8">
-        <v>0.258</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3586</v>
+        <v>3623</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2641</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>48614</v>
+        <v>48944</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2352</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="80">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5054</v>
+        <v>5062</v>
       </c>
       <c r="E82" s="8">
-        <v>0.266</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>2944</v>
+        <v>3006</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2349</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="84">
@@ -11595,10 +11595,10 @@
         <v>23522</v>
       </c>
       <c r="D84" s="0">
-        <v>6040</v>
+        <v>6164</v>
       </c>
       <c r="E84" s="8">
-        <v>0.2568</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="85">
@@ -11612,10 +11612,10 @@
         <v>21076</v>
       </c>
       <c r="D85" s="0">
-        <v>4901</v>
+        <v>4936</v>
       </c>
       <c r="E85" s="8">
-        <v>0.2325</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="86">
@@ -11629,10 +11629,10 @@
         <v>17307</v>
       </c>
       <c r="D86" s="0">
-        <v>4255</v>
+        <v>4312</v>
       </c>
       <c r="E86" s="8">
-        <v>0.2459</v>
+        <v>0.2491</v>
       </c>
     </row>
     <row r="87">
@@ -11646,10 +11646,10 @@
         <v>13933</v>
       </c>
       <c r="D87" s="0">
-        <v>2933</v>
+        <v>2977</v>
       </c>
       <c r="E87" s="8">
-        <v>0.2105</v>
+        <v>0.2137</v>
       </c>
     </row>
     <row r="88">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>55165</v>
+        <v>55554</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2631</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4780</v>
+        <v>4815</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2261</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="93">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>3838</v>
+        <v>3860</v>
       </c>
       <c r="E94" s="8">
-        <v>0.254</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6639</v>
+        <v>6676</v>
       </c>
       <c r="E95" s="8">
-        <v>0.273</v>
+        <v>0.2745</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6347</v>
+        <v>6385</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2555</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>4847</v>
+        <v>4881</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2728</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="98">
@@ -11847,10 +11847,10 @@
         <v>18016</v>
       </c>
       <c r="D99" s="0">
-        <v>4259</v>
+        <v>4337</v>
       </c>
       <c r="E99" s="8">
-        <v>0.2364</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="100">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6145</v>
+        <v>6168</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2886</v>
+        <v>0.2896</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>4893</v>
+        <v>5013</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2876</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4896</v>
+        <v>4898</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2504</v>
+        <v>0.2505</v>
       </c>
     </row>
   </sheetData>
@@ -14163,10 +14163,10 @@
         <v>498</v>
       </c>
       <c r="F25" s="0">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="G25" s="8">
-        <v>0.2048</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="26">
@@ -17084,10 +17084,10 @@
         <v>237</v>
       </c>
       <c r="F152" s="0">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="G152" s="8">
-        <v>0.4346</v>
+        <v>0.5781</v>
       </c>
     </row>
     <row r="153">
@@ -17981,10 +17981,10 @@
         <v>535</v>
       </c>
       <c r="F191" s="0">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="G191" s="8">
-        <v>0.3477</v>
+        <v>0.5234</v>
       </c>
     </row>
     <row r="192">
@@ -18901,10 +18901,10 @@
         <v>384</v>
       </c>
       <c r="F231" s="0">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="G231" s="8">
-        <v>0.3229</v>
+        <v>0.4792</v>
       </c>
     </row>
     <row r="232">
@@ -20166,10 +20166,10 @@
         <v>246</v>
       </c>
       <c r="F286" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G286" s="8">
-        <v>0.378</v>
+        <v>0.4512</v>
       </c>
     </row>
     <row r="287">
@@ -21339,10 +21339,10 @@
         <v>478</v>
       </c>
       <c r="F337" s="0">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="G337" s="8">
-        <v>0.2469</v>
+        <v>0.3682</v>
       </c>
     </row>
     <row r="338">
@@ -22282,10 +22282,10 @@
         <v>46</v>
       </c>
       <c r="F378" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G378" s="8">
-        <v>0.6304</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="379">
@@ -23938,10 +23938,10 @@
         <v>835</v>
       </c>
       <c r="F450" s="0">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="G450" s="8">
-        <v>0.2503</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="451">
@@ -29389,10 +29389,10 @@
         <v>133</v>
       </c>
       <c r="F687" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G687" s="8">
-        <v>0.3158</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="688">
@@ -29504,10 +29504,10 @@
         <v>56</v>
       </c>
       <c r="F692" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G692" s="8">
-        <v>0.3214</v>
+        <v>0.5357</v>
       </c>
     </row>
     <row r="693">
@@ -30654,10 +30654,10 @@
         <v>163</v>
       </c>
       <c r="F742" s="0">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G742" s="8">
-        <v>0.2761</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="743">
@@ -34012,10 +34012,10 @@
         <v>304</v>
       </c>
       <c r="F888" s="0">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="G888" s="8">
-        <v>0.352</v>
+        <v>0.5362</v>
       </c>
     </row>
     <row r="889">
@@ -35392,10 +35392,10 @@
         <v>528</v>
       </c>
       <c r="F948" s="0">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="G948" s="8">
-        <v>0.3277</v>
+        <v>0.4489</v>
       </c>
     </row>
     <row r="949">
@@ -35691,10 +35691,10 @@
         <v>389</v>
       </c>
       <c r="F961" s="0">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G961" s="8">
-        <v>0.3059</v>
+        <v>0.4293</v>
       </c>
     </row>
     <row r="962">
@@ -36818,10 +36818,10 @@
         <v>317</v>
       </c>
       <c r="F1010" s="0">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="G1010" s="8">
-        <v>0.2997</v>
+        <v>0.4227</v>
       </c>
     </row>
     <row r="1011">
@@ -45305,10 +45305,10 @@
         <v>309</v>
       </c>
       <c r="F1379" s="0">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G1379" s="8">
-        <v>0.3204</v>
+        <v>0.4272</v>
       </c>
     </row>
     <row r="1380">
@@ -46202,10 +46202,10 @@
         <v>606</v>
       </c>
       <c r="F1418" s="0">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="G1418" s="8">
-        <v>0.2393</v>
+        <v>0.3218</v>
       </c>
     </row>
     <row r="1419">
@@ -50825,10 +50825,10 @@
         <v>390</v>
       </c>
       <c r="F1619" s="0">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="G1619" s="8">
-        <v>0.2154</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="1620">
@@ -51147,10 +51147,10 @@
         <v>496</v>
       </c>
       <c r="F1633" s="0">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="G1633" s="8">
-        <v>0.256</v>
+        <v>0.4052</v>
       </c>
     </row>
     <row r="1634">
@@ -53815,10 +53815,10 @@
         <v>193</v>
       </c>
       <c r="F1749" s="0">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G1749" s="8">
-        <v>0.285</v>
+        <v>0.4093</v>
       </c>
     </row>
     <row r="1750">
@@ -58967,10 +58967,10 @@
         <v>310</v>
       </c>
       <c r="F1973" s="0">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="G1973" s="8">
-        <v>0.2677</v>
+        <v>0.3677</v>
       </c>
     </row>
     <row r="1974">
@@ -60439,10 +60439,10 @@
         <v>174</v>
       </c>
       <c r="F2037" s="0">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G2037" s="8">
-        <v>0.3218</v>
+        <v>0.4425</v>
       </c>
     </row>
     <row r="2038">
@@ -62624,10 +62624,10 @@
         <v>439</v>
       </c>
       <c r="F2132" s="0">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="G2132" s="8">
-        <v>0.1754</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="2133">
@@ -63705,10 +63705,10 @@
         <v>440</v>
       </c>
       <c r="F2179" s="0">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G2179" s="8">
-        <v>0.2182</v>
+        <v>0.2977</v>
       </c>
     </row>
     <row r="2180">
@@ -64970,10 +64970,10 @@
         <v>446</v>
       </c>
       <c r="F2234" s="0">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="G2234" s="8">
-        <v>0.3049</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="2235">
@@ -67799,7 +67799,7 @@
         <v>0</v>
       </c>
       <c r="F2357" s="0">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="G2357" s="8">
         <v>0</v>
@@ -68121,10 +68121,10 @@
         <v>307</v>
       </c>
       <c r="F2371" s="0">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G2371" s="8">
-        <v>0.2866</v>
+        <v>0.3974</v>
       </c>
     </row>
     <row r="2372">
@@ -69179,10 +69179,10 @@
         <v>366</v>
       </c>
       <c r="F2417" s="0">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="G2417" s="8">
-        <v>0.2814</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="2418">
@@ -69731,10 +69731,10 @@
         <v>439</v>
       </c>
       <c r="F2441" s="0">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="G2441" s="8">
-        <v>0.3052</v>
+        <v>0.4328</v>
       </c>
     </row>
     <row r="2442">
@@ -70306,10 +70306,10 @@
         <v>258</v>
       </c>
       <c r="F2466" s="0">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="G2466" s="8">
-        <v>0.3876</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="2467">
@@ -73549,10 +73549,10 @@
         <v>182</v>
       </c>
       <c r="F2607" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G2607" s="8">
-        <v>0.2637</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="2608">
@@ -74653,10 +74653,10 @@
         <v>515</v>
       </c>
       <c r="F2655" s="0">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="G2655" s="8">
-        <v>0.2117</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="2656">
@@ -75205,10 +75205,10 @@
         <v>960</v>
       </c>
       <c r="F2679" s="0">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="G2679" s="8">
-        <v>0.276</v>
+        <v>0.4052</v>
       </c>
     </row>
     <row r="2680">
@@ -75941,10 +75941,10 @@
         <v>319</v>
       </c>
       <c r="F2711" s="0">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="G2711" s="8">
-        <v>0.2633</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="2712">
@@ -76654,10 +76654,10 @@
         <v>492</v>
       </c>
       <c r="F2742" s="0">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G2742" s="8">
-        <v>0.2297</v>
+        <v>0.3455</v>
       </c>
     </row>
     <row r="2743">
@@ -77137,10 +77137,10 @@
         <v>536</v>
       </c>
       <c r="F2763" s="0">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="G2763" s="8">
-        <v>0.2481</v>
+        <v>0.3302</v>
       </c>
     </row>
     <row r="2764">
@@ -79782,10 +79782,10 @@
         <v>398</v>
       </c>
       <c r="F2878" s="0">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="G2878" s="8">
-        <v>0.2211</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="2879">
@@ -81944,10 +81944,10 @@
         <v>195</v>
       </c>
       <c r="F2972" s="0">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G2972" s="8">
-        <v>0.3385</v>
+        <v>0.4513</v>
       </c>
     </row>
     <row r="2973">
@@ -83853,10 +83853,10 @@
         <v>165</v>
       </c>
       <c r="F3055" s="0">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G3055" s="8">
-        <v>0.3455</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="3056">
@@ -84865,10 +84865,10 @@
         <v>629</v>
       </c>
       <c r="F3099" s="0">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="G3099" s="8">
-        <v>0.1971</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="3100">
@@ -85785,10 +85785,10 @@
         <v>482</v>
       </c>
       <c r="F3139" s="0">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="G3139" s="8">
-        <v>0.2095</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="3140">
@@ -87418,10 +87418,10 @@
         <v>879</v>
       </c>
       <c r="F3210" s="0">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="G3210" s="8">
-        <v>0.2491</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="3211">
@@ -88591,10 +88591,10 @@
         <v>300</v>
       </c>
       <c r="F3261" s="0">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G3261" s="8">
-        <v>0.21</v>
+        <v>0.2867</v>
       </c>
     </row>
     <row r="3262">
@@ -90063,10 +90063,10 @@
         <v>490</v>
       </c>
       <c r="F3325" s="0">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="G3325" s="8">
-        <v>0.2673</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="3326">
@@ -90086,10 +90086,10 @@
         <v>380</v>
       </c>
       <c r="F3326" s="0">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="G3326" s="8">
-        <v>0.2237</v>
+        <v>0.3658</v>
       </c>
     </row>
     <row r="3327">
@@ -90753,10 +90753,10 @@
         <v>81</v>
       </c>
       <c r="F3355" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3355" s="8">
-        <v>0.1975</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="3356">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:40</t>
+    <t>21:45</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.90277777778</v>
+        <v>45452.90625</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689502</v>
+        <v>1689504</v>
       </c>
       <c r="D6" s="0">
-        <v>455660</v>
+        <v>458101</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2697</v>
+        <v>0.2711</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208089</v>
       </c>
       <c r="D7" s="0">
-        <v>59616</v>
+        <v>59967</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2865</v>
+        <v>0.2882</v>
       </c>
     </row>
     <row r="8">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4137</v>
+        <v>4155</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3085</v>
+        <v>0.3098</v>
       </c>
     </row>
     <row r="10">
@@ -10355,10 +10355,10 @@
         <v>15875</v>
       </c>
       <c r="D10" s="0">
-        <v>4584</v>
+        <v>4612</v>
       </c>
       <c r="E10" s="8">
-        <v>0.2888</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="11">
@@ -10372,10 +10372,10 @@
         <v>20255</v>
       </c>
       <c r="D11" s="0">
-        <v>4996</v>
+        <v>5090</v>
       </c>
       <c r="E11" s="8">
-        <v>0.2467</v>
+        <v>0.2513</v>
       </c>
     </row>
     <row r="12">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8580</v>
+        <v>8671</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3518</v>
+        <v>0.3556</v>
       </c>
     </row>
     <row r="14">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>5655</v>
+        <v>5724</v>
       </c>
       <c r="E15" s="8">
-        <v>0.3032</v>
+        <v>0.3069</v>
       </c>
     </row>
     <row r="16">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5615</v>
+        <v>5629</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3639</v>
+        <v>0.3648</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7415</v>
+        <v>7452</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2641</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="18">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>54051</v>
+        <v>54239</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2592</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5387</v>
+        <v>5395</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3408</v>
+        <v>0.3413</v>
       </c>
     </row>
     <row r="21">
@@ -10556,10 +10556,10 @@
         <v>12475</v>
       </c>
       <c r="D22" s="0">
-        <v>2560</v>
+        <v>2587</v>
       </c>
       <c r="E22" s="8">
-        <v>0.2052</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="23">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5689</v>
+        <v>5710</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2566</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2804</v>
+        <v>2827</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2216</v>
+        <v>0.2234</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4923</v>
+        <v>4960</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2729</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="28">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6687</v>
+        <v>6759</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3241</v>
+        <v>0.3276</v>
       </c>
     </row>
     <row r="31">
@@ -10703,13 +10703,13 @@
         <v>59</v>
       </c>
       <c r="C31" s="0">
-        <v>219992</v>
+        <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>63466</v>
+        <v>63681</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2885</v>
+        <v>0.2895</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7789</v>
+        <v>7836</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3102</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="33">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6181</v>
+        <v>6230</v>
       </c>
       <c r="E37" s="8">
-        <v>0.2814</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="38">
@@ -10839,13 +10839,13 @@
         <v>67</v>
       </c>
       <c r="C39" s="0">
-        <v>13903</v>
+        <v>13904</v>
       </c>
       <c r="D39" s="0">
-        <v>3687</v>
+        <v>3737</v>
       </c>
       <c r="E39" s="8">
-        <v>0.2652</v>
+        <v>0.2688</v>
       </c>
     </row>
     <row r="40">
@@ -10859,10 +10859,10 @@
         <v>17996</v>
       </c>
       <c r="D40" s="0">
-        <v>5053</v>
+        <v>5122</v>
       </c>
       <c r="E40" s="8">
-        <v>0.2808</v>
+        <v>0.2846</v>
       </c>
     </row>
     <row r="41">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>55084</v>
+        <v>55585</v>
       </c>
       <c r="E43" s="8">
-        <v>0.264</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3423</v>
+        <v>3444</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2426</v>
+        <v>0.2441</v>
       </c>
     </row>
     <row r="45">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>4969</v>
+        <v>5025</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2492</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="51">
@@ -11043,10 +11043,10 @@
         <v>23286</v>
       </c>
       <c r="D51" s="0">
-        <v>6469</v>
+        <v>6558</v>
       </c>
       <c r="E51" s="8">
-        <v>0.2778</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="52">
@@ -11060,10 +11060,10 @@
         <v>21348</v>
       </c>
       <c r="D52" s="0">
-        <v>5121</v>
+        <v>5206</v>
       </c>
       <c r="E52" s="8">
-        <v>0.2399</v>
+        <v>0.2439</v>
       </c>
     </row>
     <row r="53">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6292</v>
+        <v>6399</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2544</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="54">
@@ -11094,10 +11094,10 @@
         <v>22919</v>
       </c>
       <c r="D54" s="0">
-        <v>6125</v>
+        <v>6268</v>
       </c>
       <c r="E54" s="8">
-        <v>0.2672</v>
+        <v>0.2735</v>
       </c>
     </row>
     <row r="55">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>56041</v>
+        <v>56184</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2663</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="56">
@@ -11159,10 +11159,10 @@
         <v>21305</v>
       </c>
       <c r="D58" s="0">
-        <v>5000</v>
+        <v>5045</v>
       </c>
       <c r="E58" s="8">
-        <v>0.2347</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="59">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5629</v>
+        <v>5685</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3002</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="61">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5299</v>
+        <v>5341</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2596</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>59095</v>
+        <v>59281</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2718</v>
+        <v>0.2726</v>
       </c>
     </row>
     <row r="68">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5036</v>
+        <v>5064</v>
       </c>
       <c r="E71" s="8">
-        <v>0.2958</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="72">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6655</v>
+        <v>6722</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2872</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4703</v>
+        <v>4705</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2763</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="75">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5487</v>
+        <v>5561</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2634</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3623</v>
+        <v>3638</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2668</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>48944</v>
+        <v>49209</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2368</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>6820</v>
+        <v>6884</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2705</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="82">
@@ -11595,10 +11595,10 @@
         <v>23522</v>
       </c>
       <c r="D84" s="0">
-        <v>6164</v>
+        <v>6218</v>
       </c>
       <c r="E84" s="8">
-        <v>0.2621</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="85">
@@ -11646,10 +11646,10 @@
         <v>13933</v>
       </c>
       <c r="D87" s="0">
-        <v>2977</v>
+        <v>3055</v>
       </c>
       <c r="E87" s="8">
-        <v>0.2137</v>
+        <v>0.2193</v>
       </c>
     </row>
     <row r="88">
@@ -11663,10 +11663,10 @@
         <v>16883</v>
       </c>
       <c r="D88" s="0">
-        <v>3840</v>
+        <v>3909</v>
       </c>
       <c r="E88" s="8">
-        <v>0.2274</v>
+        <v>0.2315</v>
       </c>
     </row>
     <row r="89">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>55554</v>
+        <v>56096</v>
       </c>
       <c r="E91" s="8">
-        <v>0.265</v>
+        <v>0.2675</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4815</v>
+        <v>4846</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2277</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4131</v>
+        <v>4159</v>
       </c>
       <c r="E93" s="8">
-        <v>0.2925</v>
+        <v>0.2945</v>
       </c>
     </row>
     <row r="94">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6676</v>
+        <v>6685</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2745</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6385</v>
+        <v>6453</v>
       </c>
       <c r="E96" s="8">
-        <v>0.257</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>4881</v>
+        <v>4973</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2747</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4390</v>
+        <v>4518</v>
       </c>
       <c r="E98" s="8">
-        <v>0.2663</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="99">
@@ -11847,10 +11847,10 @@
         <v>18016</v>
       </c>
       <c r="D99" s="0">
-        <v>4337</v>
+        <v>4432</v>
       </c>
       <c r="E99" s="8">
-        <v>0.2407</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="100">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6168</v>
+        <v>6185</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2896</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>5013</v>
+        <v>5065</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2946</v>
+        <v>0.2977</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4898</v>
+        <v>4920</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2505</v>
+        <v>0.2516</v>
       </c>
     </row>
   </sheetData>
@@ -14968,10 +14968,10 @@
         <v>173</v>
       </c>
       <c r="F60" s="0">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="G60" s="8">
-        <v>0.3699</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="61">
@@ -15635,10 +15635,10 @@
         <v>232</v>
       </c>
       <c r="F89" s="0">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G89" s="8">
-        <v>0.3017</v>
+        <v>0.4224</v>
       </c>
     </row>
     <row r="90">
@@ -16348,10 +16348,10 @@
         <v>1383</v>
       </c>
       <c r="F120" s="0">
-        <v>385</v>
+        <v>479</v>
       </c>
       <c r="G120" s="8">
-        <v>0.2784</v>
+        <v>0.3463</v>
       </c>
     </row>
     <row r="121">
@@ -17590,10 +17590,10 @@
         <v>610</v>
       </c>
       <c r="F174" s="0">
-        <v>228</v>
+        <v>319</v>
       </c>
       <c r="G174" s="8">
-        <v>0.3738</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="175">
@@ -18740,10 +18740,10 @@
         <v>628</v>
       </c>
       <c r="F224" s="0">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="G224" s="8">
-        <v>0.2516</v>
+        <v>0.3615</v>
       </c>
     </row>
     <row r="225">
@@ -19982,10 +19982,10 @@
         <v>104</v>
       </c>
       <c r="F278" s="0">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G278" s="8">
-        <v>0.4808</v>
+        <v>0.6154</v>
       </c>
     </row>
     <row r="279">
@@ -20258,10 +20258,10 @@
         <v>165</v>
       </c>
       <c r="F290" s="0">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="G290" s="8">
-        <v>0.3152</v>
+        <v>0.5394</v>
       </c>
     </row>
     <row r="291">
@@ -22604,10 +22604,10 @@
         <v>111</v>
       </c>
       <c r="F392" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G392" s="8">
-        <v>0.3604</v>
+        <v>0.4324</v>
       </c>
     </row>
     <row r="393">
@@ -24444,10 +24444,10 @@
         <v>126</v>
       </c>
       <c r="F472" s="0">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G472" s="8">
-        <v>0.2222</v>
+        <v>0.4365</v>
       </c>
     </row>
     <row r="473">
@@ -25338,10 +25338,10 @@
         <v>911</v>
       </c>
       <c r="E511" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F511" s="0">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="G511" s="8">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>167</v>
       </c>
       <c r="F610" s="0">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G610" s="8">
-        <v>0.3892</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="611">
@@ -29044,10 +29044,10 @@
         <v>67</v>
       </c>
       <c r="F672" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G672" s="8">
-        <v>0.2687</v>
+        <v>0.3881</v>
       </c>
     </row>
     <row r="673">
@@ -29343,10 +29343,10 @@
         <v>108</v>
       </c>
       <c r="F685" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G685" s="8">
-        <v>0.3611</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="686">
@@ -30033,10 +30033,10 @@
         <v>191</v>
       </c>
       <c r="F715" s="0">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G715" s="8">
-        <v>0.356</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="716">
@@ -30608,10 +30608,10 @@
         <v>197</v>
       </c>
       <c r="F740" s="0">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G740" s="8">
-        <v>0.335</v>
+        <v>0.4315</v>
       </c>
     </row>
     <row r="741">
@@ -33920,10 +33920,10 @@
         <v>352</v>
       </c>
       <c r="F884" s="0">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="G884" s="8">
-        <v>0.2898</v>
+        <v>0.4943</v>
       </c>
     </row>
     <row r="885">
@@ -35047,10 +35047,10 @@
         <v>339</v>
       </c>
       <c r="F933" s="0">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="G933" s="8">
-        <v>0.351</v>
+        <v>0.4897</v>
       </c>
     </row>
     <row r="934">
@@ -38497,10 +38497,10 @@
         <v>262</v>
       </c>
       <c r="F1083" s="0">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="G1083" s="8">
-        <v>0.3435</v>
+        <v>0.5305</v>
       </c>
     </row>
     <row r="1084">
@@ -39529,13 +39529,13 @@
         <v>1406</v>
       </c>
       <c r="E1128" s="0">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F1128" s="0">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="G1128" s="8">
-        <v>0.1972</v>
+        <v>0.3352</v>
       </c>
     </row>
     <row r="1129">
@@ -39923,10 +39923,10 @@
         <v>690</v>
       </c>
       <c r="F1145" s="0">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="G1145" s="8">
-        <v>0.3217</v>
+        <v>0.4217</v>
       </c>
     </row>
     <row r="1146">
@@ -42223,10 +42223,10 @@
         <v>174</v>
       </c>
       <c r="F1245" s="0">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G1245" s="8">
-        <v>0.3506</v>
+        <v>0.4713</v>
       </c>
     </row>
     <row r="1246">
@@ -46777,10 +46777,10 @@
         <v>649</v>
       </c>
       <c r="F1443" s="0">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="G1443" s="8">
-        <v>0.2203</v>
+        <v>0.3066</v>
       </c>
     </row>
     <row r="1444">
@@ -47628,10 +47628,10 @@
         <v>726</v>
       </c>
       <c r="F1480" s="0">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="G1480" s="8">
-        <v>0.2521</v>
+        <v>0.3747</v>
       </c>
     </row>
     <row r="1481">
@@ -48226,10 +48226,10 @@
         <v>712</v>
       </c>
       <c r="F1506" s="0">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="G1506" s="8">
-        <v>0.2725</v>
+        <v>0.3919</v>
       </c>
     </row>
     <row r="1507">
@@ -49100,10 +49100,10 @@
         <v>635</v>
       </c>
       <c r="F1544" s="0">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="G1544" s="8">
-        <v>0.2614</v>
+        <v>0.4299</v>
       </c>
     </row>
     <row r="1545">
@@ -49882,10 +49882,10 @@
         <v>591</v>
       </c>
       <c r="F1578" s="0">
-        <v>173</v>
+        <v>316</v>
       </c>
       <c r="G1578" s="8">
-        <v>0.2927</v>
+        <v>0.5347</v>
       </c>
     </row>
     <row r="1579">
@@ -52044,10 +52044,10 @@
         <v>321</v>
       </c>
       <c r="F1672" s="0">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G1672" s="8">
-        <v>0.2804</v>
+        <v>0.4206</v>
       </c>
     </row>
     <row r="1673">
@@ -53355,10 +53355,10 @@
         <v>387</v>
       </c>
       <c r="F1729" s="0">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="G1729" s="8">
-        <v>0.3178</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="1730">
@@ -57932,10 +57932,10 @@
         <v>351</v>
       </c>
       <c r="F1928" s="0">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="G1928" s="8">
-        <v>0.2507</v>
+        <v>0.3704</v>
       </c>
     </row>
     <row r="1929">
@@ -62670,10 +62670,10 @@
         <v>130</v>
       </c>
       <c r="F2134" s="0">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G2134" s="8">
-        <v>0.2462</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="2135">
@@ -65453,10 +65453,10 @@
         <v>554</v>
       </c>
       <c r="F2255" s="0">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="G2255" s="8">
-        <v>0.2545</v>
+        <v>0.3755</v>
       </c>
     </row>
     <row r="2256">
@@ -66534,10 +66534,10 @@
         <v>124</v>
       </c>
       <c r="F2302" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2302" s="8">
-        <v>0.3629</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="2303">
@@ -69639,10 +69639,10 @@
         <v>679</v>
       </c>
       <c r="F2437" s="0">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="G2437" s="8">
-        <v>0.2386</v>
+        <v>0.3476</v>
       </c>
     </row>
     <row r="2438">
@@ -70398,10 +70398,10 @@
         <v>151</v>
       </c>
       <c r="F2470" s="0">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G2470" s="8">
-        <v>0.3444</v>
+        <v>0.4437</v>
       </c>
     </row>
     <row r="2471">
@@ -72077,10 +72077,10 @@
         <v>420</v>
       </c>
       <c r="F2543" s="0">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="G2543" s="8">
-        <v>0.2452</v>
+        <v>0.3976</v>
       </c>
     </row>
     <row r="2544">
@@ -75688,10 +75688,10 @@
         <v>521</v>
       </c>
       <c r="F2700" s="0">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G2700" s="8">
-        <v>0.2956</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="2701">
@@ -77229,10 +77229,10 @@
         <v>723</v>
       </c>
       <c r="F2767" s="0">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="G2767" s="8">
-        <v>0.26</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="2768">
@@ -77781,10 +77781,10 @@
         <v>763</v>
       </c>
       <c r="F2791" s="0">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="G2791" s="8">
-        <v>0.2071</v>
+        <v>0.2975</v>
       </c>
     </row>
     <row r="2792">
@@ -79805,10 +79805,10 @@
         <v>448</v>
       </c>
       <c r="F2879" s="0">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G2879" s="8">
-        <v>0.2188</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="2880">
@@ -80219,10 +80219,10 @@
         <v>249</v>
       </c>
       <c r="F2897" s="0">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G2897" s="8">
-        <v>0.2731</v>
+        <v>0.3855</v>
       </c>
     </row>
     <row r="2898">
@@ -83531,10 +83531,10 @@
         <v>75</v>
       </c>
       <c r="F3041" s="0">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G3041" s="8">
-        <v>0.3067</v>
+        <v>0.4267</v>
       </c>
     </row>
     <row r="3042">
@@ -84957,10 +84957,10 @@
         <v>457</v>
       </c>
       <c r="F3103" s="0">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="G3103" s="8">
-        <v>0.3764</v>
+        <v>0.5252</v>
       </c>
     </row>
     <row r="3104">
@@ -86061,10 +86061,10 @@
         <v>599</v>
       </c>
       <c r="F3151" s="0">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="G3151" s="8">
-        <v>0.2154</v>
+        <v>0.3689</v>
       </c>
     </row>
     <row r="3152">
@@ -86981,10 +86981,10 @@
         <v>589</v>
       </c>
       <c r="F3191" s="0">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="G3191" s="8">
-        <v>0.2241</v>
+        <v>0.3514</v>
       </c>
     </row>
     <row r="3192">
@@ -87119,10 +87119,10 @@
         <v>307</v>
       </c>
       <c r="F3197" s="0">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="G3197" s="8">
-        <v>0.2964</v>
+        <v>0.4691</v>
       </c>
     </row>
     <row r="3198">
@@ -87326,10 +87326,10 @@
         <v>727</v>
       </c>
       <c r="F3206" s="0">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="G3206" s="8">
-        <v>0.1981</v>
+        <v>0.3287</v>
       </c>
     </row>
     <row r="3207">
@@ -88775,10 +88775,10 @@
         <v>283</v>
       </c>
       <c r="F3269" s="0">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G3269" s="8">
-        <v>0.2862</v>
+        <v>0.3463</v>
       </c>
     </row>
     <row r="3270">
@@ -89902,10 +89902,10 @@
         <v>606</v>
       </c>
       <c r="F3318" s="0">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="G3318" s="8">
-        <v>0.2789</v>
+        <v>0.3647</v>
       </c>
     </row>
     <row r="3319">
@@ -90776,10 +90776,10 @@
         <v>148</v>
       </c>
       <c r="F3356" s="0">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G3356" s="8">
-        <v>0.2027</v>
+        <v>0.3243</v>
       </c>
     </row>
     <row r="3357">
@@ -92064,10 +92064,10 @@
         <v>44</v>
       </c>
       <c r="F3412" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3412" s="8">
-        <v>0.4318</v>
+        <v>0.5227</v>
       </c>
     </row>
     <row r="3413">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:45</t>
+    <t>21:50</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.90625</v>
+        <v>45452.90972222222</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689504</v>
+        <v>1689505</v>
       </c>
       <c r="D6" s="0">
-        <v>458101</v>
+        <v>461488</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2711</v>
+        <v>0.2731</v>
       </c>
     </row>
     <row r="7">
@@ -10301,13 +10301,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="0">
-        <v>208089</v>
+        <v>208090</v>
       </c>
       <c r="D7" s="0">
-        <v>59967</v>
+        <v>60422</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2882</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6156</v>
+        <v>6201</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2372</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="9">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4155</v>
+        <v>4207</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3098</v>
+        <v>0.3137</v>
       </c>
     </row>
     <row r="10">
@@ -10386,13 +10386,13 @@
         <v>40</v>
       </c>
       <c r="C12" s="0">
-        <v>20321</v>
+        <v>20322</v>
       </c>
       <c r="D12" s="0">
-        <v>5170</v>
+        <v>5291</v>
       </c>
       <c r="E12" s="8">
-        <v>0.2544</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="13">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8671</v>
+        <v>8727</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3556</v>
+        <v>0.3579</v>
       </c>
     </row>
     <row r="14">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5629</v>
+        <v>5711</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3648</v>
+        <v>0.3701</v>
       </c>
     </row>
     <row r="17">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4215</v>
+        <v>4314</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3163</v>
+        <v>0.3238</v>
       </c>
     </row>
     <row r="19">
@@ -10505,10 +10505,10 @@
         <v>208558</v>
       </c>
       <c r="D19" s="0">
-        <v>54239</v>
+        <v>54333</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2601</v>
+        <v>0.2605</v>
       </c>
     </row>
     <row r="20">
@@ -10522,7 +10522,7 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5395</v>
+        <v>5396</v>
       </c>
       <c r="E20" s="8">
         <v>0.3413</v>
@@ -10573,10 +10573,10 @@
         <v>18284</v>
       </c>
       <c r="D23" s="0">
-        <v>3766</v>
+        <v>3799</v>
       </c>
       <c r="E23" s="8">
-        <v>0.206</v>
+        <v>0.2078</v>
       </c>
     </row>
     <row r="24">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5710</v>
+        <v>5718</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2576</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2827</v>
+        <v>2832</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2234</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>4960</v>
+        <v>5007</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2749</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="28">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>63681</v>
+        <v>63844</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2895</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7836</v>
+        <v>7889</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3121</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>5949</v>
+        <v>5997</v>
       </c>
       <c r="E33" s="8">
-        <v>0.2949</v>
+        <v>0.2972</v>
       </c>
     </row>
     <row r="34">
@@ -10757,10 +10757,10 @@
         <v>25839</v>
       </c>
       <c r="D34" s="0">
-        <v>7529</v>
+        <v>7567</v>
       </c>
       <c r="E34" s="8">
-        <v>0.2914</v>
+        <v>0.2929</v>
       </c>
     </row>
     <row r="35">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6230</v>
+        <v>6254</v>
       </c>
       <c r="E37" s="8">
-        <v>0.2836</v>
+        <v>0.2847</v>
       </c>
     </row>
     <row r="38">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>55585</v>
+        <v>56027</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2664</v>
+        <v>0.2686</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3444</v>
+        <v>3458</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2441</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="45">
@@ -10958,10 +10958,10 @@
         <v>16101</v>
       </c>
       <c r="D46" s="0">
-        <v>4515</v>
+        <v>4613</v>
       </c>
       <c r="E46" s="8">
-        <v>0.2804</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="47">
@@ -10975,10 +10975,10 @@
         <v>13315</v>
       </c>
       <c r="D47" s="0">
-        <v>3824</v>
+        <v>3914</v>
       </c>
       <c r="E47" s="8">
-        <v>0.2872</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="48">
@@ -10992,10 +10992,10 @@
         <v>23277</v>
       </c>
       <c r="D48" s="0">
-        <v>6374</v>
+        <v>6455</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2738</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="49">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3483</v>
+        <v>3577</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2315</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="50">
@@ -11094,10 +11094,10 @@
         <v>22919</v>
       </c>
       <c r="D54" s="0">
-        <v>6268</v>
+        <v>6333</v>
       </c>
       <c r="E54" s="8">
-        <v>0.2735</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="55">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>56184</v>
+        <v>56629</v>
       </c>
       <c r="E55" s="8">
-        <v>0.267</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="56">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8525</v>
+        <v>8555</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2905</v>
+        <v>0.2915</v>
       </c>
     </row>
     <row r="58">
@@ -11176,10 +11176,10 @@
         <v>18123</v>
       </c>
       <c r="D59" s="0">
-        <v>4833</v>
+        <v>4959</v>
       </c>
       <c r="E59" s="8">
-        <v>0.2667</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="60">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5685</v>
+        <v>5702</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3032</v>
+        <v>0.3041</v>
       </c>
     </row>
     <row r="61">
@@ -11227,10 +11227,10 @@
         <v>16053</v>
       </c>
       <c r="D62" s="0">
-        <v>3862</v>
+        <v>3937</v>
       </c>
       <c r="E62" s="8">
-        <v>0.2406</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="63">
@@ -11244,10 +11244,10 @@
         <v>17242</v>
       </c>
       <c r="D63" s="0">
-        <v>4617</v>
+        <v>4659</v>
       </c>
       <c r="E63" s="8">
-        <v>0.2678</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="64">
@@ -11261,10 +11261,10 @@
         <v>17964</v>
       </c>
       <c r="D64" s="0">
-        <v>4613</v>
+        <v>4694</v>
       </c>
       <c r="E64" s="8">
-        <v>0.2568</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="65">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5341</v>
+        <v>5415</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2617</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>59281</v>
+        <v>59721</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2726</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6011</v>
+        <v>6060</v>
       </c>
       <c r="E68" s="8">
-        <v>0.265</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6582</v>
+        <v>6612</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2698</v>
+        <v>0.2711</v>
       </c>
     </row>
     <row r="70">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5064</v>
+        <v>5139</v>
       </c>
       <c r="E71" s="8">
-        <v>0.2974</v>
+        <v>0.3019</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5013</v>
+        <v>5066</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2368</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6722</v>
+        <v>6739</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2901</v>
+        <v>0.2909</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4705</v>
+        <v>4725</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2764</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="75">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>4123</v>
+        <v>4240</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2822</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="76">
@@ -11462,10 +11462,10 @@
         <v>17172</v>
       </c>
       <c r="D76" s="0">
-        <v>5034</v>
+        <v>5056</v>
       </c>
       <c r="E76" s="8">
-        <v>0.2932</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="77">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3638</v>
+        <v>3695</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2679</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>49209</v>
+        <v>49920</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2381</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="80">
@@ -11527,10 +11527,10 @@
         <v>27753</v>
       </c>
       <c r="D80" s="0">
-        <v>4845</v>
+        <v>4930</v>
       </c>
       <c r="E80" s="8">
-        <v>0.1746</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="81">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>6884</v>
+        <v>6994</v>
       </c>
       <c r="E81" s="8">
-        <v>0.273</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5062</v>
+        <v>5081</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2664</v>
+        <v>0.2674</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>3006</v>
+        <v>3335</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2399</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="84">
@@ -11612,10 +11612,10 @@
         <v>21076</v>
       </c>
       <c r="D85" s="0">
-        <v>4936</v>
+        <v>4983</v>
       </c>
       <c r="E85" s="8">
-        <v>0.2342</v>
+        <v>0.2364</v>
       </c>
     </row>
     <row r="86">
@@ -11629,10 +11629,10 @@
         <v>17307</v>
       </c>
       <c r="D86" s="0">
-        <v>4312</v>
+        <v>4395</v>
       </c>
       <c r="E86" s="8">
-        <v>0.2491</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="87">
@@ -11663,10 +11663,10 @@
         <v>16883</v>
       </c>
       <c r="D88" s="0">
-        <v>3909</v>
+        <v>3947</v>
       </c>
       <c r="E88" s="8">
-        <v>0.2315</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="89">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>56096</v>
+        <v>56733</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2675</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4846</v>
+        <v>4893</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2292</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4159</v>
+        <v>4177</v>
       </c>
       <c r="E93" s="8">
-        <v>0.2945</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>3860</v>
+        <v>3894</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2555</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6685</v>
+        <v>6882</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2749</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6453</v>
+        <v>6577</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2597</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>4973</v>
+        <v>5002</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2799</v>
+        <v>0.2815</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4518</v>
+        <v>4558</v>
       </c>
       <c r="E98" s="8">
-        <v>0.274</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="99">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6185</v>
+        <v>6247</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2904</v>
+        <v>0.2934</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>5065</v>
+        <v>5130</v>
       </c>
       <c r="E101" s="8">
-        <v>0.2977</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4920</v>
+        <v>4941</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2516</v>
+        <v>0.2527</v>
       </c>
     </row>
   </sheetData>
@@ -14347,10 +14347,10 @@
         <v>624</v>
       </c>
       <c r="F33" s="0">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="G33" s="8">
-        <v>0.2196</v>
+        <v>0.2917</v>
       </c>
     </row>
     <row r="34">
@@ -14853,10 +14853,10 @@
         <v>403</v>
       </c>
       <c r="F55" s="0">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="G55" s="8">
-        <v>0.2655</v>
+        <v>0.3945</v>
       </c>
     </row>
     <row r="56">
@@ -16736,13 +16736,13 @@
         <v>587</v>
       </c>
       <c r="E137" s="0">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F137" s="0">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="G137" s="8">
-        <v>0.2421</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="138">
@@ -17383,10 +17383,10 @@
         <v>537</v>
       </c>
       <c r="F165" s="0">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="G165" s="8">
-        <v>0.2998</v>
+        <v>0.4041</v>
       </c>
     </row>
     <row r="166">
@@ -19453,10 +19453,10 @@
         <v>455</v>
       </c>
       <c r="F255" s="0">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="G255" s="8">
-        <v>0.3121</v>
+        <v>0.4923</v>
       </c>
     </row>
     <row r="256">
@@ -21362,10 +21362,10 @@
         <v>751</v>
       </c>
       <c r="F338" s="0">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="G338" s="8">
-        <v>0.2543</v>
+        <v>0.3862</v>
       </c>
     </row>
     <row r="339">
@@ -23064,10 +23064,10 @@
         <v>69</v>
       </c>
       <c r="F412" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G412" s="8">
-        <v>0.4493</v>
+        <v>0.4638</v>
       </c>
     </row>
     <row r="413">
@@ -25134,10 +25134,10 @@
         <v>456</v>
       </c>
       <c r="F502" s="0">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="G502" s="8">
-        <v>0.2303</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="503">
@@ -27457,10 +27457,10 @@
         <v>74</v>
       </c>
       <c r="F603" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G603" s="8">
-        <v>0.5135</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="604">
@@ -29205,10 +29205,10 @@
         <v>83</v>
       </c>
       <c r="F679" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G679" s="8">
-        <v>0.241</v>
+        <v>0.3012</v>
       </c>
     </row>
     <row r="680">
@@ -30378,10 +30378,10 @@
         <v>485</v>
       </c>
       <c r="F730" s="0">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="G730" s="8">
-        <v>0.2742</v>
+        <v>0.3711</v>
       </c>
     </row>
     <row r="731">
@@ -34840,10 +34840,10 @@
         <v>328</v>
       </c>
       <c r="F924" s="0">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G924" s="8">
-        <v>0.3323</v>
+        <v>0.4939</v>
       </c>
     </row>
     <row r="925">
@@ -36128,10 +36128,10 @@
         <v>409</v>
       </c>
       <c r="F980" s="0">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="G980" s="8">
-        <v>0.2763</v>
+        <v>0.3936</v>
       </c>
     </row>
     <row r="981">
@@ -36703,10 +36703,10 @@
         <v>208</v>
       </c>
       <c r="F1005" s="0">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="G1005" s="8">
-        <v>0.3269</v>
+        <v>0.5096</v>
       </c>
     </row>
     <row r="1006">
@@ -38566,10 +38566,10 @@
         <v>136</v>
       </c>
       <c r="F1086" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G1086" s="8">
-        <v>0.4412</v>
+        <v>0.6176</v>
       </c>
     </row>
     <row r="1087">
@@ -42568,10 +42568,10 @@
         <v>114</v>
       </c>
       <c r="F1260" s="0">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G1260" s="8">
-        <v>0.4035</v>
+        <v>0.5263</v>
       </c>
     </row>
     <row r="1261">
@@ -44385,10 +44385,10 @@
         <v>422</v>
       </c>
       <c r="F1339" s="0">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="G1339" s="8">
-        <v>0.2062</v>
+        <v>0.4384</v>
       </c>
     </row>
     <row r="1340">
@@ -44799,10 +44799,10 @@
         <v>457</v>
       </c>
       <c r="F1357" s="0">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="G1357" s="8">
-        <v>0.3173</v>
+        <v>0.5142</v>
       </c>
     </row>
     <row r="1358">
@@ -45397,10 +45397,10 @@
         <v>503</v>
       </c>
       <c r="F1383" s="0">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="G1383" s="8">
-        <v>0.3141</v>
+        <v>0.4751</v>
       </c>
     </row>
     <row r="1384">
@@ -46340,10 +46340,10 @@
         <v>895</v>
       </c>
       <c r="F1424" s="0">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="G1424" s="8">
-        <v>0.267</v>
+        <v>0.3721</v>
       </c>
     </row>
     <row r="1425">
@@ -49491,10 +49491,10 @@
         <v>397</v>
       </c>
       <c r="F1561" s="0">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="G1561" s="8">
-        <v>0.3275</v>
+        <v>0.4912</v>
       </c>
     </row>
     <row r="1562">
@@ -51515,10 +51515,10 @@
         <v>357</v>
       </c>
       <c r="F1649" s="0">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="G1649" s="8">
-        <v>0.2437</v>
+        <v>0.3277</v>
       </c>
     </row>
     <row r="1650">
@@ -52849,10 +52849,10 @@
         <v>788</v>
       </c>
       <c r="F1707" s="0">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="G1707" s="8">
-        <v>0.25</v>
+        <v>0.4099</v>
       </c>
     </row>
     <row r="1708">
@@ -53608,10 +53608,10 @@
         <v>103</v>
       </c>
       <c r="F1740" s="0">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G1740" s="8">
-        <v>0.466</v>
+        <v>0.6311</v>
       </c>
     </row>
     <row r="1741">
@@ -54942,10 +54942,10 @@
         <v>728</v>
       </c>
       <c r="F1798" s="0">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="G1798" s="8">
-        <v>0.3077</v>
+        <v>0.4107</v>
       </c>
     </row>
     <row r="1799">
@@ -55701,10 +55701,10 @@
         <v>866</v>
       </c>
       <c r="F1831" s="0">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G1831" s="8">
-        <v>0.224</v>
+        <v>0.2725</v>
       </c>
     </row>
     <row r="1832">
@@ -55954,10 +55954,10 @@
         <v>600</v>
       </c>
       <c r="F1842" s="0">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="G1842" s="8">
-        <v>0.2883</v>
+        <v>0.4233</v>
       </c>
     </row>
     <row r="1843">
@@ -58047,10 +58047,10 @@
         <v>610</v>
       </c>
       <c r="F1933" s="0">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="G1933" s="8">
-        <v>0.2344</v>
+        <v>0.3557</v>
       </c>
     </row>
     <row r="1934">
@@ -58875,10 +58875,10 @@
         <v>407</v>
       </c>
       <c r="F1969" s="0">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="G1969" s="8">
-        <v>0.231</v>
+        <v>0.3514</v>
       </c>
     </row>
     <row r="1970">
@@ -60531,10 +60531,10 @@
         <v>435</v>
       </c>
       <c r="F2041" s="0">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G2041" s="8">
-        <v>0.2529</v>
+        <v>0.3218</v>
       </c>
     </row>
     <row r="2042">
@@ -62785,10 +62785,10 @@
         <v>601</v>
       </c>
       <c r="F2139" s="0">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="G2139" s="8">
-        <v>0.3161</v>
+        <v>0.4409</v>
       </c>
     </row>
     <row r="2140">
@@ -64188,10 +64188,10 @@
         <v>445</v>
       </c>
       <c r="F2200" s="0">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G2200" s="8">
-        <v>0.2899</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="2201">
@@ -64740,10 +64740,10 @@
         <v>135</v>
       </c>
       <c r="F2224" s="0">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G2224" s="8">
-        <v>0.3704</v>
+        <v>0.4963</v>
       </c>
     </row>
     <row r="2225">
@@ -66304,10 +66304,10 @@
         <v>241</v>
       </c>
       <c r="F2292" s="0">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G2292" s="8">
-        <v>0.3154</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="2293">
@@ -67822,7 +67822,7 @@
         <v>0</v>
       </c>
       <c r="F2358" s="0">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G2358" s="8">
         <v>0</v>
@@ -68742,10 +68742,10 @@
         <v>183</v>
       </c>
       <c r="F2398" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G2398" s="8">
-        <v>0.4153</v>
+        <v>0.5355</v>
       </c>
     </row>
     <row r="2399">
@@ -70467,10 +70467,10 @@
         <v>310</v>
       </c>
       <c r="F2473" s="0">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="G2473" s="8">
-        <v>0.2645</v>
+        <v>0.3968</v>
       </c>
     </row>
     <row r="2474">
@@ -70513,10 +70513,10 @@
         <v>85</v>
       </c>
       <c r="F2475" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G2475" s="8">
-        <v>0.1765</v>
+        <v>0.3647</v>
       </c>
     </row>
     <row r="2476">
@@ -71778,10 +71778,10 @@
         <v>629</v>
       </c>
       <c r="F2530" s="0">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="G2530" s="8">
-        <v>0.1781</v>
+        <v>0.3132</v>
       </c>
     </row>
     <row r="2531">
@@ -73020,10 +73020,10 @@
         <v>711</v>
       </c>
       <c r="F2584" s="0">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="G2584" s="8">
-        <v>0.2897</v>
+        <v>0.4444</v>
       </c>
     </row>
     <row r="2585">
@@ -74055,10 +74055,10 @@
         <v>165</v>
       </c>
       <c r="F2629" s="0">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G2629" s="8">
-        <v>0.3333</v>
+        <v>0.4485</v>
       </c>
     </row>
     <row r="2630">
@@ -74860,7 +74860,7 @@
         <v>0</v>
       </c>
       <c r="F2664" s="0">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="G2664" s="8">
         <v>0</v>
@@ -76424,10 +76424,10 @@
         <v>346</v>
       </c>
       <c r="F2732" s="0">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G2732" s="8">
-        <v>0.1879</v>
+        <v>0.3237</v>
       </c>
     </row>
     <row r="2733">
@@ -76861,10 +76861,10 @@
         <v>859</v>
       </c>
       <c r="F2751" s="0">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="G2751" s="8">
-        <v>0.2771</v>
+        <v>0.3737</v>
       </c>
     </row>
     <row r="2752">
@@ -77896,10 +77896,10 @@
         <v>518</v>
       </c>
       <c r="F2796" s="0">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="G2796" s="8">
-        <v>0.1892</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="2797">
@@ -79759,10 +79759,10 @@
         <v>448</v>
       </c>
       <c r="F2877" s="0">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="G2877" s="8">
-        <v>0.2098</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="2878">
@@ -80863,10 +80863,10 @@
         <v>194</v>
       </c>
       <c r="F2925" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G2925" s="8">
-        <v>0.3247</v>
+        <v>0.4175</v>
       </c>
     </row>
     <row r="2926">
@@ -81783,10 +81783,10 @@
         <v>303</v>
       </c>
       <c r="F2965" s="0">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="G2965" s="8">
-        <v>0.1683</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="2966">
@@ -82657,10 +82657,10 @@
         <v>34</v>
       </c>
       <c r="F3003" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3003" s="8">
-        <v>0.5294</v>
+        <v>0.5882</v>
       </c>
     </row>
     <row r="3004">
@@ -84658,7 +84658,7 @@
         <v>0</v>
       </c>
       <c r="F3090" s="0">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="G3090" s="8">
         <v>0</v>
@@ -85509,10 +85509,10 @@
         <v>818</v>
       </c>
       <c r="F3127" s="0">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="G3127" s="8">
-        <v>0.2164</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="3128">
@@ -86038,10 +86038,10 @@
         <v>758</v>
       </c>
       <c r="F3150" s="0">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="G3150" s="8">
-        <v>0.2296</v>
+        <v>0.2678</v>
       </c>
     </row>
     <row r="3151">
@@ -87004,10 +87004,10 @@
         <v>480</v>
       </c>
       <c r="F3192" s="0">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="G3192" s="8">
-        <v>0.2833</v>
+        <v>0.3667</v>
       </c>
     </row>
     <row r="3193">
@@ -88568,10 +88568,10 @@
         <v>380</v>
       </c>
       <c r="F3260" s="0">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="G3260" s="8">
-        <v>0.3</v>
+        <v>0.4316</v>
       </c>
     </row>
     <row r="3261">
@@ -89465,10 +89465,10 @@
         <v>136</v>
       </c>
       <c r="F3299" s="0">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G3299" s="8">
-        <v>0.4559</v>
+        <v>0.5441</v>
       </c>
     </row>
     <row r="3300">
@@ -90224,10 +90224,10 @@
         <v>534</v>
       </c>
       <c r="F3332" s="0">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="G3332" s="8">
-        <v>0.2528</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="3333">
@@ -91006,10 +91006,10 @@
         <v>217</v>
       </c>
       <c r="F3366" s="0">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G3366" s="8">
-        <v>0.3226</v>
+        <v>0.4194</v>
       </c>
     </row>
     <row r="3367">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:50</t>
+    <t>21:55</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.90972222222</v>
+        <v>45452.913194444445</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689505</v>
+        <v>1689506</v>
       </c>
       <c r="D6" s="0">
-        <v>461488</v>
+        <v>464277</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2731</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208090</v>
       </c>
       <c r="D7" s="0">
-        <v>60422</v>
+        <v>60870</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2904</v>
+        <v>0.2925</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6201</v>
+        <v>6222</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2389</v>
+        <v>0.2397</v>
       </c>
     </row>
     <row r="9">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4207</v>
+        <v>4237</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3137</v>
+        <v>0.3159</v>
       </c>
     </row>
     <row r="10">
@@ -10372,10 +10372,10 @@
         <v>20255</v>
       </c>
       <c r="D11" s="0">
-        <v>5090</v>
+        <v>5237</v>
       </c>
       <c r="E11" s="8">
-        <v>0.2513</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="12">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8727</v>
+        <v>8812</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3579</v>
+        <v>0.3613</v>
       </c>
     </row>
     <row r="14">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5711</v>
+        <v>5757</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3701</v>
+        <v>0.3731</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7452</v>
+        <v>7571</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2654</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="18">
@@ -10502,13 +10502,13 @@
         <v>47</v>
       </c>
       <c r="C19" s="0">
-        <v>208558</v>
+        <v>208559</v>
       </c>
       <c r="D19" s="0">
-        <v>54333</v>
+        <v>54628</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2605</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5396</v>
+        <v>5415</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3413</v>
+        <v>0.3425</v>
       </c>
     </row>
     <row r="21">
@@ -10539,10 +10539,10 @@
         <v>14513</v>
       </c>
       <c r="D21" s="0">
-        <v>3288</v>
+        <v>3399</v>
       </c>
       <c r="E21" s="8">
-        <v>0.2266</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="22">
@@ -10570,13 +10570,13 @@
         <v>51</v>
       </c>
       <c r="C23" s="0">
-        <v>18284</v>
+        <v>18285</v>
       </c>
       <c r="D23" s="0">
-        <v>3799</v>
+        <v>3851</v>
       </c>
       <c r="E23" s="8">
-        <v>0.2078</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="24">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>5007</v>
+        <v>5053</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2775</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="28">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6759</v>
+        <v>6826</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3276</v>
+        <v>0.3308</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>63844</v>
+        <v>64230</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2902</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7889</v>
+        <v>7911</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3142</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>5997</v>
+        <v>6064</v>
       </c>
       <c r="E33" s="8">
-        <v>0.2972</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="34">
@@ -10757,10 +10757,10 @@
         <v>25839</v>
       </c>
       <c r="D34" s="0">
-        <v>7567</v>
+        <v>7621</v>
       </c>
       <c r="E34" s="8">
-        <v>0.2929</v>
+        <v>0.2949</v>
       </c>
     </row>
     <row r="35">
@@ -10774,10 +10774,10 @@
         <v>16936</v>
       </c>
       <c r="D35" s="0">
-        <v>4638</v>
+        <v>4696</v>
       </c>
       <c r="E35" s="8">
-        <v>0.2739</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="36">
@@ -10842,10 +10842,10 @@
         <v>13904</v>
       </c>
       <c r="D39" s="0">
-        <v>3737</v>
+        <v>3772</v>
       </c>
       <c r="E39" s="8">
-        <v>0.2688</v>
+        <v>0.2713</v>
       </c>
     </row>
     <row r="40">
@@ -10876,10 +10876,10 @@
         <v>16726</v>
       </c>
       <c r="D41" s="0">
-        <v>4818</v>
+        <v>4915</v>
       </c>
       <c r="E41" s="8">
-        <v>0.2881</v>
+        <v>0.2939</v>
       </c>
     </row>
     <row r="42">
@@ -10893,10 +10893,10 @@
         <v>22794</v>
       </c>
       <c r="D42" s="0">
-        <v>6848</v>
+        <v>6901</v>
       </c>
       <c r="E42" s="8">
-        <v>0.3004</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="43">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>56027</v>
+        <v>56447</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2686</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3458</v>
+        <v>3521</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2451</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="45">
@@ -10992,10 +10992,10 @@
         <v>23277</v>
       </c>
       <c r="D48" s="0">
-        <v>6455</v>
+        <v>6481</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2773</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="49">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5025</v>
+        <v>5080</v>
       </c>
       <c r="E50" s="8">
-        <v>0.252</v>
+        <v>0.2548</v>
       </c>
     </row>
     <row r="51">
@@ -11043,10 +11043,10 @@
         <v>23286</v>
       </c>
       <c r="D51" s="0">
-        <v>6558</v>
+        <v>6647</v>
       </c>
       <c r="E51" s="8">
-        <v>0.2816</v>
+        <v>0.2855</v>
       </c>
     </row>
     <row r="52">
@@ -11060,10 +11060,10 @@
         <v>21348</v>
       </c>
       <c r="D52" s="0">
-        <v>5206</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="8">
-        <v>0.2439</v>
+        <v>0.2483</v>
       </c>
     </row>
     <row r="53">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6399</v>
+        <v>6492</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2587</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="54">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>56629</v>
+        <v>56775</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2691</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4601</v>
+        <v>4630</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2701</v>
+        <v>0.2718</v>
       </c>
     </row>
     <row r="57">
@@ -11176,10 +11176,10 @@
         <v>18123</v>
       </c>
       <c r="D59" s="0">
-        <v>4959</v>
+        <v>5036</v>
       </c>
       <c r="E59" s="8">
-        <v>0.2736</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="60">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5702</v>
+        <v>5742</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3041</v>
+        <v>0.3063</v>
       </c>
     </row>
     <row r="61">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>59721</v>
+        <v>60094</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2746</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6060</v>
+        <v>6000</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2671</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6612</v>
+        <v>6697</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2711</v>
+        <v>0.2745</v>
       </c>
     </row>
     <row r="70">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5066</v>
+        <v>5189</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2393</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6739</v>
+        <v>6767</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2909</v>
+        <v>0.2921</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4725</v>
+        <v>4738</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2776</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="75">
@@ -11462,10 +11462,10 @@
         <v>17172</v>
       </c>
       <c r="D76" s="0">
-        <v>5056</v>
+        <v>5081</v>
       </c>
       <c r="E76" s="8">
-        <v>0.2944</v>
+        <v>0.2959</v>
       </c>
     </row>
     <row r="77">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5561</v>
+        <v>5697</v>
       </c>
       <c r="E77" s="8">
-        <v>0.267</v>
+        <v>0.2735</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3695</v>
+        <v>3718</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2721</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>49920</v>
+        <v>50119</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2416</v>
+        <v>0.2425</v>
       </c>
     </row>
     <row r="80">
@@ -11527,10 +11527,10 @@
         <v>27753</v>
       </c>
       <c r="D80" s="0">
-        <v>4930</v>
+        <v>4990</v>
       </c>
       <c r="E80" s="8">
-        <v>0.1776</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="81">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5081</v>
+        <v>5109</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2674</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>3335</v>
+        <v>3377</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2661</v>
+        <v>0.2695</v>
       </c>
     </row>
     <row r="84">
@@ -11595,10 +11595,10 @@
         <v>23522</v>
       </c>
       <c r="D84" s="0">
-        <v>6218</v>
+        <v>6287</v>
       </c>
       <c r="E84" s="8">
-        <v>0.2643</v>
+        <v>0.2673</v>
       </c>
     </row>
     <row r="85">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>56733</v>
+        <v>57225</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2706</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4893</v>
+        <v>4901</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2314</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4177</v>
+        <v>4226</v>
       </c>
       <c r="E93" s="8">
-        <v>0.2958</v>
+        <v>0.2993</v>
       </c>
     </row>
     <row r="94">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6882</v>
+        <v>6960</v>
       </c>
       <c r="E95" s="8">
-        <v>0.283</v>
+        <v>0.2862</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6577</v>
+        <v>6627</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2647</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5002</v>
+        <v>5102</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2815</v>
+        <v>0.2871</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4558</v>
+        <v>4587</v>
       </c>
       <c r="E98" s="8">
-        <v>0.2764</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="99">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6247</v>
+        <v>6260</v>
       </c>
       <c r="E100" s="8">
-        <v>0.2934</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>5130</v>
+        <v>5292</v>
       </c>
       <c r="E101" s="8">
-        <v>0.3015</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4941</v>
+        <v>4944</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2527</v>
+        <v>0.2528</v>
       </c>
     </row>
   </sheetData>
@@ -13910,10 +13910,10 @@
         <v>228</v>
       </c>
       <c r="F14" s="0">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8">
-        <v>0.2851</v>
+        <v>0.3772</v>
       </c>
     </row>
     <row r="15">
@@ -14692,10 +14692,10 @@
         <v>283</v>
       </c>
       <c r="F48" s="0">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G48" s="8">
-        <v>0.3216</v>
+        <v>0.4276</v>
       </c>
     </row>
     <row r="49">
@@ -16072,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="0">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G108" s="8">
         <v>0</v>
@@ -16279,10 +16279,10 @@
         <v>991</v>
       </c>
       <c r="F117" s="0">
-        <v>283</v>
+        <v>430</v>
       </c>
       <c r="G117" s="8">
-        <v>0.2856</v>
+        <v>0.4339</v>
       </c>
     </row>
     <row r="118">
@@ -17567,10 +17567,10 @@
         <v>334</v>
       </c>
       <c r="F173" s="0">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="G173" s="8">
-        <v>0.3353</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="174">
@@ -17820,10 +17820,10 @@
         <v>220</v>
       </c>
       <c r="F184" s="0">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="G184" s="8">
-        <v>0.4182</v>
+        <v>0.5773</v>
       </c>
     </row>
     <row r="185">
@@ -19867,10 +19867,10 @@
         <v>181</v>
       </c>
       <c r="F273" s="0">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="G273" s="8">
-        <v>0.4199</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="274">
@@ -20649,10 +20649,10 @@
         <v>798</v>
       </c>
       <c r="F307" s="0">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="G307" s="8">
-        <v>0.307</v>
+        <v>0.4561</v>
       </c>
     </row>
     <row r="308">
@@ -22535,10 +22535,10 @@
         <v>151</v>
       </c>
       <c r="F389" s="0">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G389" s="8">
-        <v>0.457</v>
+        <v>0.5828</v>
       </c>
     </row>
     <row r="390">
@@ -23915,10 +23915,10 @@
         <v>1326</v>
       </c>
       <c r="F449" s="0">
-        <v>288</v>
+        <v>399</v>
       </c>
       <c r="G449" s="8">
-        <v>0.2172</v>
+        <v>0.3009</v>
       </c>
     </row>
     <row r="450">
@@ -24694,13 +24694,13 @@
         <v>892</v>
       </c>
       <c r="E483" s="0">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F483" s="0">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G483" s="8">
-        <v>0.2689</v>
+        <v>0.3836</v>
       </c>
     </row>
     <row r="484">
@@ -30516,10 +30516,10 @@
         <v>382</v>
       </c>
       <c r="F736" s="0">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="G736" s="8">
-        <v>0.2984</v>
+        <v>0.4188</v>
       </c>
     </row>
     <row r="737">
@@ -33713,10 +33713,10 @@
         <v>380</v>
       </c>
       <c r="F875" s="0">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="G875" s="8">
-        <v>0.25</v>
+        <v>0.4263</v>
       </c>
     </row>
     <row r="876">
@@ -34932,10 +34932,10 @@
         <v>158</v>
       </c>
       <c r="F928" s="0">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G928" s="8">
-        <v>0.3734</v>
+        <v>0.5127</v>
       </c>
     </row>
     <row r="929">
@@ -35783,10 +35783,10 @@
         <v>675</v>
       </c>
       <c r="F965" s="0">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="G965" s="8">
-        <v>0.197</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="966">
@@ -36749,10 +36749,10 @@
         <v>396</v>
       </c>
       <c r="F1007" s="0">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="G1007" s="8">
-        <v>0.3106</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="1008">
@@ -37485,10 +37485,10 @@
         <v>723</v>
       </c>
       <c r="F1039" s="0">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="G1039" s="8">
-        <v>0.166</v>
+        <v>0.2462</v>
       </c>
     </row>
     <row r="1040">
@@ -39693,10 +39693,10 @@
         <v>397</v>
       </c>
       <c r="F1135" s="0">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G1135" s="8">
-        <v>0.3149</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="1136">
@@ -40751,10 +40751,10 @@
         <v>585</v>
       </c>
       <c r="F1181" s="0">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="G1181" s="8">
-        <v>0.3197</v>
+        <v>0.4855</v>
       </c>
     </row>
     <row r="1182">
@@ -41142,10 +41142,10 @@
         <v>368</v>
       </c>
       <c r="F1198" s="0">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="G1198" s="8">
-        <v>0.3207</v>
+        <v>0.4647</v>
       </c>
     </row>
     <row r="1199">
@@ -42315,10 +42315,10 @@
         <v>266</v>
       </c>
       <c r="F1249" s="0">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G1249" s="8">
-        <v>0.3045</v>
+        <v>0.4098</v>
       </c>
     </row>
     <row r="1250">
@@ -42430,10 +42430,10 @@
         <v>357</v>
       </c>
       <c r="F1254" s="0">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="G1254" s="8">
-        <v>0.2465</v>
+        <v>0.3445</v>
       </c>
     </row>
     <row r="1255">
@@ -45259,10 +45259,10 @@
         <v>176</v>
       </c>
       <c r="F1377" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G1377" s="8">
-        <v>0.2443</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="1378">
@@ -46961,10 +46961,10 @@
         <v>657</v>
       </c>
       <c r="F1451" s="0">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="G1451" s="8">
-        <v>0.2131</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="1452">
@@ -47329,10 +47329,10 @@
         <v>468</v>
       </c>
       <c r="F1467" s="0">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="G1467" s="8">
-        <v>0.2949</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="1468">
@@ -48387,10 +48387,10 @@
         <v>1013</v>
       </c>
       <c r="F1513" s="0">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="G1513" s="8">
-        <v>0.2004</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="1514">
@@ -48686,10 +48686,10 @@
         <v>584</v>
       </c>
       <c r="F1526" s="0">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="G1526" s="8">
-        <v>0.1815</v>
+        <v>0.3408</v>
       </c>
     </row>
     <row r="1527">
@@ -50526,10 +50526,10 @@
         <v>198</v>
       </c>
       <c r="F1606" s="0">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G1606" s="8">
-        <v>0.3182</v>
+        <v>0.4646</v>
       </c>
     </row>
     <row r="1607">
@@ -52918,10 +52918,10 @@
         <v>913</v>
       </c>
       <c r="F1710" s="0">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="G1710" s="8">
-        <v>0.1982</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="1711">
@@ -53677,10 +53677,10 @@
         <v>282</v>
       </c>
       <c r="F1743" s="0">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="G1743" s="8">
-        <v>0.2979</v>
+        <v>0.4397</v>
       </c>
     </row>
     <row r="1744">
@@ -58645,10 +58645,10 @@
         <v>873</v>
       </c>
       <c r="F1959" s="0">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="G1959" s="8">
-        <v>0.3104</v>
+        <v>0.2417</v>
       </c>
     </row>
     <row r="1960">
@@ -60462,10 +60462,10 @@
         <v>751</v>
       </c>
       <c r="F2038" s="0">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="G2038" s="8">
-        <v>0.1957</v>
+        <v>0.3089</v>
       </c>
     </row>
     <row r="2039">
@@ -63314,10 +63314,10 @@
         <v>657</v>
       </c>
       <c r="F2162" s="0">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="G2162" s="8">
-        <v>0.2344</v>
+        <v>0.3288</v>
       </c>
     </row>
     <row r="2163">
@@ -64050,10 +64050,10 @@
         <v>198</v>
       </c>
       <c r="F2194" s="0">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G2194" s="8">
-        <v>0.1263</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="2195">
@@ -64211,10 +64211,10 @@
         <v>378</v>
       </c>
       <c r="F2201" s="0">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="G2201" s="8">
-        <v>0.3201</v>
+        <v>0.4233</v>
       </c>
     </row>
     <row r="2202">
@@ -65752,10 +65752,10 @@
         <v>174</v>
       </c>
       <c r="F2268" s="0">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G2268" s="8">
-        <v>0.2874</v>
+        <v>0.3563</v>
       </c>
     </row>
     <row r="2269">
@@ -65775,10 +65775,10 @@
         <v>166</v>
       </c>
       <c r="F2269" s="0">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G2269" s="8">
-        <v>0.2651</v>
+        <v>0.3614</v>
       </c>
     </row>
     <row r="2270">
@@ -66143,10 +66143,10 @@
         <v>88</v>
       </c>
       <c r="F2285" s="0">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G2285" s="8">
-        <v>0.3636</v>
+        <v>0.5114</v>
       </c>
     </row>
     <row r="2286">
@@ -68650,10 +68650,10 @@
         <v>138</v>
       </c>
       <c r="F2394" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G2394" s="8">
-        <v>0.2899</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="2395">
@@ -69524,10 +69524,10 @@
         <v>946</v>
       </c>
       <c r="F2432" s="0">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="G2432" s="8">
-        <v>0.1882</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="2433">
@@ -69593,10 +69593,10 @@
         <v>529</v>
       </c>
       <c r="F2435" s="0">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G2435" s="8">
-        <v>0.2609</v>
+        <v>0.3629</v>
       </c>
     </row>
     <row r="2436">
@@ -70559,10 +70559,10 @@
         <v>172</v>
       </c>
       <c r="F2477" s="0">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G2477" s="8">
-        <v>0.2035</v>
+        <v>0.3372</v>
       </c>
     </row>
     <row r="2478">
@@ -71594,10 +71594,10 @@
         <v>578</v>
       </c>
       <c r="F2522" s="0">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="G2522" s="8">
-        <v>0.192</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="2523">
@@ -73526,10 +73526,10 @@
         <v>185</v>
       </c>
       <c r="F2606" s="0">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G2606" s="8">
-        <v>0.2757</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="2607">
@@ -74538,10 +74538,10 @@
         <v>353</v>
       </c>
       <c r="F2650" s="0">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="G2650" s="8">
-        <v>0.2125</v>
+        <v>0.3314</v>
       </c>
     </row>
     <row r="2651">
@@ -75228,10 +75228,10 @@
         <v>499</v>
       </c>
       <c r="F2680" s="0">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="G2680" s="8">
-        <v>0.3146</v>
+        <v>0.4529</v>
       </c>
     </row>
     <row r="2681">
@@ -79184,10 +79184,10 @@
         <v>158</v>
       </c>
       <c r="F2852" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G2852" s="8">
-        <v>0.2405</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="2853">
@@ -81116,10 +81116,10 @@
         <v>376</v>
       </c>
       <c r="F2936" s="0">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="G2936" s="8">
-        <v>0.3404</v>
+        <v>0.4707</v>
       </c>
     </row>
     <row r="2937">
@@ -82358,10 +82358,10 @@
         <v>260</v>
       </c>
       <c r="F2990" s="0">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G2990" s="8">
-        <v>0.2462</v>
+        <v>0.4423</v>
       </c>
     </row>
     <row r="2991">
@@ -82427,10 +82427,10 @@
         <v>209</v>
       </c>
       <c r="F2993" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="G2993" s="8">
-        <v>0.2823</v>
+        <v>0.4115</v>
       </c>
     </row>
     <row r="2994">
@@ -85279,10 +85279,10 @@
         <v>320</v>
       </c>
       <c r="F3117" s="0">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="G3117" s="8">
-        <v>0.2938</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3118">
@@ -85900,10 +85900,10 @@
         <v>753</v>
       </c>
       <c r="F3144" s="0">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="G3144" s="8">
-        <v>0.2165</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="3145">
@@ -86590,10 +86590,10 @@
         <v>571</v>
       </c>
       <c r="F3174" s="0">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="G3174" s="8">
-        <v>0.2539</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="3175">
@@ -88430,10 +88430,10 @@
         <v>121</v>
       </c>
       <c r="F3254" s="0">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G3254" s="8">
-        <v>0.2893</v>
+        <v>0.3967</v>
       </c>
     </row>
     <row r="3255">
@@ -90178,10 +90178,10 @@
         <v>693</v>
       </c>
       <c r="F3330" s="0">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="G3330" s="8">
-        <v>0.2886</v>
+        <v>0.4156</v>
       </c>
     </row>
     <row r="3331">
@@ -90362,10 +90362,10 @@
         <v>658</v>
       </c>
       <c r="F3338" s="0">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="G3338" s="8">
-        <v>0.2812</v>
+        <v>0.3936</v>
       </c>
     </row>
     <row r="3339">
@@ -92225,10 +92225,10 @@
         <v>129</v>
       </c>
       <c r="F3419" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3419" s="8">
-        <v>0.2016</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="3420">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>21:55</t>
+    <t>22:05</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.913194444445</v>
+        <v>45452.92013888889</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689506</v>
       </c>
       <c r="D6" s="0">
-        <v>464277</v>
+        <v>469743</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2748</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208090</v>
       </c>
       <c r="D7" s="0">
-        <v>60870</v>
+        <v>61802</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2925</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6222</v>
+        <v>6271</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2397</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="9">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4237</v>
+        <v>4659</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3159</v>
+        <v>0.3474</v>
       </c>
     </row>
     <row r="10">
@@ -10372,10 +10372,10 @@
         <v>20255</v>
       </c>
       <c r="D11" s="0">
-        <v>5237</v>
+        <v>5420</v>
       </c>
       <c r="E11" s="8">
-        <v>0.2586</v>
+        <v>0.2676</v>
       </c>
     </row>
     <row r="12">
@@ -10423,10 +10423,10 @@
         <v>12396</v>
       </c>
       <c r="D14" s="0">
-        <v>3093</v>
+        <v>3244</v>
       </c>
       <c r="E14" s="8">
-        <v>0.2495</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="15">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5757</v>
+        <v>5852</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3731</v>
+        <v>0.3793</v>
       </c>
     </row>
     <row r="17">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4314</v>
+        <v>4346</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3238</v>
+        <v>0.3262</v>
       </c>
     </row>
     <row r="19">
@@ -10505,10 +10505,10 @@
         <v>208559</v>
       </c>
       <c r="D19" s="0">
-        <v>54628</v>
+        <v>55362</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2619</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5415</v>
+        <v>5464</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3425</v>
+        <v>0.3456</v>
       </c>
     </row>
     <row r="21">
@@ -10573,10 +10573,10 @@
         <v>18285</v>
       </c>
       <c r="D23" s="0">
-        <v>3851</v>
+        <v>3904</v>
       </c>
       <c r="E23" s="8">
-        <v>0.2106</v>
+        <v>0.2135</v>
       </c>
     </row>
     <row r="24">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5733</v>
+        <v>5847</v>
       </c>
       <c r="E24" s="8">
-        <v>0.227</v>
+        <v>0.2315</v>
       </c>
     </row>
     <row r="25">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5718</v>
+        <v>5737</v>
       </c>
       <c r="E25" s="8">
-        <v>0.258</v>
+        <v>0.2588</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2832</v>
+        <v>2947</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2238</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>5053</v>
+        <v>5164</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2801</v>
+        <v>0.2863</v>
       </c>
     </row>
     <row r="28">
@@ -10675,10 +10675,10 @@
         <v>23787</v>
       </c>
       <c r="D29" s="0">
-        <v>6091</v>
+        <v>6248</v>
       </c>
       <c r="E29" s="8">
-        <v>0.2561</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="30">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6826</v>
+        <v>6942</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3308</v>
+        <v>0.3364</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>64230</v>
+        <v>64786</v>
       </c>
       <c r="E31" s="8">
-        <v>0.292</v>
+        <v>0.2945</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7911</v>
+        <v>7938</v>
       </c>
       <c r="E32" s="8">
-        <v>0.315</v>
+        <v>0.3161</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>6064</v>
+        <v>6214</v>
       </c>
       <c r="E33" s="8">
-        <v>0.3006</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="34">
@@ -10757,10 +10757,10 @@
         <v>25839</v>
       </c>
       <c r="D34" s="0">
-        <v>7621</v>
+        <v>7662</v>
       </c>
       <c r="E34" s="8">
-        <v>0.2949</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="35">
@@ -10791,10 +10791,10 @@
         <v>16496</v>
       </c>
       <c r="D36" s="0">
-        <v>4941</v>
+        <v>5001</v>
       </c>
       <c r="E36" s="8">
-        <v>0.2995</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="37">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6254</v>
+        <v>6386</v>
       </c>
       <c r="E37" s="8">
-        <v>0.2847</v>
+        <v>0.2907</v>
       </c>
     </row>
     <row r="38">
@@ -10859,10 +10859,10 @@
         <v>17996</v>
       </c>
       <c r="D40" s="0">
-        <v>5122</v>
+        <v>5222</v>
       </c>
       <c r="E40" s="8">
-        <v>0.2846</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="41">
@@ -10893,10 +10893,10 @@
         <v>22794</v>
       </c>
       <c r="D42" s="0">
-        <v>6901</v>
+        <v>6947</v>
       </c>
       <c r="E42" s="8">
-        <v>0.3028</v>
+        <v>0.3048</v>
       </c>
     </row>
     <row r="43">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>56447</v>
+        <v>57140</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2706</v>
+        <v>0.2739</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3521</v>
+        <v>3528</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2495</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45">
@@ -10958,10 +10958,10 @@
         <v>16101</v>
       </c>
       <c r="D46" s="0">
-        <v>4613</v>
+        <v>4712</v>
       </c>
       <c r="E46" s="8">
-        <v>0.2865</v>
+        <v>0.2927</v>
       </c>
     </row>
     <row r="47">
@@ -10975,10 +10975,10 @@
         <v>13315</v>
       </c>
       <c r="D47" s="0">
-        <v>3914</v>
+        <v>4102</v>
       </c>
       <c r="E47" s="8">
-        <v>0.294</v>
+        <v>0.3081</v>
       </c>
     </row>
     <row r="48">
@@ -10992,10 +10992,10 @@
         <v>23277</v>
       </c>
       <c r="D48" s="0">
-        <v>6481</v>
+        <v>6572</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2784</v>
+        <v>0.2823</v>
       </c>
     </row>
     <row r="49">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3577</v>
+        <v>3658</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2377</v>
+        <v>0.2431</v>
       </c>
     </row>
     <row r="50">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5080</v>
+        <v>5161</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2548</v>
+        <v>0.2588</v>
       </c>
     </row>
     <row r="51">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6492</v>
+        <v>6539</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2625</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="54">
@@ -11094,10 +11094,10 @@
         <v>22919</v>
       </c>
       <c r="D54" s="0">
-        <v>6333</v>
+        <v>6432</v>
       </c>
       <c r="E54" s="8">
-        <v>0.2763</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="55">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>56775</v>
+        <v>57150</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2698</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4630</v>
+        <v>4644</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2718</v>
+        <v>0.2726</v>
       </c>
     </row>
     <row r="57">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8555</v>
+        <v>8587</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2915</v>
+        <v>0.2926</v>
       </c>
     </row>
     <row r="58">
@@ -11159,10 +11159,10 @@
         <v>21305</v>
       </c>
       <c r="D58" s="0">
-        <v>5045</v>
+        <v>5122</v>
       </c>
       <c r="E58" s="8">
-        <v>0.2368</v>
+        <v>0.2404</v>
       </c>
     </row>
     <row r="59">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5742</v>
+        <v>5803</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3063</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="61">
@@ -11244,10 +11244,10 @@
         <v>17242</v>
       </c>
       <c r="D63" s="0">
-        <v>4659</v>
+        <v>4692</v>
       </c>
       <c r="E63" s="8">
-        <v>0.2702</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="64">
@@ -11261,10 +11261,10 @@
         <v>17964</v>
       </c>
       <c r="D64" s="0">
-        <v>4694</v>
+        <v>4775</v>
       </c>
       <c r="E64" s="8">
-        <v>0.2613</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="65">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5415</v>
+        <v>5492</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2653</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>60094</v>
+        <v>60639</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2764</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6000</v>
+        <v>6042</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2645</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6697</v>
+        <v>6728</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2745</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="70">
@@ -11360,10 +11360,10 @@
         <v>25794</v>
       </c>
       <c r="D70" s="0">
-        <v>6828</v>
+        <v>6872</v>
       </c>
       <c r="E70" s="8">
-        <v>0.2647</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="71">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5139</v>
+        <v>5256</v>
       </c>
       <c r="E71" s="8">
-        <v>0.3019</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5189</v>
+        <v>5214</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2451</v>
+        <v>0.2463</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6767</v>
+        <v>6881</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2921</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4738</v>
+        <v>4773</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2784</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="75">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>4240</v>
+        <v>4258</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2902</v>
+        <v>0.2914</v>
       </c>
     </row>
     <row r="76">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5697</v>
+        <v>5783</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2735</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3718</v>
+        <v>3751</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2738</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>50119</v>
+        <v>50756</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2425</v>
+        <v>0.2456</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>6994</v>
+        <v>7110</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2774</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5109</v>
+        <v>5149</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2689</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>3377</v>
+        <v>3424</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2695</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="84">
@@ -11612,10 +11612,10 @@
         <v>21076</v>
       </c>
       <c r="D85" s="0">
-        <v>4983</v>
+        <v>5023</v>
       </c>
       <c r="E85" s="8">
-        <v>0.2364</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="86">
@@ -11629,10 +11629,10 @@
         <v>17307</v>
       </c>
       <c r="D86" s="0">
-        <v>4395</v>
+        <v>4462</v>
       </c>
       <c r="E86" s="8">
-        <v>0.2539</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="87">
@@ -11646,10 +11646,10 @@
         <v>13933</v>
       </c>
       <c r="D87" s="0">
-        <v>3055</v>
+        <v>3129</v>
       </c>
       <c r="E87" s="8">
-        <v>0.2193</v>
+        <v>0.2246</v>
       </c>
     </row>
     <row r="88">
@@ -11663,10 +11663,10 @@
         <v>16883</v>
       </c>
       <c r="D88" s="0">
-        <v>3947</v>
+        <v>4095</v>
       </c>
       <c r="E88" s="8">
-        <v>0.2338</v>
+        <v>0.2426</v>
       </c>
     </row>
     <row r="89">
@@ -11680,10 +11680,10 @@
         <v>15840</v>
       </c>
       <c r="D89" s="0">
-        <v>3998</v>
+        <v>4103</v>
       </c>
       <c r="E89" s="8">
-        <v>0.2524</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="90">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>57225</v>
+        <v>58208</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2729</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4901</v>
+        <v>4981</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2318</v>
+        <v>0.2356</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4226</v>
+        <v>4267</v>
       </c>
       <c r="E93" s="8">
-        <v>0.2993</v>
+        <v>0.3022</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>3894</v>
+        <v>3936</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2577</v>
+        <v>0.2605</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>6960</v>
+        <v>7024</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2862</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6627</v>
+        <v>6760</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2667</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5102</v>
+        <v>5203</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2871</v>
+        <v>0.2928</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4587</v>
+        <v>4666</v>
       </c>
       <c r="E98" s="8">
-        <v>0.2782</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="99">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6260</v>
+        <v>6492</v>
       </c>
       <c r="E100" s="8">
-        <v>0.294</v>
+        <v>0.3049</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>5292</v>
+        <v>5485</v>
       </c>
       <c r="E101" s="8">
-        <v>0.311</v>
+        <v>0.3223</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4944</v>
+        <v>4962</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2528</v>
+        <v>0.2537</v>
       </c>
     </row>
   </sheetData>
@@ -14485,10 +14485,10 @@
         <v>518</v>
       </c>
       <c r="F39" s="0">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="G39" s="8">
-        <v>0.3205</v>
+        <v>0.4151</v>
       </c>
     </row>
     <row r="40">
@@ -14807,10 +14807,10 @@
         <v>520</v>
       </c>
       <c r="F53" s="0">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="G53" s="8">
-        <v>0.3212</v>
+        <v>0.4577</v>
       </c>
     </row>
     <row r="54">
@@ -15336,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="0">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="G76" s="8">
         <v>0</v>
@@ -16164,10 +16164,10 @@
         <v>1785</v>
       </c>
       <c r="F112" s="0">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="G112" s="8">
-        <v>0.186</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="113">
@@ -18487,10 +18487,10 @@
         <v>368</v>
       </c>
       <c r="F213" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="G213" s="8">
-        <v>0.3424</v>
+        <v>0.5245</v>
       </c>
     </row>
     <row r="214">
@@ -18510,10 +18510,10 @@
         <v>1193</v>
       </c>
       <c r="F214" s="0">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="G214" s="8">
-        <v>0.1827</v>
+        <v>0.2531</v>
       </c>
     </row>
     <row r="215">
@@ -19614,10 +19614,10 @@
         <v>374</v>
       </c>
       <c r="F262" s="0">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="G262" s="8">
-        <v>0.3529</v>
+        <v>0.5374</v>
       </c>
     </row>
     <row r="263">
@@ -19844,10 +19844,10 @@
         <v>139</v>
       </c>
       <c r="F272" s="0">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G272" s="8">
-        <v>0.4173</v>
+        <v>0.6043</v>
       </c>
     </row>
     <row r="273">
@@ -21454,10 +21454,10 @@
         <v>209</v>
       </c>
       <c r="F342" s="0">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="G342" s="8">
-        <v>0.3493</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="343">
@@ -22696,10 +22696,10 @@
         <v>193</v>
       </c>
       <c r="F396" s="0">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G396" s="8">
-        <v>0.4922</v>
+        <v>0.5907</v>
       </c>
     </row>
     <row r="397">
@@ -22972,10 +22972,10 @@
         <v>115</v>
       </c>
       <c r="F408" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G408" s="8">
-        <v>0.3565</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="409">
@@ -23018,10 +23018,10 @@
         <v>214</v>
       </c>
       <c r="F410" s="0">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G410" s="8">
-        <v>0.2617</v>
+        <v>0.3598</v>
       </c>
     </row>
     <row r="411">
@@ -24835,10 +24835,10 @@
         <v>578</v>
       </c>
       <c r="F489" s="0">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="G489" s="8">
-        <v>0.1903</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="490">
@@ -26514,10 +26514,10 @@
         <v>621</v>
       </c>
       <c r="F562" s="0">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="G562" s="8">
-        <v>0.2367</v>
+        <v>0.3575</v>
       </c>
     </row>
     <row r="563">
@@ -26560,10 +26560,10 @@
         <v>251</v>
       </c>
       <c r="F564" s="0">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="G564" s="8">
-        <v>0.1952</v>
+        <v>0.3506</v>
       </c>
     </row>
     <row r="565">
@@ -27480,10 +27480,10 @@
         <v>127</v>
       </c>
       <c r="F604" s="0">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G604" s="8">
-        <v>0.378</v>
+        <v>0.5276</v>
       </c>
     </row>
     <row r="605">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="F643" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G643" s="8">
         <v>0</v>
@@ -28469,10 +28469,10 @@
         <v>601</v>
       </c>
       <c r="F647" s="0">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="G647" s="8">
-        <v>0.208</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="648">
@@ -28676,10 +28676,10 @@
         <v>195</v>
       </c>
       <c r="F656" s="0">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G656" s="8">
-        <v>0.0769</v>
+        <v>0.4103</v>
       </c>
     </row>
     <row r="657">
@@ -30125,10 +30125,10 @@
         <v>570</v>
       </c>
       <c r="F719" s="0">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="G719" s="8">
-        <v>0.1825</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="720">
@@ -30447,10 +30447,10 @@
         <v>384</v>
       </c>
       <c r="F733" s="0">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="G733" s="8">
-        <v>0.3333</v>
+        <v>0.4557</v>
       </c>
     </row>
     <row r="734">
@@ -32448,10 +32448,10 @@
         <v>381</v>
       </c>
       <c r="F820" s="0">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="G820" s="8">
-        <v>0.1995</v>
+        <v>0.3963</v>
       </c>
     </row>
     <row r="821">
@@ -32793,10 +32793,10 @@
         <v>773</v>
       </c>
       <c r="F835" s="0">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="G835" s="8">
-        <v>0.2393</v>
+        <v>0.3454</v>
       </c>
     </row>
     <row r="836">
@@ -33874,10 +33874,10 @@
         <v>362</v>
       </c>
       <c r="F882" s="0">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="G882" s="8">
-        <v>0.3785</v>
+        <v>0.5414</v>
       </c>
     </row>
     <row r="883">
@@ -34196,10 +34196,10 @@
         <v>294</v>
       </c>
       <c r="F896" s="0">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="G896" s="8">
-        <v>0.3605</v>
+        <v>0.5544</v>
       </c>
     </row>
     <row r="897">
@@ -34610,10 +34610,10 @@
         <v>197</v>
       </c>
       <c r="F914" s="0">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="G914" s="8">
-        <v>0.2944</v>
+        <v>0.4315</v>
       </c>
     </row>
     <row r="915">
@@ -35875,10 +35875,10 @@
         <v>948</v>
       </c>
       <c r="F969" s="0">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="G969" s="8">
-        <v>0.3143</v>
+        <v>0.4726</v>
       </c>
     </row>
     <row r="970">
@@ -36680,10 +36680,10 @@
         <v>218</v>
       </c>
       <c r="F1004" s="0">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="G1004" s="8">
-        <v>0.3486</v>
+        <v>0.5367</v>
       </c>
     </row>
     <row r="1005">
@@ -37738,10 +37738,10 @@
         <v>487</v>
       </c>
       <c r="F1050" s="0">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="G1050" s="8">
-        <v>0.2587</v>
+        <v>0.3819</v>
       </c>
     </row>
     <row r="1051">
@@ -38290,10 +38290,10 @@
         <v>416</v>
       </c>
       <c r="F1074" s="0">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="G1074" s="8">
-        <v>0.3486</v>
+        <v>0.5481</v>
       </c>
     </row>
     <row r="1075">
@@ -38313,10 +38313,10 @@
         <v>494</v>
       </c>
       <c r="F1075" s="0">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="G1075" s="8">
-        <v>0.4008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1076">
@@ -39969,10 +39969,10 @@
         <v>621</v>
       </c>
       <c r="F1147" s="0">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="G1147" s="8">
-        <v>0.3333</v>
+        <v>0.4944</v>
       </c>
     </row>
     <row r="1148">
@@ -41073,10 +41073,10 @@
         <v>237</v>
       </c>
       <c r="F1195" s="0">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="G1195" s="8">
-        <v>0.3291</v>
+        <v>0.5232</v>
       </c>
     </row>
     <row r="1196">
@@ -42269,10 +42269,10 @@
         <v>85</v>
       </c>
       <c r="F1247" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G1247" s="8">
-        <v>0.2235</v>
+        <v>0.3059</v>
       </c>
     </row>
     <row r="1248">
@@ -44546,10 +44546,10 @@
         <v>673</v>
       </c>
       <c r="F1346" s="0">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="G1346" s="8">
-        <v>0.321</v>
+        <v>0.4681</v>
       </c>
     </row>
     <row r="1347">
@@ -44776,10 +44776,10 @@
         <v>1257</v>
       </c>
       <c r="F1356" s="0">
-        <v>372</v>
+        <v>560</v>
       </c>
       <c r="G1356" s="8">
-        <v>0.2959</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="1357">
@@ -45765,10 +45765,10 @@
         <v>643</v>
       </c>
       <c r="F1399" s="0">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="G1399" s="8">
-        <v>0.2737</v>
+        <v>0.4152</v>
       </c>
     </row>
     <row r="1400">
@@ -46156,10 +46156,10 @@
         <v>638</v>
       </c>
       <c r="F1416" s="0">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="G1416" s="8">
-        <v>0.232</v>
+        <v>0.3589</v>
       </c>
     </row>
     <row r="1417">
@@ -47053,10 +47053,10 @@
         <v>461</v>
       </c>
       <c r="F1455" s="0">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="G1455" s="8">
-        <v>0.2408</v>
+        <v>0.4165</v>
       </c>
     </row>
     <row r="1456">
@@ -49146,10 +49146,10 @@
         <v>309</v>
       </c>
       <c r="F1546" s="0">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="G1546" s="8">
-        <v>0.4175</v>
+        <v>0.5696</v>
       </c>
     </row>
     <row r="1547">
@@ -49445,10 +49445,10 @@
         <v>547</v>
       </c>
       <c r="F1559" s="0">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="G1559" s="8">
-        <v>0.2797</v>
+        <v>0.4607</v>
       </c>
     </row>
     <row r="1560">
@@ -50480,10 +50480,10 @@
         <v>204</v>
       </c>
       <c r="F1604" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G1604" s="8">
-        <v>0.1569</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="1605">
@@ -51308,10 +51308,10 @@
         <v>288</v>
       </c>
       <c r="F1640" s="0">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G1640" s="8">
-        <v>0.2743</v>
+        <v>0.3854</v>
       </c>
     </row>
     <row r="1641">
@@ -52251,10 +52251,10 @@
         <v>562</v>
       </c>
       <c r="F1681" s="0">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="G1681" s="8">
-        <v>0.2918</v>
+        <v>0.4288</v>
       </c>
     </row>
     <row r="1682">
@@ -53378,10 +53378,10 @@
         <v>295</v>
       </c>
       <c r="F1730" s="0">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="G1730" s="8">
-        <v>0.3153</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="1731">
@@ -55632,10 +55632,10 @@
         <v>230</v>
       </c>
       <c r="F1828" s="0">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G1828" s="8">
-        <v>0.313</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="1829">
@@ -55908,10 +55908,10 @@
         <v>425</v>
       </c>
       <c r="F1840" s="0">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="G1840" s="8">
-        <v>0.28</v>
+        <v>0.4141</v>
       </c>
     </row>
     <row r="1841">
@@ -56276,10 +56276,10 @@
         <v>202</v>
       </c>
       <c r="F1856" s="0">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G1856" s="8">
-        <v>0.2129</v>
+        <v>0.3317</v>
       </c>
     </row>
     <row r="1857">
@@ -57955,10 +57955,10 @@
         <v>497</v>
       </c>
       <c r="F1929" s="0">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G1929" s="8">
-        <v>0.3038</v>
+        <v>0.4266</v>
       </c>
     </row>
     <row r="1930">
@@ -58346,10 +58346,10 @@
         <v>184</v>
       </c>
       <c r="F1946" s="0">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G1946" s="8">
-        <v>0.2337</v>
+        <v>0.3207</v>
       </c>
     </row>
     <row r="1947">
@@ -58944,10 +58944,10 @@
         <v>369</v>
       </c>
       <c r="F1972" s="0">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G1972" s="8">
-        <v>0.1409</v>
+        <v>0.1843</v>
       </c>
     </row>
     <row r="1973">
@@ -59772,10 +59772,10 @@
         <v>203</v>
       </c>
       <c r="F2008" s="0">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G2008" s="8">
-        <v>0.3103</v>
+        <v>0.4384</v>
       </c>
     </row>
     <row r="2009">
@@ -60347,10 +60347,10 @@
         <v>281</v>
       </c>
       <c r="F2033" s="0">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G2033" s="8">
-        <v>0.2527</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="2034">
@@ -61911,10 +61911,10 @@
         <v>320</v>
       </c>
       <c r="F2101" s="0">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="G2101" s="8">
-        <v>0.2688</v>
+        <v>0.4062</v>
       </c>
     </row>
     <row r="2102">
@@ -62371,10 +62371,10 @@
         <v>489</v>
       </c>
       <c r="F2121" s="0">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="G2121" s="8">
-        <v>0.2781</v>
+        <v>0.3763</v>
       </c>
     </row>
     <row r="2122">
@@ -62555,10 +62555,10 @@
         <v>566</v>
       </c>
       <c r="F2129" s="0">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="G2129" s="8">
-        <v>0.3092</v>
+        <v>0.4311</v>
       </c>
     </row>
     <row r="2130">
@@ -63981,10 +63981,10 @@
         <v>154</v>
       </c>
       <c r="F2191" s="0">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G2191" s="8">
-        <v>0.2468</v>
+        <v>0.4091</v>
       </c>
     </row>
     <row r="2192">
@@ -64625,10 +64625,10 @@
         <v>519</v>
       </c>
       <c r="F2219" s="0">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="G2219" s="8">
-        <v>0.2216</v>
+        <v>0.3179</v>
       </c>
     </row>
     <row r="2220">
@@ -65131,10 +65131,10 @@
         <v>522</v>
       </c>
       <c r="F2241" s="0">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="G2241" s="8">
-        <v>0.2126</v>
+        <v>0.3352</v>
       </c>
     </row>
     <row r="2242">
@@ -66557,10 +66557,10 @@
         <v>102</v>
       </c>
       <c r="F2303" s="0">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G2303" s="8">
-        <v>0.3039</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="2304">
@@ -66810,10 +66810,10 @@
         <v>361</v>
       </c>
       <c r="F2314" s="0">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G2314" s="8">
-        <v>0.205</v>
+        <v>0.2825</v>
       </c>
     </row>
     <row r="2315">
@@ -67454,10 +67454,10 @@
         <v>195</v>
       </c>
       <c r="F2342" s="0">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G2342" s="8">
-        <v>0.2821</v>
+        <v>0.3744</v>
       </c>
     </row>
     <row r="2343">
@@ -68903,10 +68903,10 @@
         <v>644</v>
       </c>
       <c r="F2405" s="0">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="G2405" s="8">
-        <v>0.2578</v>
+        <v>0.3509</v>
       </c>
     </row>
     <row r="2406">
@@ -69064,10 +69064,10 @@
         <v>382</v>
       </c>
       <c r="F2412" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G2412" s="8">
-        <v>0.2461</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="2413">
@@ -70582,10 +70582,10 @@
         <v>192</v>
       </c>
       <c r="F2478" s="0">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G2478" s="8">
-        <v>0.3698</v>
+        <v>0.4635</v>
       </c>
     </row>
     <row r="2479">
@@ -70628,10 +70628,10 @@
         <v>123</v>
       </c>
       <c r="F2480" s="0">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G2480" s="8">
-        <v>0.2602</v>
+        <v>0.3821</v>
       </c>
     </row>
     <row r="2481">
@@ -71962,10 +71962,10 @@
         <v>459</v>
       </c>
       <c r="F2538" s="0">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="G2538" s="8">
-        <v>0.2723</v>
+        <v>0.3595</v>
       </c>
     </row>
     <row r="2539">
@@ -72698,10 +72698,10 @@
         <v>311</v>
       </c>
       <c r="F2570" s="0">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="G2570" s="8">
-        <v>0.2283</v>
+        <v>0.3505</v>
       </c>
     </row>
     <row r="2571">
@@ -73158,10 +73158,10 @@
         <v>318</v>
       </c>
       <c r="F2590" s="0">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G2590" s="8">
-        <v>0.3019</v>
+        <v>0.4214</v>
       </c>
     </row>
     <row r="2591">
@@ -73618,10 +73618,10 @@
         <v>391</v>
       </c>
       <c r="F2610" s="0">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="G2610" s="8">
-        <v>0.3043</v>
+        <v>0.4066</v>
       </c>
     </row>
     <row r="2611">
@@ -74446,10 +74446,10 @@
         <v>331</v>
       </c>
       <c r="F2646" s="0">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="G2646" s="8">
-        <v>0.2779</v>
+        <v>0.4199</v>
       </c>
     </row>
     <row r="2647">
@@ -75872,10 +75872,10 @@
         <v>380</v>
       </c>
       <c r="F2708" s="0">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G2708" s="8">
-        <v>0.2184</v>
+        <v>0.3237</v>
       </c>
     </row>
     <row r="2709">
@@ -76930,10 +76930,10 @@
         <v>717</v>
       </c>
       <c r="F2754" s="0">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="G2754" s="8">
-        <v>0.2176</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="2755">
@@ -77367,10 +77367,10 @@
         <v>662</v>
       </c>
       <c r="F2773" s="0">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="G2773" s="8">
-        <v>0.2553</v>
+        <v>0.3671</v>
       </c>
     </row>
     <row r="2774">
@@ -77574,10 +77574,10 @@
         <v>1160</v>
       </c>
       <c r="F2782" s="0">
-        <v>314</v>
+        <v>462</v>
       </c>
       <c r="G2782" s="8">
-        <v>0.2707</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="2783">
@@ -78310,10 +78310,10 @@
         <v>1135</v>
       </c>
       <c r="F2814" s="0">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="G2814" s="8">
-        <v>0.2026</v>
+        <v>0.2952</v>
       </c>
     </row>
     <row r="2815">
@@ -79207,10 +79207,10 @@
         <v>274</v>
       </c>
       <c r="F2853" s="0">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G2853" s="8">
-        <v>0.2299</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="2854">
@@ -79690,10 +79690,10 @@
         <v>360</v>
       </c>
       <c r="F2874" s="0">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="G2874" s="8">
-        <v>0.2917</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2875">
@@ -80311,10 +80311,10 @@
         <v>273</v>
       </c>
       <c r="F2901" s="0">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G2901" s="8">
-        <v>0.3114</v>
+        <v>0.4212</v>
       </c>
     </row>
     <row r="2902">
@@ -81093,10 +81093,10 @@
         <v>213</v>
       </c>
       <c r="F2935" s="0">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G2935" s="8">
-        <v>0.2254</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="2936">
@@ -81829,10 +81829,10 @@
         <v>558</v>
       </c>
       <c r="F2967" s="0">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="G2967" s="8">
-        <v>0.2276</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="2968">
@@ -82910,10 +82910,10 @@
         <v>213</v>
       </c>
       <c r="F3014" s="0">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G3014" s="8">
-        <v>0.2629</v>
+        <v>0.3615</v>
       </c>
     </row>
     <row r="3015">
@@ -83738,10 +83738,10 @@
         <v>225</v>
       </c>
       <c r="F3050" s="0">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G3050" s="8">
-        <v>0.1956</v>
+        <v>0.3111</v>
       </c>
     </row>
     <row r="3051">
@@ -83945,10 +83945,10 @@
         <v>214</v>
       </c>
       <c r="F3059" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G3059" s="8">
-        <v>0.2944</v>
+        <v>0.3645</v>
       </c>
     </row>
     <row r="3060">
@@ -84451,10 +84451,10 @@
         <v>28</v>
       </c>
       <c r="F3081" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3081" s="8">
-        <v>0.3214</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="3082">
@@ -84934,10 +84934,10 @@
         <v>626</v>
       </c>
       <c r="F3102" s="0">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="G3102" s="8">
-        <v>0.2188</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="3103">
@@ -85486,10 +85486,10 @@
         <v>537</v>
       </c>
       <c r="F3126" s="0">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="G3126" s="8">
-        <v>0.2756</v>
+        <v>0.3799</v>
       </c>
     </row>
     <row r="3127">
@@ -85831,10 +85831,10 @@
         <v>711</v>
       </c>
       <c r="F3141" s="0">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="G3141" s="8">
-        <v>0.2419</v>
+        <v>0.3502</v>
       </c>
     </row>
     <row r="3142">
@@ -86291,10 +86291,10 @@
         <v>227</v>
       </c>
       <c r="F3161" s="0">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G3161" s="8">
-        <v>0.2907</v>
+        <v>0.3965</v>
       </c>
     </row>
     <row r="3162">
@@ -86613,10 +86613,10 @@
         <v>710</v>
       </c>
       <c r="F3175" s="0">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="G3175" s="8">
-        <v>0.2324</v>
+        <v>0.3437</v>
       </c>
     </row>
     <row r="3176">
@@ -88177,10 +88177,10 @@
         <v>145</v>
       </c>
       <c r="F3243" s="0">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G3243" s="8">
-        <v>0.2483</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="3244">
@@ -89603,7 +89603,7 @@
         <v>0</v>
       </c>
       <c r="F3305" s="0">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G3305" s="8">
         <v>0</v>
@@ -89764,10 +89764,10 @@
         <v>543</v>
       </c>
       <c r="F3312" s="0">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="G3312" s="8">
-        <v>0.2597</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="3313">
@@ -89971,10 +89971,10 @@
         <v>635</v>
       </c>
       <c r="F3321" s="0">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="G3321" s="8">
-        <v>0.2583</v>
+        <v>0.4142</v>
       </c>
     </row>
     <row r="3322">
@@ -90155,10 +90155,10 @@
         <v>436</v>
       </c>
       <c r="F3329" s="0">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="G3329" s="8">
-        <v>0.2523</v>
+        <v>0.3876</v>
       </c>
     </row>
     <row r="3330">
@@ -90615,10 +90615,10 @@
         <v>115</v>
       </c>
       <c r="F3349" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3349" s="8">
-        <v>0.1652</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="3350">
@@ -92202,10 +92202,10 @@
         <v>177</v>
       </c>
       <c r="F3418" s="0">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G3418" s="8">
-        <v>0.226</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="3419">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>22:05</t>
+    <t>22:10</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.92013888889</v>
+        <v>45452.92361111111</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689506</v>
       </c>
       <c r="D6" s="0">
-        <v>469743</v>
+        <v>473467</v>
       </c>
       <c r="E6" s="8">
-        <v>0.278</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208090</v>
       </c>
       <c r="D7" s="0">
-        <v>61802</v>
+        <v>62300</v>
       </c>
       <c r="E7" s="8">
-        <v>0.297</v>
+        <v>0.2994</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6271</v>
+        <v>6286</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2416</v>
+        <v>0.2422</v>
       </c>
     </row>
     <row r="9">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4659</v>
+        <v>4762</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3474</v>
+        <v>0.3551</v>
       </c>
     </row>
     <row r="10">
@@ -10355,10 +10355,10 @@
         <v>15875</v>
       </c>
       <c r="D10" s="0">
-        <v>4612</v>
+        <v>4628</v>
       </c>
       <c r="E10" s="8">
-        <v>0.2905</v>
+        <v>0.2915</v>
       </c>
     </row>
     <row r="11">
@@ -10389,10 +10389,10 @@
         <v>20322</v>
       </c>
       <c r="D12" s="0">
-        <v>5291</v>
+        <v>5370</v>
       </c>
       <c r="E12" s="8">
-        <v>0.2604</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="13">
@@ -10406,10 +10406,10 @@
         <v>24387</v>
       </c>
       <c r="D13" s="0">
-        <v>8812</v>
+        <v>8890</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3613</v>
+        <v>0.3645</v>
       </c>
     </row>
     <row r="14">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5852</v>
+        <v>5892</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3793</v>
+        <v>0.3819</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7571</v>
+        <v>7640</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2696</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="18">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4346</v>
+        <v>4444</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3262</v>
+        <v>0.3335</v>
       </c>
     </row>
     <row r="19">
@@ -10505,10 +10505,10 @@
         <v>208559</v>
       </c>
       <c r="D19" s="0">
-        <v>55362</v>
+        <v>55803</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2655</v>
+        <v>0.2676</v>
       </c>
     </row>
     <row r="20">
@@ -10539,10 +10539,10 @@
         <v>14513</v>
       </c>
       <c r="D21" s="0">
-        <v>3399</v>
+        <v>3503</v>
       </c>
       <c r="E21" s="8">
-        <v>0.2342</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="22">
@@ -10556,10 +10556,10 @@
         <v>12475</v>
       </c>
       <c r="D22" s="0">
-        <v>2587</v>
+        <v>2662</v>
       </c>
       <c r="E22" s="8">
-        <v>0.2074</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="23">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5847</v>
+        <v>5908</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2315</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="25">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5737</v>
+        <v>5741</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2588</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>2947</v>
+        <v>3011</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2329</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>5164</v>
+        <v>5184</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2863</v>
+        <v>0.2874</v>
       </c>
     </row>
     <row r="28">
@@ -10675,10 +10675,10 @@
         <v>23787</v>
       </c>
       <c r="D29" s="0">
-        <v>6248</v>
+        <v>6296</v>
       </c>
       <c r="E29" s="8">
-        <v>0.2627</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="30">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>6942</v>
+        <v>7007</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3364</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>64786</v>
+        <v>65166</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2945</v>
+        <v>0.2962</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7938</v>
+        <v>7972</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3161</v>
+        <v>0.3175</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>6214</v>
+        <v>6278</v>
       </c>
       <c r="E33" s="8">
-        <v>0.308</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="34">
@@ -10757,10 +10757,10 @@
         <v>25839</v>
       </c>
       <c r="D34" s="0">
-        <v>7662</v>
+        <v>7701</v>
       </c>
       <c r="E34" s="8">
-        <v>0.2965</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="35">
@@ -10842,10 +10842,10 @@
         <v>13904</v>
       </c>
       <c r="D39" s="0">
-        <v>3772</v>
+        <v>3853</v>
       </c>
       <c r="E39" s="8">
-        <v>0.2713</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="40">
@@ -10859,10 +10859,10 @@
         <v>17996</v>
       </c>
       <c r="D40" s="0">
-        <v>5222</v>
+        <v>5272</v>
       </c>
       <c r="E40" s="8">
-        <v>0.2902</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="41">
@@ -10876,10 +10876,10 @@
         <v>16726</v>
       </c>
       <c r="D41" s="0">
-        <v>4915</v>
+        <v>5027</v>
       </c>
       <c r="E41" s="8">
-        <v>0.2939</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="42">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>57140</v>
+        <v>57648</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2739</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="E44" s="8">
-        <v>0.25</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="45">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3658</v>
+        <v>3694</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2431</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="50">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5161</v>
+        <v>5204</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2588</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="51">
@@ -11043,10 +11043,10 @@
         <v>23286</v>
       </c>
       <c r="D51" s="0">
-        <v>6647</v>
+        <v>6792</v>
       </c>
       <c r="E51" s="8">
-        <v>0.2855</v>
+        <v>0.2917</v>
       </c>
     </row>
     <row r="52">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6539</v>
+        <v>6655</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2644</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="54">
@@ -11094,10 +11094,10 @@
         <v>22919</v>
       </c>
       <c r="D54" s="0">
-        <v>6432</v>
+        <v>6596</v>
       </c>
       <c r="E54" s="8">
-        <v>0.2806</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="55">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>57150</v>
+        <v>57471</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2716</v>
+        <v>0.2731</v>
       </c>
     </row>
     <row r="56">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8587</v>
+        <v>8645</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2926</v>
+        <v>0.2945</v>
       </c>
     </row>
     <row r="58">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5803</v>
+        <v>5860</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3095</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="61">
@@ -11227,10 +11227,10 @@
         <v>16053</v>
       </c>
       <c r="D62" s="0">
-        <v>3937</v>
+        <v>4060</v>
       </c>
       <c r="E62" s="8">
-        <v>0.2453</v>
+        <v>0.2529</v>
       </c>
     </row>
     <row r="63">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5492</v>
+        <v>5575</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2691</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>60639</v>
+        <v>61062</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2789</v>
+        <v>0.2808</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6042</v>
+        <v>6081</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2663</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6728</v>
+        <v>6930</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2758</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="70">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5256</v>
+        <v>5310</v>
       </c>
       <c r="E71" s="8">
-        <v>0.3087</v>
+        <v>0.3119</v>
       </c>
     </row>
     <row r="72">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6881</v>
+        <v>6893</v>
       </c>
       <c r="E73" s="8">
-        <v>0.297</v>
+        <v>0.2975</v>
       </c>
     </row>
     <row r="74">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>4258</v>
+        <v>4279</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2914</v>
+        <v>0.2928</v>
       </c>
     </row>
     <row r="76">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5783</v>
+        <v>5839</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2776</v>
+        <v>0.2803</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3751</v>
+        <v>3790</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2762</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>50756</v>
+        <v>51505</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2456</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>7110</v>
+        <v>7195</v>
       </c>
       <c r="E81" s="8">
-        <v>0.282</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5149</v>
+        <v>5172</v>
       </c>
       <c r="E82" s="8">
-        <v>0.271</v>
+        <v>0.2722</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>3424</v>
+        <v>3481</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2732</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="84">
@@ -11595,10 +11595,10 @@
         <v>23522</v>
       </c>
       <c r="D84" s="0">
-        <v>6287</v>
+        <v>6765</v>
       </c>
       <c r="E84" s="8">
-        <v>0.2673</v>
+        <v>0.2876</v>
       </c>
     </row>
     <row r="85">
@@ -11612,10 +11612,10 @@
         <v>21076</v>
       </c>
       <c r="D85" s="0">
-        <v>5023</v>
+        <v>5062</v>
       </c>
       <c r="E85" s="8">
-        <v>0.2383</v>
+        <v>0.2402</v>
       </c>
     </row>
     <row r="86">
@@ -11663,10 +11663,10 @@
         <v>16883</v>
       </c>
       <c r="D88" s="0">
-        <v>4095</v>
+        <v>4162</v>
       </c>
       <c r="E88" s="8">
-        <v>0.2426</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="89">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>58208</v>
+        <v>58612</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2776</v>
+        <v>0.2795</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4981</v>
+        <v>4998</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2356</v>
+        <v>0.2364</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4267</v>
+        <v>4288</v>
       </c>
       <c r="E93" s="8">
-        <v>0.3022</v>
+        <v>0.3037</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>3936</v>
+        <v>3970</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2605</v>
+        <v>0.2628</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>7024</v>
+        <v>7050</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2888</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6760</v>
+        <v>6791</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2721</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5203</v>
+        <v>5296</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2928</v>
+        <v>0.2981</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4666</v>
+        <v>4766</v>
       </c>
       <c r="E98" s="8">
-        <v>0.283</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="99">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6492</v>
+        <v>6509</v>
       </c>
       <c r="E100" s="8">
-        <v>0.3049</v>
+        <v>0.3057</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>5485</v>
+        <v>5526</v>
       </c>
       <c r="E101" s="8">
-        <v>0.3223</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="102">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>4962</v>
+        <v>4986</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2537</v>
+        <v>0.255</v>
       </c>
     </row>
   </sheetData>
@@ -14370,10 +14370,10 @@
         <v>919</v>
       </c>
       <c r="F34" s="0">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G34" s="8">
-        <v>0.2818</v>
+        <v>0.2982</v>
       </c>
     </row>
     <row r="35">
@@ -14761,10 +14761,10 @@
         <v>725</v>
       </c>
       <c r="F51" s="0">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="G51" s="8">
-        <v>0.3586</v>
+        <v>0.5007</v>
       </c>
     </row>
     <row r="52">
@@ -15658,10 +15658,10 @@
         <v>183</v>
       </c>
       <c r="F90" s="0">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G90" s="8">
-        <v>0.4153</v>
+        <v>0.5027</v>
       </c>
     </row>
     <row r="91">
@@ -16762,10 +16762,10 @@
         <v>527</v>
       </c>
       <c r="F138" s="0">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="G138" s="8">
-        <v>0.2751</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="139">
@@ -18096,10 +18096,10 @@
         <v>386</v>
       </c>
       <c r="F196" s="0">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="G196" s="8">
-        <v>0.3653</v>
+        <v>0.5674</v>
       </c>
     </row>
     <row r="197">
@@ -19591,10 +19591,10 @@
         <v>234</v>
       </c>
       <c r="F261" s="0">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G261" s="8">
-        <v>0.3077</v>
+        <v>0.4786</v>
       </c>
     </row>
     <row r="262">
@@ -20557,10 +20557,10 @@
         <v>412</v>
       </c>
       <c r="F303" s="0">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="G303" s="8">
-        <v>0.2621</v>
+        <v>0.4296</v>
       </c>
     </row>
     <row r="304">
@@ -21707,10 +21707,10 @@
         <v>588</v>
       </c>
       <c r="F353" s="0">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="G353" s="8">
-        <v>0.3741</v>
+        <v>0.5408</v>
       </c>
     </row>
     <row r="354">
@@ -23892,10 +23892,10 @@
         <v>987</v>
       </c>
       <c r="F448" s="0">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="G448" s="8">
-        <v>0.2178</v>
+        <v>0.3232</v>
       </c>
     </row>
     <row r="449">
@@ -24536,10 +24536,10 @@
         <v>658</v>
       </c>
       <c r="F476" s="0">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="G476" s="8">
-        <v>0.2128</v>
+        <v>0.3267</v>
       </c>
     </row>
     <row r="477">
@@ -25548,10 +25548,10 @@
         <v>278</v>
       </c>
       <c r="F520" s="0">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="G520" s="8">
-        <v>0.1727</v>
+        <v>0.3094</v>
       </c>
     </row>
     <row r="521">
@@ -25571,10 +25571,10 @@
         <v>175</v>
       </c>
       <c r="F521" s="0">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G521" s="8">
-        <v>0.2514</v>
+        <v>0.3829</v>
       </c>
     </row>
     <row r="522">
@@ -27089,10 +27089,10 @@
         <v>45</v>
       </c>
       <c r="F587" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G587" s="8">
-        <v>0.6</v>
+        <v>0.6889</v>
       </c>
     </row>
     <row r="588">
@@ -28768,10 +28768,10 @@
         <v>170</v>
       </c>
       <c r="F660" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G660" s="8">
-        <v>0.2588</v>
+        <v>0.3235</v>
       </c>
     </row>
     <row r="661">
@@ -29573,10 +29573,10 @@
         <v>372</v>
       </c>
       <c r="F695" s="0">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G695" s="8">
-        <v>0.2661</v>
+        <v>0.4086</v>
       </c>
     </row>
     <row r="696">
@@ -30493,10 +30493,10 @@
         <v>136</v>
       </c>
       <c r="F735" s="0">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G735" s="8">
-        <v>0.3603</v>
+        <v>0.5074</v>
       </c>
     </row>
     <row r="736">
@@ -32471,10 +32471,10 @@
         <v>420</v>
       </c>
       <c r="F821" s="0">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="G821" s="8">
-        <v>0.2262</v>
+        <v>0.3405</v>
       </c>
     </row>
     <row r="822">
@@ -33805,10 +33805,10 @@
         <v>369</v>
       </c>
       <c r="F879" s="0">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="G879" s="8">
-        <v>0.3198</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="880">
@@ -34794,10 +34794,10 @@
         <v>185</v>
       </c>
       <c r="F922" s="0">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G922" s="8">
-        <v>0.2649</v>
+        <v>0.4486</v>
       </c>
     </row>
     <row r="923">
@@ -35737,10 +35737,10 @@
         <v>464</v>
       </c>
       <c r="F963" s="0">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="G963" s="8">
-        <v>0.3621</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="964">
@@ -36427,10 +36427,10 @@
         <v>275</v>
       </c>
       <c r="F993" s="0">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="G993" s="8">
-        <v>0.3309</v>
+        <v>0.4727</v>
       </c>
     </row>
     <row r="994">
@@ -39785,10 +39785,10 @@
         <v>728</v>
       </c>
       <c r="F1139" s="0">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="G1139" s="8">
-        <v>0.2582</v>
+        <v>0.3695</v>
       </c>
     </row>
     <row r="1140">
@@ -39946,10 +39946,10 @@
         <v>409</v>
       </c>
       <c r="F1146" s="0">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="G1146" s="8">
-        <v>0.3472</v>
+        <v>0.4694</v>
       </c>
     </row>
     <row r="1147">
@@ -40705,10 +40705,10 @@
         <v>649</v>
       </c>
       <c r="F1179" s="0">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="G1179" s="8">
-        <v>0.3143</v>
+        <v>0.4869</v>
       </c>
     </row>
     <row r="1180">
@@ -42614,10 +42614,10 @@
         <v>100</v>
       </c>
       <c r="F1262" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G1262" s="8">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1263">
@@ -46064,10 +46064,10 @@
         <v>480</v>
       </c>
       <c r="F1412" s="0">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="G1412" s="8">
-        <v>0.2833</v>
+        <v>0.3583</v>
       </c>
     </row>
     <row r="1413">
@@ -46915,10 +46915,10 @@
         <v>548</v>
       </c>
       <c r="F1449" s="0">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="G1449" s="8">
-        <v>0.2153</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="1450">
@@ -47352,10 +47352,10 @@
         <v>1060</v>
       </c>
       <c r="F1468" s="0">
-        <v>307</v>
+        <v>452</v>
       </c>
       <c r="G1468" s="8">
-        <v>0.2896</v>
+        <v>0.4264</v>
       </c>
     </row>
     <row r="1469">
@@ -48893,10 +48893,10 @@
         <v>619</v>
       </c>
       <c r="F1535" s="0">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="G1535" s="8">
-        <v>0.2294</v>
+        <v>0.4168</v>
       </c>
     </row>
     <row r="1536">
@@ -49629,10 +49629,10 @@
         <v>852</v>
       </c>
       <c r="F1567" s="0">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="G1567" s="8">
-        <v>0.2582</v>
+        <v>0.4507</v>
       </c>
     </row>
     <row r="1568">
@@ -51377,10 +51377,10 @@
         <v>529</v>
       </c>
       <c r="F1643" s="0">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="G1643" s="8">
-        <v>0.2571</v>
+        <v>0.3667</v>
       </c>
     </row>
     <row r="1644">
@@ -53493,10 +53493,10 @@
         <v>333</v>
       </c>
       <c r="F1735" s="0">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="G1735" s="8">
-        <v>0.3063</v>
+        <v>0.4775</v>
       </c>
     </row>
     <row r="1736">
@@ -54850,10 +54850,10 @@
         <v>1103</v>
       </c>
       <c r="F1794" s="0">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="G1794" s="8">
-        <v>0.2085</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="1795">
@@ -55057,10 +55057,10 @@
         <v>769</v>
       </c>
       <c r="F1803" s="0">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="G1803" s="8">
-        <v>0.2354</v>
+        <v>0.2913</v>
       </c>
     </row>
     <row r="1804">
@@ -58139,10 +58139,10 @@
         <v>689</v>
       </c>
       <c r="F1937" s="0">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="G1937" s="8">
-        <v>0.2032</v>
+        <v>0.3237</v>
       </c>
     </row>
     <row r="1938">
@@ -58921,10 +58921,10 @@
         <v>324</v>
       </c>
       <c r="F1971" s="0">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="G1971" s="8">
-        <v>0.2284</v>
+        <v>0.3488</v>
       </c>
     </row>
     <row r="1972">
@@ -61290,7 +61290,7 @@
         <v>0</v>
       </c>
       <c r="F2074" s="0">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G2074" s="8">
         <v>0</v>
@@ -62233,10 +62233,10 @@
         <v>451</v>
       </c>
       <c r="F2115" s="0">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="G2115" s="8">
-        <v>0.2683</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="2116">
@@ -65660,10 +65660,10 @@
         <v>175</v>
       </c>
       <c r="F2264" s="0">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G2264" s="8">
-        <v>0.2857</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="2265">
@@ -67201,10 +67201,10 @@
         <v>321</v>
       </c>
       <c r="F2331" s="0">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G2331" s="8">
-        <v>0.2648</v>
+        <v>0.3302</v>
       </c>
     </row>
     <row r="2332">
@@ -69363,10 +69363,10 @@
         <v>902</v>
       </c>
       <c r="F2425" s="0">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="G2425" s="8">
-        <v>0.2239</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="2426">
@@ -70329,10 +70329,10 @@
         <v>227</v>
       </c>
       <c r="F2467" s="0">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G2467" s="8">
-        <v>0.3392</v>
+        <v>0.4361</v>
       </c>
     </row>
     <row r="2468">
@@ -70651,10 +70651,10 @@
         <v>75</v>
       </c>
       <c r="F2481" s="0">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G2481" s="8">
-        <v>0.2133</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="2482">
@@ -72537,10 +72537,10 @@
         <v>729</v>
       </c>
       <c r="F2563" s="0">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="G2563" s="8">
-        <v>0.2881</v>
+        <v>0.4047</v>
       </c>
     </row>
     <row r="2564">
@@ -74078,10 +74078,10 @@
         <v>137</v>
       </c>
       <c r="F2630" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G2630" s="8">
-        <v>0.2628</v>
+        <v>0.4307</v>
       </c>
     </row>
     <row r="2631">
@@ -74814,10 +74814,10 @@
         <v>515</v>
       </c>
       <c r="F2662" s="0">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="G2662" s="8">
-        <v>0.2854</v>
+        <v>0.3961</v>
       </c>
     </row>
     <row r="2663">
@@ -75711,7 +75711,7 @@
         <v>0</v>
       </c>
       <c r="F2701" s="0">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="G2701" s="8">
         <v>0</v>
@@ -75895,10 +75895,10 @@
         <v>378</v>
       </c>
       <c r="F2709" s="0">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G2709" s="8">
-        <v>0.3386</v>
+        <v>0.4418</v>
       </c>
     </row>
     <row r="2710">
@@ -77620,10 +77620,10 @@
         <v>699</v>
       </c>
       <c r="F2784" s="0">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="G2784" s="8">
-        <v>0.2403</v>
+        <v>0.3362</v>
       </c>
     </row>
     <row r="2785">
@@ -79322,10 +79322,10 @@
         <v>270</v>
       </c>
       <c r="F2858" s="0">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G2858" s="8">
-        <v>0.2185</v>
+        <v>0.2815</v>
       </c>
     </row>
     <row r="2859">
@@ -80127,10 +80127,10 @@
         <v>217</v>
       </c>
       <c r="F2893" s="0">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G2893" s="8">
-        <v>0.235</v>
+        <v>0.3318</v>
       </c>
     </row>
     <row r="2894">
@@ -81599,10 +81599,10 @@
         <v>320</v>
       </c>
       <c r="F2957" s="0">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="G2957" s="8">
-        <v>0.1781</v>
+        <v>0.2844</v>
       </c>
     </row>
     <row r="2958">
@@ -82956,10 +82956,10 @@
         <v>140</v>
       </c>
       <c r="F3016" s="0">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G3016" s="8">
-        <v>0.3643</v>
+        <v>0.4571</v>
       </c>
     </row>
     <row r="3017">
@@ -83002,10 +83002,10 @@
         <v>89</v>
       </c>
       <c r="F3018" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G3018" s="8">
-        <v>0.3146</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="3019">
@@ -84083,10 +84083,10 @@
         <v>61</v>
       </c>
       <c r="F3065" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3065" s="8">
-        <v>0.2623</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="3066">
@@ -85256,10 +85256,10 @@
         <v>404</v>
       </c>
       <c r="F3116" s="0">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G3116" s="8">
-        <v>0.0792</v>
+        <v>0.1559</v>
       </c>
     </row>
     <row r="3117">
@@ -85923,10 +85923,10 @@
         <v>881</v>
       </c>
       <c r="F3145" s="0">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="G3145" s="8">
-        <v>0.2509</v>
+        <v>0.3564</v>
       </c>
     </row>
     <row r="3146">
@@ -86682,10 +86682,10 @@
         <v>374</v>
       </c>
       <c r="F3178" s="0">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="G3178" s="8">
-        <v>0.2834</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="3179">
@@ -87165,10 +87165,10 @@
         <v>559</v>
       </c>
       <c r="F3199" s="0">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="G3199" s="8">
-        <v>0.2343</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="3200">
@@ -88798,10 +88798,10 @@
         <v>161</v>
       </c>
       <c r="F3270" s="0">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G3270" s="8">
-        <v>0.2484</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="3271">
@@ -89925,10 +89925,10 @@
         <v>508</v>
       </c>
       <c r="F3319" s="0">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="G3319" s="8">
-        <v>0.2894</v>
+        <v>0.3701</v>
       </c>
     </row>
     <row r="3320">
@@ -91489,10 +91489,10 @@
         <v>303</v>
       </c>
       <c r="F3387" s="0">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G3387" s="8">
-        <v>0.2772</v>
+        <v>0.3564</v>
       </c>
     </row>
     <row r="3388">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>22:10</t>
+    <t>22:15</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.92361111111</v>
+        <v>45452.927083333336</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689506</v>
+        <v>1689508</v>
       </c>
       <c r="D6" s="0">
-        <v>473467</v>
+        <v>476401</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2802</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="7">
@@ -10301,13 +10301,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="0">
-        <v>208090</v>
+        <v>208091</v>
       </c>
       <c r="D7" s="0">
-        <v>62300</v>
+        <v>62993</v>
       </c>
       <c r="E7" s="8">
-        <v>0.2994</v>
+        <v>0.3027</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6286</v>
+        <v>6351</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2422</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="9">
@@ -10403,13 +10403,13 @@
         <v>41</v>
       </c>
       <c r="C13" s="0">
-        <v>24387</v>
+        <v>24388</v>
       </c>
       <c r="D13" s="0">
-        <v>8890</v>
+        <v>9054</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3645</v>
+        <v>0.3712</v>
       </c>
     </row>
     <row r="14">
@@ -10423,10 +10423,10 @@
         <v>12396</v>
       </c>
       <c r="D14" s="0">
-        <v>3244</v>
+        <v>3300</v>
       </c>
       <c r="E14" s="8">
-        <v>0.2617</v>
+        <v>0.2662</v>
       </c>
     </row>
     <row r="15">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>5892</v>
+        <v>6159</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3819</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7640</v>
+        <v>7729</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2721</v>
+        <v>0.2752</v>
       </c>
     </row>
     <row r="18">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4444</v>
+        <v>4496</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3335</v>
+        <v>0.3374</v>
       </c>
     </row>
     <row r="19">
@@ -10502,13 +10502,13 @@
         <v>47</v>
       </c>
       <c r="C19" s="0">
-        <v>208559</v>
+        <v>208560</v>
       </c>
       <c r="D19" s="0">
-        <v>55803</v>
+        <v>56163</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2676</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5464</v>
+        <v>5484</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3456</v>
+        <v>0.3469</v>
       </c>
     </row>
     <row r="21">
@@ -10570,13 +10570,13 @@
         <v>51</v>
       </c>
       <c r="C23" s="0">
-        <v>18285</v>
+        <v>18286</v>
       </c>
       <c r="D23" s="0">
-        <v>3904</v>
+        <v>3982</v>
       </c>
       <c r="E23" s="8">
-        <v>0.2135</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="24">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5908</v>
+        <v>5927</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2339</v>
+        <v>0.2347</v>
       </c>
     </row>
     <row r="25">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>3011</v>
+        <v>3027</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2379</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>5184</v>
+        <v>5254</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2874</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="28">
@@ -10675,10 +10675,10 @@
         <v>23787</v>
       </c>
       <c r="D29" s="0">
-        <v>6296</v>
+        <v>6368</v>
       </c>
       <c r="E29" s="8">
-        <v>0.2647</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="30">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>7007</v>
+        <v>7092</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3396</v>
+        <v>0.3437</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>65166</v>
+        <v>65586</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2962</v>
+        <v>0.2981</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>7972</v>
+        <v>8004</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3175</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="33">
@@ -10757,10 +10757,10 @@
         <v>25839</v>
       </c>
       <c r="D34" s="0">
-        <v>7701</v>
+        <v>7775</v>
       </c>
       <c r="E34" s="8">
-        <v>0.298</v>
+        <v>0.3009</v>
       </c>
     </row>
     <row r="35">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6386</v>
+        <v>6537</v>
       </c>
       <c r="E37" s="8">
-        <v>0.2907</v>
+        <v>0.2976</v>
       </c>
     </row>
     <row r="38">
@@ -10842,10 +10842,10 @@
         <v>13904</v>
       </c>
       <c r="D39" s="0">
-        <v>3853</v>
+        <v>3955</v>
       </c>
       <c r="E39" s="8">
-        <v>0.2771</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="40">
@@ -10893,10 +10893,10 @@
         <v>22794</v>
       </c>
       <c r="D42" s="0">
-        <v>6947</v>
+        <v>7008</v>
       </c>
       <c r="E42" s="8">
-        <v>0.3048</v>
+        <v>0.3074</v>
       </c>
     </row>
     <row r="43">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>57648</v>
+        <v>57917</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2763</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3532</v>
+        <v>3559</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2503</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="45">
@@ -10975,10 +10975,10 @@
         <v>13315</v>
       </c>
       <c r="D47" s="0">
-        <v>4102</v>
+        <v>4184</v>
       </c>
       <c r="E47" s="8">
-        <v>0.3081</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="48">
@@ -10992,10 +10992,10 @@
         <v>23277</v>
       </c>
       <c r="D48" s="0">
-        <v>6572</v>
+        <v>6615</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2823</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="49">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3694</v>
+        <v>3745</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2455</v>
+        <v>0.2489</v>
       </c>
     </row>
     <row r="50">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5204</v>
+        <v>5270</v>
       </c>
       <c r="E50" s="8">
-        <v>0.261</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="51">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>57471</v>
+        <v>57696</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2731</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="56">
@@ -11159,10 +11159,10 @@
         <v>21305</v>
       </c>
       <c r="D58" s="0">
-        <v>5122</v>
+        <v>5175</v>
       </c>
       <c r="E58" s="8">
-        <v>0.2404</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="59">
@@ -11176,10 +11176,10 @@
         <v>18123</v>
       </c>
       <c r="D59" s="0">
-        <v>5036</v>
+        <v>5138</v>
       </c>
       <c r="E59" s="8">
-        <v>0.2779</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="60">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5860</v>
+        <v>5890</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3126</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="61">
@@ -11261,10 +11261,10 @@
         <v>17964</v>
       </c>
       <c r="D64" s="0">
-        <v>4775</v>
+        <v>4779</v>
       </c>
       <c r="E64" s="8">
-        <v>0.2658</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="65">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5575</v>
+        <v>5611</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2732</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>61062</v>
+        <v>61325</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2808</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6081</v>
+        <v>6086</v>
       </c>
       <c r="E68" s="8">
-        <v>0.268</v>
+        <v>0.2683</v>
       </c>
     </row>
     <row r="69">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5310</v>
+        <v>5342</v>
       </c>
       <c r="E71" s="8">
-        <v>0.3119</v>
+        <v>0.3138</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5214</v>
+        <v>5255</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2463</v>
+        <v>0.2483</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6893</v>
+        <v>6937</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2975</v>
+        <v>0.2994</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4773</v>
+        <v>4826</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2804</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="75">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5839</v>
+        <v>5889</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2803</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3790</v>
+        <v>3828</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2791</v>
+        <v>0.2819</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>51505</v>
+        <v>51810</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2492</v>
+        <v>0.2507</v>
       </c>
     </row>
     <row r="80">
@@ -11527,10 +11527,10 @@
         <v>27753</v>
       </c>
       <c r="D80" s="0">
-        <v>4990</v>
+        <v>5072</v>
       </c>
       <c r="E80" s="8">
-        <v>0.1798</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="81">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>7195</v>
+        <v>7239</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2854</v>
+        <v>0.2871</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5172</v>
+        <v>5191</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2722</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>3481</v>
+        <v>3539</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2778</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="84">
@@ -11629,10 +11629,10 @@
         <v>17307</v>
       </c>
       <c r="D86" s="0">
-        <v>4462</v>
+        <v>4564</v>
       </c>
       <c r="E86" s="8">
-        <v>0.2578</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="87">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>58612</v>
+        <v>59011</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2795</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>4998</v>
+        <v>5039</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2364</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4288</v>
+        <v>4360</v>
       </c>
       <c r="E93" s="8">
-        <v>0.3037</v>
+        <v>0.3088</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>3970</v>
+        <v>4063</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2628</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>7050</v>
+        <v>7100</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2899</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6791</v>
+        <v>6802</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2733</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5296</v>
+        <v>5333</v>
       </c>
       <c r="E97" s="8">
-        <v>0.2981</v>
+        <v>0.3001</v>
       </c>
     </row>
     <row r="98">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6509</v>
+        <v>6545</v>
       </c>
       <c r="E100" s="8">
-        <v>0.3057</v>
+        <v>0.3073</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>5526</v>
+        <v>5585</v>
       </c>
       <c r="E101" s="8">
-        <v>0.3248</v>
+        <v>0.3282</v>
       </c>
     </row>
     <row r="102">
@@ -14301,10 +14301,10 @@
         <v>738</v>
       </c>
       <c r="F31" s="0">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="G31" s="8">
-        <v>0.2439</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="32">
@@ -17449,13 +17449,13 @@
         <v>614</v>
       </c>
       <c r="E168" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F168" s="0">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="G168" s="8">
-        <v>0.2971</v>
+        <v>0.4483</v>
       </c>
     </row>
     <row r="169">
@@ -17521,10 +17521,10 @@
         <v>578</v>
       </c>
       <c r="F171" s="0">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="G171" s="8">
-        <v>0.3633</v>
+        <v>0.4948</v>
       </c>
     </row>
     <row r="172">
@@ -18533,10 +18533,10 @@
         <v>844</v>
       </c>
       <c r="F215" s="0">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="G215" s="8">
-        <v>0.1765</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="216">
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
       <c r="F282" s="0">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="G282" s="8">
         <v>0</v>
@@ -20281,10 +20281,10 @@
         <v>563</v>
       </c>
       <c r="F291" s="0">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="G291" s="8">
-        <v>0.3037</v>
+        <v>0.4618</v>
       </c>
     </row>
     <row r="292">
@@ -21293,10 +21293,10 @@
         <v>390</v>
       </c>
       <c r="F335" s="0">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="G335" s="8">
-        <v>0.2949</v>
+        <v>0.4282</v>
       </c>
     </row>
     <row r="336">
@@ -22259,10 +22259,10 @@
         <v>59</v>
       </c>
       <c r="F377" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G377" s="8">
-        <v>0.5932</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="378">
@@ -23225,10 +23225,10 @@
         <v>67</v>
       </c>
       <c r="F419" s="0">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G419" s="8">
-        <v>0.5522</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="420">
@@ -24786,13 +24786,13 @@
         <v>895</v>
       </c>
       <c r="E487" s="0">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F487" s="0">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="G487" s="8">
-        <v>0.2473</v>
+        <v>0.3845</v>
       </c>
     </row>
     <row r="488">
@@ -26583,10 +26583,10 @@
         <v>221</v>
       </c>
       <c r="F565" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G565" s="8">
-        <v>0.2941</v>
+        <v>0.3801</v>
       </c>
     </row>
     <row r="566">
@@ -28952,10 +28952,10 @@
         <v>84</v>
       </c>
       <c r="F668" s="0">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G668" s="8">
-        <v>0.2381</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="669">
@@ -29987,10 +29987,10 @@
         <v>52</v>
       </c>
       <c r="F713" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G713" s="8">
-        <v>0.5</v>
+        <v>0.6346</v>
       </c>
     </row>
     <row r="714">
@@ -30539,10 +30539,10 @@
         <v>426</v>
       </c>
       <c r="F737" s="0">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="G737" s="8">
-        <v>0.3075</v>
+        <v>0.4554</v>
       </c>
     </row>
     <row r="738">
@@ -32494,10 +32494,10 @@
         <v>494</v>
       </c>
       <c r="F822" s="0">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="G822" s="8">
-        <v>0.2429</v>
+        <v>0.3887</v>
       </c>
     </row>
     <row r="823">
@@ -33690,10 +33690,10 @@
         <v>442</v>
       </c>
       <c r="F874" s="0">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="G874" s="8">
-        <v>0.2919</v>
+        <v>0.4842</v>
       </c>
     </row>
     <row r="875">
@@ -35070,10 +35070,10 @@
         <v>282</v>
       </c>
       <c r="F934" s="0">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="G934" s="8">
-        <v>0.4787</v>
+        <v>0.5922</v>
       </c>
     </row>
     <row r="935">
@@ -36473,10 +36473,10 @@
         <v>399</v>
       </c>
       <c r="F995" s="0">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="G995" s="8">
-        <v>0.2707</v>
+        <v>0.4561</v>
       </c>
     </row>
     <row r="996">
@@ -38221,10 +38221,10 @@
         <v>1048</v>
       </c>
       <c r="F1071" s="0">
-        <v>354</v>
+        <v>505</v>
       </c>
       <c r="G1071" s="8">
-        <v>0.3378</v>
+        <v>0.4819</v>
       </c>
     </row>
     <row r="1072">
@@ -39808,10 +39808,10 @@
         <v>628</v>
       </c>
       <c r="F1140" s="0">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="G1140" s="8">
-        <v>0.2914</v>
+        <v>0.4538</v>
       </c>
     </row>
     <row r="1141">
@@ -41211,10 +41211,10 @@
         <v>518</v>
       </c>
       <c r="F1201" s="0">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="G1201" s="8">
-        <v>0.2297</v>
+        <v>0.3475</v>
       </c>
     </row>
     <row r="1202">
@@ -42154,10 +42154,10 @@
         <v>265</v>
       </c>
       <c r="F1242" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G1242" s="8">
-        <v>0.2642</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="1243">
@@ -44730,10 +44730,10 @@
         <v>764</v>
       </c>
       <c r="F1354" s="0">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="G1354" s="8">
-        <v>0.2736</v>
+        <v>0.3809</v>
       </c>
     </row>
     <row r="1355">
@@ -45328,10 +45328,10 @@
         <v>307</v>
       </c>
       <c r="F1380" s="0">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="G1380" s="8">
-        <v>0.228</v>
+        <v>0.3681</v>
       </c>
     </row>
     <row r="1381">
@@ -46248,10 +46248,10 @@
         <v>499</v>
       </c>
       <c r="F1420" s="0">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="G1420" s="8">
-        <v>0.2285</v>
+        <v>0.3307</v>
       </c>
     </row>
     <row r="1421">
@@ -46800,10 +46800,10 @@
         <v>480</v>
       </c>
       <c r="F1444" s="0">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="G1444" s="8">
-        <v>0.2854</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="1445">
@@ -52366,10 +52366,10 @@
         <v>552</v>
       </c>
       <c r="F1686" s="0">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="G1686" s="8">
-        <v>0.2899</v>
+        <v>0.3859</v>
       </c>
     </row>
     <row r="1687">
@@ -52872,10 +52872,10 @@
         <v>823</v>
       </c>
       <c r="F1708" s="0">
-        <v>297</v>
+        <v>399</v>
       </c>
       <c r="G1708" s="8">
-        <v>0.3609</v>
+        <v>0.4848</v>
       </c>
     </row>
     <row r="1709">
@@ -53217,10 +53217,10 @@
         <v>160</v>
       </c>
       <c r="F1723" s="0">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G1723" s="8">
-        <v>0.3062</v>
+        <v>0.4938</v>
       </c>
     </row>
     <row r="1724">
@@ -56299,10 +56299,10 @@
         <v>43</v>
       </c>
       <c r="F1857" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1857" s="8">
-        <v>0.4651</v>
+        <v>0.5581</v>
       </c>
     </row>
     <row r="1858">
@@ -57978,10 +57978,10 @@
         <v>370</v>
       </c>
       <c r="F1930" s="0">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G1930" s="8">
-        <v>0.1595</v>
+        <v>0.2568</v>
       </c>
     </row>
     <row r="1931">
@@ -59312,10 +59312,10 @@
         <v>70</v>
       </c>
       <c r="F1988" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G1988" s="8">
-        <v>0.3571</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="1989">
@@ -62854,10 +62854,10 @@
         <v>275</v>
       </c>
       <c r="F2142" s="0">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G2142" s="8">
-        <v>0.2836</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2143">
@@ -63728,10 +63728,10 @@
         <v>440</v>
       </c>
       <c r="F2180" s="0">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="G2180" s="8">
-        <v>0.1886</v>
+        <v>0.2818</v>
       </c>
     </row>
     <row r="2181">
@@ -64556,10 +64556,10 @@
         <v>227</v>
       </c>
       <c r="F2216" s="0">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G2216" s="8">
-        <v>0.3877</v>
+        <v>0.4758</v>
       </c>
     </row>
     <row r="2217">
@@ -65292,10 +65292,10 @@
         <v>126</v>
       </c>
       <c r="F2248" s="0">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G2248" s="8">
-        <v>0.2778</v>
+        <v>0.4683</v>
       </c>
     </row>
     <row r="2249">
@@ -66419,10 +66419,10 @@
         <v>381</v>
       </c>
       <c r="F2297" s="0">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="G2297" s="8">
-        <v>0.294</v>
+        <v>0.4331</v>
       </c>
     </row>
     <row r="2298">
@@ -69317,10 +69317,10 @@
         <v>410</v>
       </c>
       <c r="F2423" s="0">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="G2423" s="8">
-        <v>0.3293</v>
+        <v>0.4512</v>
       </c>
     </row>
     <row r="2424">
@@ -70099,10 +70099,10 @@
         <v>523</v>
       </c>
       <c r="F2457" s="0">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G2457" s="8">
-        <v>0.2677</v>
+        <v>0.3403</v>
       </c>
     </row>
     <row r="2458">
@@ -71686,10 +71686,10 @@
         <v>686</v>
       </c>
       <c r="F2526" s="0">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="G2526" s="8">
-        <v>0.2128</v>
+        <v>0.3324</v>
       </c>
     </row>
     <row r="2527">
@@ -72974,10 +72974,10 @@
         <v>214</v>
       </c>
       <c r="F2582" s="0">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G2582" s="8">
-        <v>0.2944</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2583">
@@ -74239,10 +74239,10 @@
         <v>132</v>
       </c>
       <c r="F2637" s="0">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G2637" s="8">
-        <v>0.3788</v>
+        <v>0.5227</v>
       </c>
     </row>
     <row r="2638">
@@ -74676,10 +74676,10 @@
         <v>593</v>
       </c>
       <c r="F2656" s="0">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="G2656" s="8">
-        <v>0.2749</v>
+        <v>0.3727</v>
       </c>
     </row>
     <row r="2657">
@@ -76907,10 +76907,10 @@
         <v>539</v>
       </c>
       <c r="F2753" s="0">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="G2753" s="8">
-        <v>0.3006</v>
+        <v>0.4898</v>
       </c>
     </row>
     <row r="2754">
@@ -79920,10 +79920,10 @@
         <v>526</v>
       </c>
       <c r="F2884" s="0">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="G2884" s="8">
-        <v>0.2053</v>
+        <v>0.2833</v>
       </c>
     </row>
     <row r="2885">
@@ -80587,10 +80587,10 @@
         <v>103</v>
       </c>
       <c r="F2913" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G2913" s="8">
-        <v>0.4951</v>
+        <v>0.5534</v>
       </c>
     </row>
     <row r="2914">
@@ -80978,10 +80978,10 @@
         <v>444</v>
       </c>
       <c r="F2930" s="0">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="G2930" s="8">
-        <v>0.277</v>
+        <v>0.4257</v>
       </c>
     </row>
     <row r="2931">
@@ -81484,10 +81484,10 @@
         <v>842</v>
       </c>
       <c r="F2952" s="0">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="G2952" s="8">
-        <v>0.2185</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="2953">
@@ -83692,10 +83692,10 @@
         <v>54</v>
       </c>
       <c r="F3048" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G3048" s="8">
-        <v>0.3333</v>
+        <v>0.5185</v>
       </c>
     </row>
     <row r="3049">
@@ -83761,10 +83761,10 @@
         <v>167</v>
       </c>
       <c r="F3051" s="0">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G3051" s="8">
-        <v>0.2934</v>
+        <v>0.3713</v>
       </c>
     </row>
     <row r="3052">
@@ -84152,10 +84152,10 @@
         <v>244</v>
       </c>
       <c r="F3068" s="0">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G3068" s="8">
-        <v>0.2787</v>
+        <v>0.3893</v>
       </c>
     </row>
     <row r="3069">
@@ -85072,10 +85072,10 @@
         <v>122</v>
       </c>
       <c r="F3108" s="0">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G3108" s="8">
-        <v>0.3852</v>
+        <v>0.4754</v>
       </c>
     </row>
     <row r="3109">
@@ -85762,10 +85762,10 @@
         <v>427</v>
       </c>
       <c r="F3138" s="0">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="G3138" s="8">
-        <v>0.2998</v>
+        <v>0.3864</v>
       </c>
     </row>
     <row r="3139">
@@ -88108,10 +88108,10 @@
         <v>113</v>
       </c>
       <c r="F3240" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3240" s="8">
-        <v>0.3186</v>
+        <v>0.3805</v>
       </c>
     </row>
     <row r="3241">
@@ -89235,10 +89235,10 @@
         <v>321</v>
       </c>
       <c r="F3289" s="0">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G3289" s="8">
-        <v>0.2617</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="3290">
@@ -90201,10 +90201,10 @@
         <v>583</v>
       </c>
       <c r="F3331" s="0">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="G3331" s="8">
-        <v>0.2744</v>
+        <v>0.3756</v>
       </c>
     </row>
     <row r="3332">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>22:15</t>
+    <t>22:20</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.927083333336</v>
+        <v>45452.930555555555</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689508</v>
+        <v>1689509</v>
       </c>
       <c r="D6" s="0">
-        <v>476401</v>
+        <v>480221</v>
       </c>
       <c r="E6" s="8">
-        <v>0.282</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208091</v>
       </c>
       <c r="D7" s="0">
-        <v>62993</v>
+        <v>63575</v>
       </c>
       <c r="E7" s="8">
-        <v>0.3027</v>
+        <v>0.3055</v>
       </c>
     </row>
     <row r="8">
@@ -10389,10 +10389,10 @@
         <v>20322</v>
       </c>
       <c r="D12" s="0">
-        <v>5370</v>
+        <v>5668</v>
       </c>
       <c r="E12" s="8">
-        <v>0.2642</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="13">
@@ -10406,10 +10406,10 @@
         <v>24388</v>
       </c>
       <c r="D13" s="0">
-        <v>9054</v>
+        <v>9181</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3712</v>
+        <v>0.3765</v>
       </c>
     </row>
     <row r="14">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>5724</v>
+        <v>5814</v>
       </c>
       <c r="E15" s="8">
-        <v>0.3069</v>
+        <v>0.3117</v>
       </c>
     </row>
     <row r="16">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>6159</v>
+        <v>6226</v>
       </c>
       <c r="E16" s="8">
-        <v>0.3992</v>
+        <v>0.4035</v>
       </c>
     </row>
     <row r="17">
@@ -10502,13 +10502,13 @@
         <v>47</v>
       </c>
       <c r="C19" s="0">
-        <v>208560</v>
+        <v>208561</v>
       </c>
       <c r="D19" s="0">
-        <v>56163</v>
+        <v>56432</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2693</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5484</v>
+        <v>5497</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3469</v>
+        <v>0.3477</v>
       </c>
     </row>
     <row r="21">
@@ -10536,13 +10536,13 @@
         <v>49</v>
       </c>
       <c r="C21" s="0">
-        <v>14513</v>
+        <v>14514</v>
       </c>
       <c r="D21" s="0">
-        <v>3503</v>
+        <v>3549</v>
       </c>
       <c r="E21" s="8">
-        <v>0.2414</v>
+        <v>0.2445</v>
       </c>
     </row>
     <row r="22">
@@ -10573,10 +10573,10 @@
         <v>18286</v>
       </c>
       <c r="D23" s="0">
-        <v>3982</v>
+        <v>4039</v>
       </c>
       <c r="E23" s="8">
-        <v>0.2178</v>
+        <v>0.2209</v>
       </c>
     </row>
     <row r="24">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5927</v>
+        <v>5936</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2347</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="25">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>3027</v>
+        <v>3068</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2392</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>5254</v>
+        <v>5316</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2912</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="28">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>7092</v>
+        <v>7133</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3437</v>
+        <v>0.3457</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>65586</v>
+        <v>65842</v>
       </c>
       <c r="E31" s="8">
-        <v>0.2981</v>
+        <v>0.2993</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>8004</v>
+        <v>8122</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3187</v>
+        <v>0.3234</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>6278</v>
+        <v>6416</v>
       </c>
       <c r="E33" s="8">
-        <v>0.3112</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="34">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>57917</v>
+        <v>58396</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2776</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3559</v>
+        <v>3597</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2522</v>
+        <v>0.2549</v>
       </c>
     </row>
     <row r="45">
@@ -10975,10 +10975,10 @@
         <v>13315</v>
       </c>
       <c r="D47" s="0">
-        <v>4184</v>
+        <v>4256</v>
       </c>
       <c r="E47" s="8">
-        <v>0.3142</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="48">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5270</v>
+        <v>5359</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2643</v>
+        <v>0.2688</v>
       </c>
     </row>
     <row r="51">
@@ -11043,10 +11043,10 @@
         <v>23286</v>
       </c>
       <c r="D51" s="0">
-        <v>6792</v>
+        <v>6897</v>
       </c>
       <c r="E51" s="8">
-        <v>0.2917</v>
+        <v>0.2962</v>
       </c>
     </row>
     <row r="52">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6655</v>
+        <v>6735</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2691</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="54">
@@ -11094,10 +11094,10 @@
         <v>22919</v>
       </c>
       <c r="D54" s="0">
-        <v>6596</v>
+        <v>6691</v>
       </c>
       <c r="E54" s="8">
-        <v>0.2878</v>
+        <v>0.2919</v>
       </c>
     </row>
     <row r="55">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>57696</v>
+        <v>58244</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2742</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4644</v>
+        <v>4711</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2726</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="57">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8645</v>
+        <v>8741</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2945</v>
+        <v>0.2978</v>
       </c>
     </row>
     <row r="58">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5890</v>
+        <v>5915</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3142</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="61">
@@ -11244,10 +11244,10 @@
         <v>17242</v>
       </c>
       <c r="D63" s="0">
-        <v>4692</v>
+        <v>4707</v>
       </c>
       <c r="E63" s="8">
-        <v>0.2721</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="64">
@@ -11261,10 +11261,10 @@
         <v>17964</v>
       </c>
       <c r="D64" s="0">
-        <v>4779</v>
+        <v>4820</v>
       </c>
       <c r="E64" s="8">
-        <v>0.266</v>
+        <v>0.2683</v>
       </c>
     </row>
     <row r="65">
@@ -11278,10 +11278,10 @@
         <v>20594</v>
       </c>
       <c r="D65" s="0">
-        <v>5350</v>
+        <v>5373</v>
       </c>
       <c r="E65" s="8">
-        <v>0.2598</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="66">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5611</v>
+        <v>5892</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2749</v>
+        <v>0.2887</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>61325</v>
+        <v>61758</v>
       </c>
       <c r="E67" s="8">
-        <v>0.282</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="68">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6930</v>
+        <v>6960</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2841</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="70">
@@ -11360,10 +11360,10 @@
         <v>25794</v>
       </c>
       <c r="D70" s="0">
-        <v>6872</v>
+        <v>6964</v>
       </c>
       <c r="E70" s="8">
-        <v>0.2664</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="71">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5342</v>
+        <v>5392</v>
       </c>
       <c r="E71" s="8">
-        <v>0.3138</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5255</v>
+        <v>5322</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2483</v>
+        <v>0.2514</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>6937</v>
+        <v>6983</v>
       </c>
       <c r="E73" s="8">
-        <v>0.2994</v>
+        <v>0.3014</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4826</v>
+        <v>4858</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2835</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="75">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>5889</v>
+        <v>5948</v>
       </c>
       <c r="E77" s="8">
-        <v>0.2827</v>
+        <v>0.2855</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3828</v>
+        <v>3885</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2819</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206664</v>
       </c>
       <c r="D79" s="0">
-        <v>51810</v>
+        <v>52235</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2507</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="80">
@@ -11527,10 +11527,10 @@
         <v>27753</v>
       </c>
       <c r="D80" s="0">
-        <v>5072</v>
+        <v>5198</v>
       </c>
       <c r="E80" s="8">
-        <v>0.1828</v>
+        <v>0.1873</v>
       </c>
     </row>
     <row r="81">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>7239</v>
+        <v>7287</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2871</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5191</v>
+        <v>5268</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2732</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="83">
@@ -11595,10 +11595,10 @@
         <v>23522</v>
       </c>
       <c r="D84" s="0">
-        <v>6765</v>
+        <v>6818</v>
       </c>
       <c r="E84" s="8">
-        <v>0.2876</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="85">
@@ -11646,10 +11646,10 @@
         <v>13933</v>
       </c>
       <c r="D87" s="0">
-        <v>3129</v>
+        <v>3250</v>
       </c>
       <c r="E87" s="8">
-        <v>0.2246</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="88">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>59011</v>
+        <v>59839</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2814</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>5039</v>
+        <v>5058</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2383</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4360</v>
+        <v>4399</v>
       </c>
       <c r="E93" s="8">
-        <v>0.3088</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="94">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>7100</v>
+        <v>7144</v>
       </c>
       <c r="E95" s="8">
-        <v>0.292</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>6802</v>
+        <v>6989</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2738</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5333</v>
+        <v>5385</v>
       </c>
       <c r="E97" s="8">
-        <v>0.3001</v>
+        <v>0.3031</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>4766</v>
+        <v>5052</v>
       </c>
       <c r="E98" s="8">
-        <v>0.2891</v>
+        <v>0.3064</v>
       </c>
     </row>
     <row r="99">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6545</v>
+        <v>6613</v>
       </c>
       <c r="E100" s="8">
-        <v>0.3073</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="101">
@@ -11881,10 +11881,10 @@
         <v>17016</v>
       </c>
       <c r="D101" s="0">
-        <v>5585</v>
+        <v>5718</v>
       </c>
       <c r="E101" s="8">
-        <v>0.3282</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="102">
@@ -16670,10 +16670,10 @@
         <v>1367</v>
       </c>
       <c r="F134" s="0">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="G134" s="8">
-        <v>0.1448</v>
+        <v>0.3628</v>
       </c>
     </row>
     <row r="135">
@@ -17544,10 +17544,10 @@
         <v>821</v>
       </c>
       <c r="F172" s="0">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="G172" s="8">
-        <v>0.3325</v>
+        <v>0.4872</v>
       </c>
     </row>
     <row r="173">
@@ -19177,10 +19177,10 @@
         <v>595</v>
       </c>
       <c r="F243" s="0">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="G243" s="8">
-        <v>0.3412</v>
+        <v>0.4924</v>
       </c>
     </row>
     <row r="244">
@@ -19729,10 +19729,10 @@
         <v>264</v>
       </c>
       <c r="F267" s="0">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="G267" s="8">
-        <v>0.3864</v>
+        <v>0.6402</v>
       </c>
     </row>
     <row r="268">
@@ -22443,10 +22443,10 @@
         <v>145</v>
       </c>
       <c r="F385" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G385" s="8">
-        <v>0.4552</v>
+        <v>0.5448</v>
       </c>
     </row>
     <row r="386">
@@ -24073,13 +24073,13 @@
         <v>873</v>
       </c>
       <c r="E456" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F456" s="0">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="G456" s="8">
-        <v>0.318</v>
+        <v>0.4573</v>
       </c>
     </row>
     <row r="457">
@@ -25065,10 +25065,10 @@
         <v>570</v>
       </c>
       <c r="F499" s="0">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="G499" s="8">
-        <v>0.2386</v>
+        <v>0.3386</v>
       </c>
     </row>
     <row r="500">
@@ -26192,10 +26192,10 @@
         <v>102</v>
       </c>
       <c r="F548" s="0">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G548" s="8">
-        <v>0.2843</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="549">
@@ -28745,10 +28745,10 @@
         <v>75</v>
       </c>
       <c r="F659" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G659" s="8">
-        <v>0.1333</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="660">
@@ -29527,10 +29527,10 @@
         <v>224</v>
       </c>
       <c r="F693" s="0">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G693" s="8">
-        <v>0.3705</v>
+        <v>0.4777</v>
       </c>
     </row>
     <row r="694">
@@ -30585,10 +30585,10 @@
         <v>565</v>
       </c>
       <c r="F739" s="0">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="G739" s="8">
-        <v>0.2496</v>
+        <v>0.3593</v>
       </c>
     </row>
     <row r="740">
@@ -33529,10 +33529,10 @@
         <v>295</v>
       </c>
       <c r="F867" s="0">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="G867" s="8">
-        <v>0.3763</v>
+        <v>0.5153</v>
       </c>
     </row>
     <row r="868">
@@ -35300,10 +35300,10 @@
         <v>457</v>
       </c>
       <c r="F944" s="0">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="G944" s="8">
-        <v>0.186</v>
+        <v>0.4442</v>
       </c>
     </row>
     <row r="945">
@@ -36059,10 +36059,10 @@
         <v>789</v>
       </c>
       <c r="F977" s="0">
-        <v>287</v>
+        <v>425</v>
       </c>
       <c r="G977" s="8">
-        <v>0.3638</v>
+        <v>0.5387</v>
       </c>
     </row>
     <row r="978">
@@ -42338,10 +42338,10 @@
         <v>277</v>
       </c>
       <c r="F1250" s="0">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="G1250" s="8">
-        <v>0.2527</v>
+        <v>0.3899</v>
       </c>
     </row>
     <row r="1251">
@@ -44845,10 +44845,10 @@
         <v>426</v>
       </c>
       <c r="F1359" s="0">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="G1359" s="8">
-        <v>0.3638</v>
+        <v>0.5329</v>
       </c>
     </row>
     <row r="1360">
@@ -47076,10 +47076,10 @@
         <v>702</v>
       </c>
       <c r="F1456" s="0">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="G1456" s="8">
-        <v>0.2564</v>
+        <v>0.3832</v>
       </c>
     </row>
     <row r="1457">
@@ -47697,10 +47697,10 @@
         <v>657</v>
       </c>
       <c r="F1483" s="0">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="G1483" s="8">
-        <v>0.2618</v>
+        <v>0.4216</v>
       </c>
     </row>
     <row r="1484">
@@ -48663,10 +48663,10 @@
         <v>362</v>
       </c>
       <c r="F1525" s="0">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G1525" s="8">
-        <v>0.2901</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="1526">
@@ -49514,10 +49514,10 @@
         <v>564</v>
       </c>
       <c r="F1562" s="0">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="G1562" s="8">
-        <v>0.2411</v>
+        <v>0.4096</v>
       </c>
     </row>
     <row r="1563">
@@ -50779,10 +50779,10 @@
         <v>408</v>
       </c>
       <c r="F1617" s="0">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="G1617" s="8">
-        <v>0.1838</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="1618">
@@ -50986,10 +50986,10 @@
         <v>774</v>
       </c>
       <c r="F1626" s="0">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="G1626" s="8">
-        <v>0.2687</v>
+        <v>0.3928</v>
       </c>
     </row>
     <row r="1627">
@@ -53930,10 +53930,10 @@
         <v>172</v>
       </c>
       <c r="F1754" s="0">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G1754" s="8">
-        <v>0.3198</v>
+        <v>0.4651</v>
       </c>
     </row>
     <row r="1755">
@@ -55793,10 +55793,10 @@
         <v>283</v>
       </c>
       <c r="F1835" s="0">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G1835" s="8">
-        <v>0.3746</v>
+        <v>0.4276</v>
       </c>
     </row>
     <row r="1836">
@@ -56322,10 +56322,10 @@
         <v>290</v>
       </c>
       <c r="F1858" s="0">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="G1858" s="8">
-        <v>0.269</v>
+        <v>0.4103</v>
       </c>
     </row>
     <row r="1859">
@@ -56667,10 +56667,10 @@
         <v>115</v>
       </c>
       <c r="F1873" s="0">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G1873" s="8">
-        <v>0.2174</v>
+        <v>0.4174</v>
       </c>
     </row>
     <row r="1874">
@@ -58116,10 +58116,10 @@
         <v>1377</v>
       </c>
       <c r="F1936" s="0">
-        <v>237</v>
+        <v>518</v>
       </c>
       <c r="G1936" s="8">
-        <v>0.1721</v>
+        <v>0.3762</v>
       </c>
     </row>
     <row r="1937">
@@ -60324,10 +60324,10 @@
         <v>212</v>
       </c>
       <c r="F2032" s="0">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="G2032" s="8">
-        <v>0.3349</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="2033">
@@ -61957,10 +61957,10 @@
         <v>798</v>
       </c>
       <c r="F2103" s="0">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="G2103" s="8">
-        <v>0.2769</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="2104">
@@ -62463,10 +62463,10 @@
         <v>416</v>
       </c>
       <c r="F2125" s="0">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="G2125" s="8">
-        <v>0.274</v>
+        <v>0.3942</v>
       </c>
     </row>
     <row r="2126">
@@ -63866,10 +63866,10 @@
         <v>153</v>
       </c>
       <c r="F2186" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G2186" s="8">
-        <v>0.3595</v>
+        <v>0.4575</v>
       </c>
     </row>
     <row r="2187">
@@ -63935,10 +63935,10 @@
         <v>470</v>
       </c>
       <c r="F2189" s="0">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="G2189" s="8">
-        <v>0.2426</v>
+        <v>0.3532</v>
       </c>
     </row>
     <row r="2190">
@@ -64993,10 +64993,10 @@
         <v>553</v>
       </c>
       <c r="F2235" s="0">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="G2235" s="8">
-        <v>0.2767</v>
+        <v>0.3599</v>
       </c>
     </row>
     <row r="2236">
@@ -66649,10 +66649,10 @@
         <v>300</v>
       </c>
       <c r="F2307" s="0">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="G2307" s="8">
-        <v>0.2833</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="2308">
@@ -69754,10 +69754,10 @@
         <v>396</v>
       </c>
       <c r="F2442" s="0">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="G2442" s="8">
-        <v>0.3182</v>
+        <v>0.4672</v>
       </c>
     </row>
     <row r="2443">
@@ -70352,10 +70352,10 @@
         <v>473</v>
       </c>
       <c r="F2468" s="0">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="G2468" s="8">
-        <v>0.2326</v>
+        <v>0.3531</v>
       </c>
     </row>
     <row r="2469">
@@ -71548,10 +71548,10 @@
         <v>748</v>
       </c>
       <c r="F2520" s="0">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="G2520" s="8">
-        <v>0.1564</v>
+        <v>0.3249</v>
       </c>
     </row>
     <row r="2521">
@@ -72376,10 +72376,10 @@
         <v>344</v>
       </c>
       <c r="F2556" s="0">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="G2556" s="8">
-        <v>0.2355</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="2557">
@@ -73871,10 +73871,10 @@
         <v>370</v>
       </c>
       <c r="F2621" s="0">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="G2621" s="8">
-        <v>0.227</v>
+        <v>0.4351</v>
       </c>
     </row>
     <row r="2622">
@@ -75458,10 +75458,10 @@
         <v>455</v>
       </c>
       <c r="F2690" s="0">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="G2690" s="8">
-        <v>0.2901</v>
+        <v>0.4066</v>
       </c>
     </row>
     <row r="2691">
@@ -77160,10 +77160,10 @@
         <v>723</v>
       </c>
       <c r="F2764" s="0">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="G2764" s="8">
-        <v>0.2642</v>
+        <v>0.4315</v>
       </c>
     </row>
     <row r="2765">
@@ -79575,10 +79575,10 @@
         <v>182</v>
       </c>
       <c r="F2869" s="0">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G2869" s="8">
-        <v>0.4176</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="2870">
@@ -80932,10 +80932,10 @@
         <v>417</v>
       </c>
       <c r="F2928" s="0">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G2928" s="8">
-        <v>0.3333</v>
+        <v>0.4269</v>
       </c>
     </row>
     <row r="2929">
@@ -82174,10 +82174,10 @@
         <v>264</v>
       </c>
       <c r="F2982" s="0">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G2982" s="8">
-        <v>0.3182</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="2983">
@@ -83899,10 +83899,10 @@
         <v>115</v>
       </c>
       <c r="F3057" s="0">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G3057" s="8">
-        <v>0.3043</v>
+        <v>0.4522</v>
       </c>
     </row>
     <row r="3058">
@@ -84911,10 +84911,10 @@
         <v>890</v>
       </c>
       <c r="F3101" s="0">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="G3101" s="8">
-        <v>0.2472</v>
+        <v>0.4573</v>
       </c>
     </row>
     <row r="3102">
@@ -85808,10 +85808,10 @@
         <v>622</v>
       </c>
       <c r="F3140" s="0">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="G3140" s="8">
-        <v>0.2251</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="3141">
@@ -86820,10 +86820,10 @@
         <v>1457</v>
       </c>
       <c r="F3184" s="0">
-        <v>278</v>
+        <v>518</v>
       </c>
       <c r="G3184" s="8">
-        <v>0.1908</v>
+        <v>0.3555</v>
       </c>
     </row>
     <row r="3185">
@@ -86958,10 +86958,10 @@
         <v>511</v>
       </c>
       <c r="F3190" s="0">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="G3190" s="8">
-        <v>0.2485</v>
+        <v>0.3386</v>
       </c>
     </row>
     <row r="3191">
@@ -88545,10 +88545,10 @@
         <v>411</v>
       </c>
       <c r="F3259" s="0">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="G3259" s="8">
-        <v>0.1971</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="3260">
@@ -90293,10 +90293,10 @@
         <v>554</v>
       </c>
       <c r="F3335" s="0">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="G3335" s="8">
-        <v>0.2942</v>
+        <v>0.4404</v>
       </c>
     </row>
     <row r="3336">
@@ -90339,10 +90339,10 @@
         <v>447</v>
       </c>
       <c r="F3337" s="0">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="G3337" s="8">
-        <v>0.2752</v>
+        <v>0.3915</v>
       </c>
     </row>
     <row r="3338">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>22:25</t>
+    <t>22:30</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.93402777778</v>
+        <v>45452.9375</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>1689509</v>
+        <v>1689512</v>
       </c>
       <c r="D6" s="0">
-        <v>484808</v>
+        <v>488558</v>
       </c>
       <c r="E6" s="8">
-        <v>0.287</v>
+        <v>0.2892</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208091</v>
       </c>
       <c r="D7" s="0">
-        <v>64163</v>
+        <v>64855</v>
       </c>
       <c r="E7" s="8">
-        <v>0.3083</v>
+        <v>0.3117</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6378</v>
+        <v>6443</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2457</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="9">
@@ -10389,10 +10389,10 @@
         <v>20322</v>
       </c>
       <c r="D12" s="0">
-        <v>5668</v>
+        <v>5813</v>
       </c>
       <c r="E12" s="8">
-        <v>0.2789</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="13">
@@ -10406,10 +10406,10 @@
         <v>24388</v>
       </c>
       <c r="D13" s="0">
-        <v>9272</v>
+        <v>9385</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3802</v>
+        <v>0.3848</v>
       </c>
     </row>
     <row r="14">
@@ -10423,10 +10423,10 @@
         <v>12396</v>
       </c>
       <c r="D14" s="0">
-        <v>3300</v>
+        <v>3377</v>
       </c>
       <c r="E14" s="8">
-        <v>0.2662</v>
+        <v>0.2724</v>
       </c>
     </row>
     <row r="15">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>5951</v>
+        <v>6031</v>
       </c>
       <c r="E15" s="8">
-        <v>0.3191</v>
+        <v>0.3233</v>
       </c>
     </row>
     <row r="16">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>6264</v>
+        <v>6340</v>
       </c>
       <c r="E16" s="8">
-        <v>0.406</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7822</v>
+        <v>7887</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2786</v>
+        <v>0.2809</v>
       </c>
     </row>
     <row r="18">
@@ -10491,10 +10491,10 @@
         <v>13325</v>
       </c>
       <c r="D18" s="0">
-        <v>4496</v>
+        <v>4567</v>
       </c>
       <c r="E18" s="8">
-        <v>0.3374</v>
+        <v>0.3427</v>
       </c>
     </row>
     <row r="19">
@@ -10502,13 +10502,13 @@
         <v>47</v>
       </c>
       <c r="C19" s="0">
-        <v>208561</v>
+        <v>208563</v>
       </c>
       <c r="D19" s="0">
-        <v>56716</v>
+        <v>57752</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2719</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="20">
@@ -10536,13 +10536,13 @@
         <v>49</v>
       </c>
       <c r="C21" s="0">
-        <v>14514</v>
+        <v>14516</v>
       </c>
       <c r="D21" s="0">
-        <v>3549</v>
+        <v>4206</v>
       </c>
       <c r="E21" s="8">
-        <v>0.2445</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="22">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>5989</v>
+        <v>6017</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2372</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="25">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5741</v>
+        <v>5756</v>
       </c>
       <c r="E25" s="8">
-        <v>0.259</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>3068</v>
+        <v>3140</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2424</v>
+        <v>0.2481</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>5322</v>
+        <v>5374</v>
       </c>
       <c r="E27" s="8">
-        <v>0.295</v>
+        <v>0.2979</v>
       </c>
     </row>
     <row r="28">
@@ -10658,10 +10658,10 @@
         <v>24940</v>
       </c>
       <c r="D28" s="0">
-        <v>7123</v>
+        <v>7216</v>
       </c>
       <c r="E28" s="8">
-        <v>0.2856</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="29">
@@ -10675,10 +10675,10 @@
         <v>23787</v>
       </c>
       <c r="D29" s="0">
-        <v>6427</v>
+        <v>6492</v>
       </c>
       <c r="E29" s="8">
-        <v>0.2702</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="30">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>7155</v>
+        <v>7209</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3468</v>
+        <v>0.3494</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>66609</v>
+        <v>66917</v>
       </c>
       <c r="E31" s="8">
-        <v>0.3028</v>
+        <v>0.3042</v>
       </c>
     </row>
     <row r="32">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>6479</v>
+        <v>6571</v>
       </c>
       <c r="E33" s="8">
-        <v>0.3211</v>
+        <v>0.3257</v>
       </c>
     </row>
     <row r="34">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6623</v>
+        <v>6692</v>
       </c>
       <c r="E37" s="8">
-        <v>0.3015</v>
+        <v>0.3046</v>
       </c>
     </row>
     <row r="38">
@@ -10842,10 +10842,10 @@
         <v>13904</v>
       </c>
       <c r="D39" s="0">
-        <v>4016</v>
+        <v>4120</v>
       </c>
       <c r="E39" s="8">
-        <v>0.2888</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="40">
@@ -10893,10 +10893,10 @@
         <v>22794</v>
       </c>
       <c r="D42" s="0">
-        <v>7062</v>
+        <v>7105</v>
       </c>
       <c r="E42" s="8">
-        <v>0.3098</v>
+        <v>0.3117</v>
       </c>
     </row>
     <row r="43">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>58965</v>
+        <v>59290</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2826</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="44">
@@ -10941,10 +10941,10 @@
         <v>14548</v>
       </c>
       <c r="D45" s="0">
-        <v>4529</v>
+        <v>4570</v>
       </c>
       <c r="E45" s="8">
-        <v>0.3113</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="46">
@@ -10958,10 +10958,10 @@
         <v>16101</v>
       </c>
       <c r="D46" s="0">
-        <v>4712</v>
+        <v>4884</v>
       </c>
       <c r="E46" s="8">
-        <v>0.2927</v>
+        <v>0.3033</v>
       </c>
     </row>
     <row r="47">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3798</v>
+        <v>3831</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2524</v>
+        <v>0.2546</v>
       </c>
     </row>
     <row r="50">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5359</v>
+        <v>5438</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2688</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="51">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>58670</v>
+        <v>58698</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2788</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4711</v>
+        <v>4716</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2765</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="57">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5892</v>
+        <v>5915</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2887</v>
+        <v>0.2898</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>62267</v>
+        <v>62816</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2864</v>
+        <v>0.2889</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6100</v>
+        <v>6221</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2689</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>6960</v>
+        <v>7034</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2853</v>
+        <v>0.2884</v>
       </c>
     </row>
     <row r="70">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5402</v>
+        <v>5441</v>
       </c>
       <c r="E71" s="8">
-        <v>0.3173</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5322</v>
+        <v>5411</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2514</v>
+        <v>0.2556</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>7003</v>
+        <v>7037</v>
       </c>
       <c r="E73" s="8">
-        <v>0.3023</v>
+        <v>0.3037</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4858</v>
+        <v>4877</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2854</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="75">
@@ -11462,10 +11462,10 @@
         <v>17172</v>
       </c>
       <c r="D76" s="0">
-        <v>5127</v>
+        <v>5175</v>
       </c>
       <c r="E76" s="8">
-        <v>0.2986</v>
+        <v>0.3014</v>
       </c>
     </row>
     <row r="77">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>6274</v>
+        <v>6341</v>
       </c>
       <c r="E77" s="8">
-        <v>0.3012</v>
+        <v>0.3044</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3910</v>
+        <v>3968</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2879</v>
+        <v>0.2922</v>
       </c>
     </row>
     <row r="79">
@@ -11507,13 +11507,13 @@
         <v>107</v>
       </c>
       <c r="C79" s="0">
-        <v>206664</v>
+        <v>206665</v>
       </c>
       <c r="D79" s="0">
-        <v>52739</v>
+        <v>53304</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2552</v>
+        <v>0.2579</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>7339</v>
+        <v>7403</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2911</v>
+        <v>0.2936</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5268</v>
+        <v>5378</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2773</v>
+        <v>0.2831</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>3636</v>
+        <v>3693</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2901</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="84">
@@ -11595,10 +11595,10 @@
         <v>23522</v>
       </c>
       <c r="D84" s="0">
-        <v>6818</v>
+        <v>6956</v>
       </c>
       <c r="E84" s="8">
-        <v>0.2899</v>
+        <v>0.2957</v>
       </c>
     </row>
     <row r="85">
@@ -11677,13 +11677,13 @@
         <v>117</v>
       </c>
       <c r="C89" s="0">
-        <v>15840</v>
+        <v>15841</v>
       </c>
       <c r="D89" s="0">
-        <v>4103</v>
+        <v>4299</v>
       </c>
       <c r="E89" s="8">
-        <v>0.259</v>
+        <v>0.2714</v>
       </c>
     </row>
     <row r="90">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>60779</v>
+        <v>61026</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2899</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>5058</v>
+        <v>5067</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2392</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4408</v>
+        <v>4428</v>
       </c>
       <c r="E93" s="8">
-        <v>0.3122</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>4123</v>
+        <v>4145</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2729</v>
+        <v>0.2743</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>7178</v>
+        <v>7205</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2952</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="96">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5446</v>
+        <v>5500</v>
       </c>
       <c r="E97" s="8">
-        <v>0.3065</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="98">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6686</v>
+        <v>6705</v>
       </c>
       <c r="E100" s="8">
-        <v>0.314</v>
+        <v>0.3149</v>
       </c>
     </row>
     <row r="101">
@@ -11898,10 +11898,10 @@
         <v>19556</v>
       </c>
       <c r="D102" s="0">
-        <v>5024</v>
+        <v>5120</v>
       </c>
       <c r="E102" s="8">
-        <v>0.2569</v>
+        <v>0.2618</v>
       </c>
     </row>
   </sheetData>
@@ -13841,10 +13841,10 @@
         <v>510</v>
       </c>
       <c r="F11" s="0">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="G11" s="8">
-        <v>0.2902</v>
+        <v>0.4176</v>
       </c>
     </row>
     <row r="12">
@@ -16877,10 +16877,10 @@
         <v>1259</v>
       </c>
       <c r="F143" s="0">
-        <v>335</v>
+        <v>480</v>
       </c>
       <c r="G143" s="8">
-        <v>0.2661</v>
+        <v>0.3813</v>
       </c>
     </row>
     <row r="144">
@@ -17475,10 +17475,10 @@
         <v>576</v>
       </c>
       <c r="F169" s="0">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="G169" s="8">
-        <v>0.3438</v>
+        <v>0.5399</v>
       </c>
     </row>
     <row r="170">
@@ -18441,10 +18441,10 @@
         <v>848</v>
       </c>
       <c r="F211" s="0">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="G211" s="8">
-        <v>0.2382</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="212">
@@ -19062,10 +19062,10 @@
         <v>435</v>
       </c>
       <c r="F238" s="0">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="G238" s="8">
-        <v>0.3379</v>
+        <v>0.5218</v>
       </c>
     </row>
     <row r="239">
@@ -19430,10 +19430,10 @@
         <v>425</v>
       </c>
       <c r="F254" s="0">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="G254" s="8">
-        <v>0.3271</v>
+        <v>0.5059</v>
       </c>
     </row>
     <row r="255">
@@ -20396,10 +20396,10 @@
         <v>624</v>
       </c>
       <c r="F296" s="0">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="G296" s="8">
-        <v>0.2452</v>
+        <v>0.3494</v>
       </c>
     </row>
     <row r="297">
@@ -21500,10 +21500,10 @@
         <v>573</v>
       </c>
       <c r="F344" s="0">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="G344" s="8">
-        <v>0.2705</v>
+        <v>0.3944</v>
       </c>
     </row>
     <row r="345">
@@ -24142,10 +24142,10 @@
         <v>504</v>
       </c>
       <c r="E459" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F459" s="0">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="G459" s="8">
         <v>0</v>
@@ -25939,10 +25939,10 @@
         <v>164</v>
       </c>
       <c r="F537" s="0">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G537" s="8">
-        <v>0.2561</v>
+        <v>0.4268</v>
       </c>
     </row>
     <row r="538">
@@ -27572,10 +27572,10 @@
         <v>88</v>
       </c>
       <c r="F608" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G608" s="8">
-        <v>0.4432</v>
+        <v>0.6136</v>
       </c>
     </row>
     <row r="609">
@@ -28584,10 +28584,10 @@
         <v>239</v>
       </c>
       <c r="F652" s="0">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G652" s="8">
-        <v>0.2343</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="653">
@@ -28883,10 +28883,10 @@
         <v>285</v>
       </c>
       <c r="F665" s="0">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="G665" s="8">
-        <v>0.2667</v>
+        <v>0.4105</v>
       </c>
     </row>
     <row r="666">
@@ -30079,10 +30079,10 @@
         <v>512</v>
       </c>
       <c r="F717" s="0">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="G717" s="8">
-        <v>0.2285</v>
+        <v>0.3301</v>
       </c>
     </row>
     <row r="718">
@@ -30884,10 +30884,10 @@
         <v>539</v>
       </c>
       <c r="F752" s="0">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="G752" s="8">
-        <v>0.3154</v>
+        <v>0.4879</v>
       </c>
     </row>
     <row r="753">
@@ -32563,10 +32563,10 @@
         <v>557</v>
       </c>
       <c r="F825" s="0">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="G825" s="8">
-        <v>0.2531</v>
+        <v>0.3698</v>
       </c>
     </row>
     <row r="826">
@@ -34311,10 +34311,10 @@
         <v>210</v>
       </c>
       <c r="F901" s="0">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="G901" s="8">
-        <v>0.3286</v>
+        <v>0.5857</v>
       </c>
     </row>
     <row r="902">
@@ -35668,10 +35668,10 @@
         <v>478</v>
       </c>
       <c r="F960" s="0">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="G960" s="8">
-        <v>0.2657</v>
+        <v>0.4582</v>
       </c>
     </row>
     <row r="961">
@@ -38474,10 +38474,10 @@
         <v>360</v>
       </c>
       <c r="F1082" s="0">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="G1082" s="8">
-        <v>0.5389</v>
+        <v>0.7306</v>
       </c>
     </row>
     <row r="1083">
@@ -39762,10 +39762,10 @@
         <v>689</v>
       </c>
       <c r="F1138" s="0">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="G1138" s="8">
-        <v>0.2671</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="1139">
@@ -41303,10 +41303,10 @@
         <v>228</v>
       </c>
       <c r="F1205" s="0">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="G1205" s="8">
-        <v>0.2895</v>
+        <v>0.4781</v>
       </c>
     </row>
     <row r="1206">
@@ -42890,10 +42890,10 @@
         <v>360</v>
       </c>
       <c r="F1274" s="0">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G1274" s="8">
-        <v>0.2917</v>
+        <v>0.4056</v>
       </c>
     </row>
     <row r="1275">
@@ -44523,10 +44523,10 @@
         <v>1012</v>
       </c>
       <c r="F1345" s="0">
-        <v>276</v>
+        <v>448</v>
       </c>
       <c r="G1345" s="8">
-        <v>0.2727</v>
+        <v>0.4427</v>
       </c>
     </row>
     <row r="1346">
@@ -46087,10 +46087,10 @@
         <v>450</v>
       </c>
       <c r="F1413" s="0">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="G1413" s="8">
-        <v>0.2311</v>
+        <v>0.3044</v>
       </c>
     </row>
     <row r="1414">
@@ -47099,10 +47099,10 @@
         <v>626</v>
       </c>
       <c r="F1457" s="0">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="G1457" s="8">
-        <v>0.2636</v>
+        <v>0.3898</v>
       </c>
     </row>
     <row r="1458">
@@ -50296,10 +50296,10 @@
         <v>120</v>
       </c>
       <c r="F1596" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1596" s="8">
-        <v>0.3417</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="1597">
@@ -58024,10 +58024,10 @@
         <v>284</v>
       </c>
       <c r="F1932" s="0">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G1932" s="8">
-        <v>0.2676</v>
+        <v>0.3486</v>
       </c>
     </row>
     <row r="1933">
@@ -58714,10 +58714,10 @@
         <v>973</v>
       </c>
       <c r="F1962" s="0">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="G1962" s="8">
-        <v>0.2323</v>
+        <v>0.3566</v>
       </c>
     </row>
     <row r="1963">
@@ -60600,10 +60600,10 @@
         <v>538</v>
       </c>
       <c r="F2044" s="0">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="G2044" s="8">
-        <v>0.2639</v>
+        <v>0.4015</v>
       </c>
     </row>
     <row r="2045">
@@ -62923,10 +62923,10 @@
         <v>254</v>
       </c>
       <c r="F2145" s="0">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="G2145" s="8">
-        <v>0.2126</v>
+        <v>0.3661</v>
       </c>
     </row>
     <row r="2146">
@@ -64119,10 +64119,10 @@
         <v>481</v>
       </c>
       <c r="F2197" s="0">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="G2197" s="8">
-        <v>0.2245</v>
+        <v>0.3451</v>
       </c>
     </row>
     <row r="2198">
@@ -64234,10 +64234,10 @@
         <v>431</v>
       </c>
       <c r="F2202" s="0">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G2202" s="8">
-        <v>0.2645</v>
+        <v>0.3364</v>
       </c>
     </row>
     <row r="2203">
@@ -64579,10 +64579,10 @@
         <v>316</v>
       </c>
       <c r="F2217" s="0">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="G2217" s="8">
-        <v>0.2753</v>
+        <v>0.3829</v>
       </c>
     </row>
     <row r="2218">
@@ -65982,10 +65982,10 @@
         <v>123</v>
       </c>
       <c r="F2278" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G2278" s="8">
-        <v>0.3984</v>
+        <v>0.5528</v>
       </c>
     </row>
     <row r="2279">
@@ -68512,10 +68512,10 @@
         <v>227</v>
       </c>
       <c r="F2388" s="0">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="G2388" s="8">
-        <v>0.3172</v>
+        <v>0.5286</v>
       </c>
     </row>
     <row r="2389">
@@ -69087,10 +69087,10 @@
         <v>609</v>
       </c>
       <c r="F2413" s="0">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="G2413" s="8">
-        <v>0.2824</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="2414">
@@ -70421,10 +70421,10 @@
         <v>342</v>
       </c>
       <c r="F2471" s="0">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="G2471" s="8">
-        <v>0.307</v>
+        <v>0.4766</v>
       </c>
     </row>
     <row r="2472">
@@ -72629,10 +72629,10 @@
         <v>347</v>
       </c>
       <c r="F2567" s="0">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="G2567" s="8">
-        <v>0.2334</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="2568">
@@ -73664,10 +73664,10 @@
         <v>484</v>
       </c>
       <c r="F2612" s="0">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="G2612" s="8">
-        <v>0.2707</v>
+        <v>0.4483</v>
       </c>
     </row>
     <row r="2613">
@@ -74032,10 +74032,10 @@
         <v>137</v>
       </c>
       <c r="F2628" s="0">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G2628" s="8">
-        <v>0.2044</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="2629">
@@ -74791,10 +74791,10 @@
         <v>711</v>
       </c>
       <c r="F2661" s="0">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="G2661" s="8">
-        <v>0.2602</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="2662">
@@ -75182,10 +75182,10 @@
         <v>892</v>
       </c>
       <c r="F2678" s="0">
-        <v>293</v>
+        <v>431</v>
       </c>
       <c r="G2678" s="8">
-        <v>0.3285</v>
+        <v>0.4832</v>
       </c>
     </row>
     <row r="2679">
@@ -78169,13 +78169,13 @@
         <v>2765</v>
       </c>
       <c r="E2808" s="0">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F2808" s="0">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="G2808" s="8">
-        <v>0.277</v>
+        <v>0.4334</v>
       </c>
     </row>
     <row r="2809">
@@ -78195,10 +78195,10 @@
         <v>760</v>
       </c>
       <c r="F2809" s="0">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="G2809" s="8">
-        <v>0.2934</v>
+        <v>0.4118</v>
       </c>
     </row>
     <row r="2810">
@@ -79092,10 +79092,10 @@
         <v>385</v>
       </c>
       <c r="F2848" s="0">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G2848" s="8">
-        <v>0.3481</v>
+        <v>0.3714</v>
       </c>
     </row>
     <row r="2849">
@@ -80334,10 +80334,10 @@
         <v>137</v>
       </c>
       <c r="F2902" s="0">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G2902" s="8">
-        <v>0.3431</v>
+        <v>0.4891</v>
       </c>
     </row>
     <row r="2903">
@@ -81530,10 +81530,10 @@
         <v>257</v>
       </c>
       <c r="F2954" s="0">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G2954" s="8">
-        <v>0.2062</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="2955">
@@ -82864,10 +82864,10 @@
         <v>151</v>
       </c>
       <c r="F3012" s="0">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G3012" s="8">
-        <v>0.3377</v>
+        <v>0.4901</v>
       </c>
     </row>
     <row r="3013">
@@ -83071,10 +83071,10 @@
         <v>63</v>
       </c>
       <c r="F3021" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G3021" s="8">
-        <v>0.3492</v>
+        <v>0.4127</v>
       </c>
     </row>
     <row r="3022">
@@ -86084,10 +86084,10 @@
         <v>509</v>
       </c>
       <c r="F3152" s="0">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="G3152" s="8">
-        <v>0.2613</v>
+        <v>0.3674</v>
       </c>
     </row>
     <row r="3153">
@@ -88959,10 +88959,10 @@
         <v>199</v>
       </c>
       <c r="F3277" s="0">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G3277" s="8">
-        <v>0.2312</v>
+        <v>0.3266</v>
       </c>
     </row>
     <row r="3278">
@@ -90891,10 +90891,10 @@
         <v>656</v>
       </c>
       <c r="F3361" s="0">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="G3361" s="8">
-        <v>0.2439</v>
+        <v>0.3902</v>
       </c>
     </row>
     <row r="3362">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>22:30</t>
+    <t>22:35</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.9375</v>
+        <v>45452.94097222222</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689512</v>
       </c>
       <c r="D6" s="0">
-        <v>488558</v>
+        <v>493027</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2892</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208091</v>
       </c>
       <c r="D7" s="0">
-        <v>64855</v>
+        <v>66401</v>
       </c>
       <c r="E7" s="8">
-        <v>0.3117</v>
+        <v>0.3191</v>
       </c>
     </row>
     <row r="8">
@@ -10321,10 +10321,10 @@
         <v>25955</v>
       </c>
       <c r="D8" s="0">
-        <v>6443</v>
+        <v>6505</v>
       </c>
       <c r="E8" s="8">
-        <v>0.2482</v>
+        <v>0.2506</v>
       </c>
     </row>
     <row r="9">
@@ -10372,10 +10372,10 @@
         <v>20255</v>
       </c>
       <c r="D11" s="0">
-        <v>5539</v>
+        <v>5649</v>
       </c>
       <c r="E11" s="8">
-        <v>0.2735</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="12">
@@ -10406,10 +10406,10 @@
         <v>24388</v>
       </c>
       <c r="D13" s="0">
-        <v>9385</v>
+        <v>9568</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3848</v>
+        <v>0.3923</v>
       </c>
     </row>
     <row r="14">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>6031</v>
+        <v>6951</v>
       </c>
       <c r="E15" s="8">
-        <v>0.3233</v>
+        <v>0.3727</v>
       </c>
     </row>
     <row r="16">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>6340</v>
+        <v>6424</v>
       </c>
       <c r="E16" s="8">
-        <v>0.4109</v>
+        <v>0.4163</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>7887</v>
+        <v>8074</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2809</v>
+        <v>0.2875</v>
       </c>
     </row>
     <row r="18">
@@ -10505,10 +10505,10 @@
         <v>208563</v>
       </c>
       <c r="D19" s="0">
-        <v>57752</v>
+        <v>58024</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2769</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5497</v>
+        <v>5498</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3477</v>
+        <v>0.3478</v>
       </c>
     </row>
     <row r="21">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>6017</v>
+        <v>6074</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2383</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="25">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5756</v>
+        <v>5773</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2597</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2481</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="27">
@@ -10641,10 +10641,10 @@
         <v>18040</v>
       </c>
       <c r="D27" s="0">
-        <v>5374</v>
+        <v>5429</v>
       </c>
       <c r="E27" s="8">
-        <v>0.2979</v>
+        <v>0.3009</v>
       </c>
     </row>
     <row r="28">
@@ -10658,10 +10658,10 @@
         <v>24940</v>
       </c>
       <c r="D28" s="0">
-        <v>7216</v>
+        <v>7252</v>
       </c>
       <c r="E28" s="8">
-        <v>0.2893</v>
+        <v>0.2908</v>
       </c>
     </row>
     <row r="29">
@@ -10675,10 +10675,10 @@
         <v>23787</v>
       </c>
       <c r="D29" s="0">
-        <v>6492</v>
+        <v>6537</v>
       </c>
       <c r="E29" s="8">
-        <v>0.2729</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="30">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>7209</v>
+        <v>7266</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3494</v>
+        <v>0.3521</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>66917</v>
+        <v>67217</v>
       </c>
       <c r="E31" s="8">
-        <v>0.3042</v>
+        <v>0.3055</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>8122</v>
+        <v>8153</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3234</v>
+        <v>0.3247</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>6571</v>
+        <v>6646</v>
       </c>
       <c r="E33" s="8">
-        <v>0.3257</v>
+        <v>0.3294</v>
       </c>
     </row>
     <row r="34">
@@ -10757,10 +10757,10 @@
         <v>25839</v>
       </c>
       <c r="D34" s="0">
-        <v>7929</v>
+        <v>7961</v>
       </c>
       <c r="E34" s="8">
-        <v>0.3069</v>
+        <v>0.3081</v>
       </c>
     </row>
     <row r="35">
@@ -10774,10 +10774,10 @@
         <v>16936</v>
       </c>
       <c r="D35" s="0">
-        <v>4696</v>
+        <v>4808</v>
       </c>
       <c r="E35" s="8">
-        <v>0.2773</v>
+        <v>0.2839</v>
       </c>
     </row>
     <row r="36">
@@ -10893,10 +10893,10 @@
         <v>22794</v>
       </c>
       <c r="D42" s="0">
-        <v>7105</v>
+        <v>7155</v>
       </c>
       <c r="E42" s="8">
-        <v>0.3117</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="43">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>59290</v>
+        <v>59744</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2842</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="44">
@@ -10924,10 +10924,10 @@
         <v>14111</v>
       </c>
       <c r="D44" s="0">
-        <v>3670</v>
+        <v>3727</v>
       </c>
       <c r="E44" s="8">
-        <v>0.2601</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="45">
@@ -10941,10 +10941,10 @@
         <v>14548</v>
       </c>
       <c r="D45" s="0">
-        <v>4570</v>
+        <v>4599</v>
       </c>
       <c r="E45" s="8">
-        <v>0.3141</v>
+        <v>0.3161</v>
       </c>
     </row>
     <row r="46">
@@ -10975,10 +10975,10 @@
         <v>13315</v>
       </c>
       <c r="D47" s="0">
-        <v>4256</v>
+        <v>4356</v>
       </c>
       <c r="E47" s="8">
-        <v>0.3196</v>
+        <v>0.3271</v>
       </c>
     </row>
     <row r="48">
@@ -10992,10 +10992,10 @@
         <v>23277</v>
       </c>
       <c r="D48" s="0">
-        <v>6667</v>
+        <v>6700</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2864</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="49">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3831</v>
+        <v>3932</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2546</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="50">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5438</v>
+        <v>5500</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2727</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="51">
@@ -11077,10 +11077,10 @@
         <v>24733</v>
       </c>
       <c r="D53" s="0">
-        <v>6884</v>
+        <v>6939</v>
       </c>
       <c r="E53" s="8">
-        <v>0.2783</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="54">
@@ -11094,10 +11094,10 @@
         <v>22919</v>
       </c>
       <c r="D54" s="0">
-        <v>6893</v>
+        <v>6910</v>
       </c>
       <c r="E54" s="8">
-        <v>0.3008</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="55">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>58698</v>
+        <v>59155</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2789</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4716</v>
+        <v>4752</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2768</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="57">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8765</v>
+        <v>8810</v>
       </c>
       <c r="E57" s="8">
-        <v>0.2986</v>
+        <v>0.3002</v>
       </c>
     </row>
     <row r="58">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>5915</v>
+        <v>6002</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3155</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="61">
@@ -11210,10 +11210,10 @@
         <v>13622</v>
       </c>
       <c r="D61" s="0">
-        <v>3712</v>
+        <v>3766</v>
       </c>
       <c r="E61" s="8">
-        <v>0.2725</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="62">
@@ -11244,10 +11244,10 @@
         <v>17242</v>
       </c>
       <c r="D63" s="0">
-        <v>4756</v>
+        <v>4799</v>
       </c>
       <c r="E63" s="8">
-        <v>0.2758</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="64">
@@ -11261,10 +11261,10 @@
         <v>17964</v>
       </c>
       <c r="D64" s="0">
-        <v>4935</v>
+        <v>5053</v>
       </c>
       <c r="E64" s="8">
-        <v>0.2747</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="65">
@@ -11278,10 +11278,10 @@
         <v>20594</v>
       </c>
       <c r="D65" s="0">
-        <v>5430</v>
+        <v>5503</v>
       </c>
       <c r="E65" s="8">
-        <v>0.2637</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="66">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5915</v>
+        <v>5916</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2898</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>62816</v>
+        <v>63225</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2889</v>
+        <v>0.2908</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6221</v>
+        <v>6298</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2742</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="69">
@@ -11360,10 +11360,10 @@
         <v>25794</v>
       </c>
       <c r="D70" s="0">
-        <v>7032</v>
+        <v>7117</v>
       </c>
       <c r="E70" s="8">
-        <v>0.2726</v>
+        <v>0.2759</v>
       </c>
     </row>
     <row r="71">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5441</v>
+        <v>5468</v>
       </c>
       <c r="E71" s="8">
-        <v>0.3196</v>
+        <v>0.3212</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5411</v>
+        <v>5433</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2556</v>
+        <v>0.2567</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>7037</v>
+        <v>7071</v>
       </c>
       <c r="E73" s="8">
-        <v>0.3037</v>
+        <v>0.3052</v>
       </c>
     </row>
     <row r="74">
@@ -11428,10 +11428,10 @@
         <v>17021</v>
       </c>
       <c r="D74" s="0">
-        <v>4877</v>
+        <v>4915</v>
       </c>
       <c r="E74" s="8">
-        <v>0.2865</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="75">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>4279</v>
+        <v>4340</v>
       </c>
       <c r="E75" s="8">
-        <v>0.2928</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="76">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>6341</v>
+        <v>6379</v>
       </c>
       <c r="E77" s="8">
-        <v>0.3044</v>
+        <v>0.3062</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3968</v>
+        <v>3995</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2922</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206665</v>
       </c>
       <c r="D79" s="0">
-        <v>53304</v>
+        <v>53879</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2579</v>
+        <v>0.2607</v>
       </c>
     </row>
     <row r="80">
@@ -11527,10 +11527,10 @@
         <v>27753</v>
       </c>
       <c r="D80" s="0">
-        <v>5198</v>
+        <v>5262</v>
       </c>
       <c r="E80" s="8">
-        <v>0.1873</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="81">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>7403</v>
+        <v>7452</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2936</v>
+        <v>0.2956</v>
       </c>
     </row>
     <row r="82">
@@ -11612,10 +11612,10 @@
         <v>21076</v>
       </c>
       <c r="D85" s="0">
-        <v>5130</v>
+        <v>5265</v>
       </c>
       <c r="E85" s="8">
-        <v>0.2434</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="86">
@@ -11646,10 +11646,10 @@
         <v>13933</v>
       </c>
       <c r="D87" s="0">
-        <v>3250</v>
+        <v>3537</v>
       </c>
       <c r="E87" s="8">
-        <v>0.2333</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="88">
@@ -11663,10 +11663,10 @@
         <v>16883</v>
       </c>
       <c r="D88" s="0">
-        <v>4264</v>
+        <v>4270</v>
       </c>
       <c r="E88" s="8">
-        <v>0.2526</v>
+        <v>0.2529</v>
       </c>
     </row>
     <row r="89">
@@ -11697,10 +11697,10 @@
         <v>13608</v>
       </c>
       <c r="D90" s="0">
-        <v>3067</v>
+        <v>3101</v>
       </c>
       <c r="E90" s="8">
-        <v>0.2254</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="91">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>61026</v>
+        <v>61482</v>
       </c>
       <c r="E91" s="8">
-        <v>0.291</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="92">
@@ -11728,10 +11728,10 @@
         <v>21145</v>
       </c>
       <c r="D92" s="0">
-        <v>5067</v>
+        <v>5120</v>
       </c>
       <c r="E92" s="8">
-        <v>0.2396</v>
+        <v>0.2421</v>
       </c>
     </row>
     <row r="93">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4428</v>
+        <v>4459</v>
       </c>
       <c r="E93" s="8">
-        <v>0.3136</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="94">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>7205</v>
+        <v>7250</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2963</v>
+        <v>0.2981</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>7065</v>
+        <v>7090</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2844</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5500</v>
+        <v>5579</v>
       </c>
       <c r="E97" s="8">
-        <v>0.3095</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="98">
@@ -11830,10 +11830,10 @@
         <v>16488</v>
       </c>
       <c r="D98" s="0">
-        <v>5111</v>
+        <v>5193</v>
       </c>
       <c r="E98" s="8">
-        <v>0.31</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="99">
@@ -11847,10 +11847,10 @@
         <v>18016</v>
       </c>
       <c r="D99" s="0">
-        <v>4505</v>
+        <v>4557</v>
       </c>
       <c r="E99" s="8">
-        <v>0.2501</v>
+        <v>0.2529</v>
       </c>
     </row>
     <row r="100">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6705</v>
+        <v>6794</v>
       </c>
       <c r="E100" s="8">
-        <v>0.3149</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="101">
@@ -13772,10 +13772,10 @@
         <v>631</v>
       </c>
       <c r="F8" s="0">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="G8" s="8">
-        <v>0.2552</v>
+        <v>0.3534</v>
       </c>
     </row>
     <row r="9">
@@ -16325,10 +16325,10 @@
         <v>951</v>
       </c>
       <c r="F119" s="0">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="G119" s="8">
-        <v>0.2313</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="120">
@@ -17797,10 +17797,10 @@
         <v>646</v>
       </c>
       <c r="F183" s="0">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="G183" s="8">
-        <v>0.3715</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="184">
@@ -17889,10 +17889,10 @@
         <v>615</v>
       </c>
       <c r="F187" s="0">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="G187" s="8">
-        <v>0.3626</v>
+        <v>0.5187</v>
       </c>
     </row>
     <row r="188">
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="F244" s="0">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="G244" s="8">
         <v>0</v>
@@ -19568,10 +19568,10 @@
         <v>461</v>
       </c>
       <c r="F260" s="0">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="G260" s="8">
-        <v>0.2972</v>
+        <v>0.4794</v>
       </c>
     </row>
     <row r="261">
@@ -20534,10 +20534,10 @@
         <v>1124</v>
       </c>
       <c r="F302" s="0">
-        <v>354</v>
+        <v>541</v>
       </c>
       <c r="G302" s="8">
-        <v>0.3149</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="303">
@@ -22765,10 +22765,10 @@
         <v>109</v>
       </c>
       <c r="F399" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G399" s="8">
-        <v>0.5872</v>
+        <v>0.5963</v>
       </c>
     </row>
     <row r="400">
@@ -25594,10 +25594,10 @@
         <v>357</v>
       </c>
       <c r="F522" s="0">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="G522" s="8">
-        <v>0.1961</v>
+        <v>0.3557</v>
       </c>
     </row>
     <row r="523">
@@ -26974,10 +26974,10 @@
         <v>100</v>
       </c>
       <c r="F582" s="0">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G582" s="8">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="583">
@@ -29412,10 +29412,10 @@
         <v>46</v>
       </c>
       <c r="F688" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G688" s="8">
-        <v>0.6304</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="689">
@@ -30240,10 +30240,10 @@
         <v>493</v>
       </c>
       <c r="F724" s="0">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="G724" s="8">
-        <v>0.2535</v>
+        <v>0.3651</v>
       </c>
     </row>
     <row r="725">
@@ -31137,10 +31137,10 @@
         <v>381</v>
       </c>
       <c r="F763" s="0">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="G763" s="8">
-        <v>0.3307</v>
+        <v>0.4252</v>
       </c>
     </row>
     <row r="764">
@@ -32586,10 +32586,10 @@
         <v>537</v>
       </c>
       <c r="F826" s="0">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="G826" s="8">
-        <v>0.2179</v>
+        <v>0.3017</v>
       </c>
     </row>
     <row r="827">
@@ -34173,10 +34173,10 @@
         <v>325</v>
       </c>
       <c r="F895" s="0">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="G895" s="8">
-        <v>0.3631</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="896">
@@ -35346,10 +35346,10 @@
         <v>304</v>
       </c>
       <c r="F946" s="0">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G946" s="8">
-        <v>0.3618</v>
+        <v>0.4638</v>
       </c>
     </row>
     <row r="947">
@@ -35714,10 +35714,10 @@
         <v>618</v>
       </c>
       <c r="F962" s="0">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="G962" s="8">
-        <v>0.301</v>
+        <v>0.4223</v>
       </c>
     </row>
     <row r="963">
@@ -36657,10 +36657,10 @@
         <v>207</v>
       </c>
       <c r="F1003" s="0">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G1003" s="8">
-        <v>0.314</v>
+        <v>0.4686</v>
       </c>
     </row>
     <row r="1004">
@@ -37439,10 +37439,10 @@
         <v>919</v>
       </c>
       <c r="F1037" s="0">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="G1037" s="8">
-        <v>0.2492</v>
+        <v>0.3711</v>
       </c>
     </row>
     <row r="1038">
@@ -41510,10 +41510,10 @@
         <v>370</v>
       </c>
       <c r="F1214" s="0">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="G1214" s="8">
-        <v>0.3919</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="1215">
@@ -42039,10 +42039,10 @@
         <v>267</v>
       </c>
       <c r="F1237" s="0">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="G1237" s="8">
-        <v>0.2622</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="1238">
@@ -42522,10 +42522,10 @@
         <v>290</v>
       </c>
       <c r="F1258" s="0">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G1258" s="8">
-        <v>0.2862</v>
+        <v>0.3586</v>
       </c>
     </row>
     <row r="1259">
@@ -42913,10 +42913,10 @@
         <v>269</v>
       </c>
       <c r="F1275" s="0">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G1275" s="8">
-        <v>0.3048</v>
+        <v>0.4126</v>
       </c>
     </row>
     <row r="1276">
@@ -44983,10 +44983,10 @@
         <v>601</v>
       </c>
       <c r="F1365" s="0">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="G1365" s="8">
-        <v>0.2512</v>
+        <v>0.4176</v>
       </c>
     </row>
     <row r="1366">
@@ -45535,10 +45535,10 @@
         <v>202</v>
       </c>
       <c r="F1389" s="0">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G1389" s="8">
-        <v>0.2277</v>
+        <v>0.3911</v>
       </c>
     </row>
     <row r="1390">
@@ -46478,10 +46478,10 @@
         <v>923</v>
       </c>
       <c r="F1430" s="0">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="G1430" s="8">
-        <v>0.2416</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="1431">
@@ -47122,10 +47122,10 @@
         <v>430</v>
       </c>
       <c r="F1458" s="0">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G1458" s="8">
-        <v>0.3023</v>
+        <v>0.4465</v>
       </c>
     </row>
     <row r="1459">
@@ -48571,10 +48571,10 @@
         <v>403</v>
       </c>
       <c r="F1521" s="0">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="G1521" s="8">
-        <v>0.2903</v>
+        <v>0.4268</v>
       </c>
     </row>
     <row r="1522">
@@ -49560,10 +49560,10 @@
         <v>950</v>
       </c>
       <c r="F1564" s="0">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G1564" s="8">
-        <v>0.2347</v>
+        <v>0.2526</v>
       </c>
     </row>
     <row r="1565">
@@ -50227,10 +50227,10 @@
         <v>228</v>
       </c>
       <c r="F1593" s="0">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G1593" s="8">
-        <v>0.3114</v>
+        <v>0.4693</v>
       </c>
     </row>
     <row r="1594">
@@ -51354,10 +51354,10 @@
         <v>463</v>
       </c>
       <c r="F1642" s="0">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G1642" s="8">
-        <v>0.3002</v>
+        <v>0.3974</v>
       </c>
     </row>
     <row r="1643">
@@ -53562,10 +53562,10 @@
         <v>761</v>
       </c>
       <c r="F1738" s="0">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="G1738" s="8">
-        <v>0.2536</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="1739">
@@ -54091,10 +54091,10 @@
         <v>496</v>
       </c>
       <c r="F1761" s="0">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="G1761" s="8">
-        <v>0.2843</v>
+        <v>0.3931</v>
       </c>
     </row>
     <row r="1762">
@@ -55402,10 +55402,10 @@
         <v>423</v>
       </c>
       <c r="F1818" s="0">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="G1818" s="8">
-        <v>0.3121</v>
+        <v>0.4137</v>
       </c>
     </row>
     <row r="1819">
@@ -56253,10 +56253,10 @@
         <v>811</v>
       </c>
       <c r="F1855" s="0">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="G1855" s="8">
-        <v>0.217</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="1856">
@@ -57265,10 +57265,10 @@
         <v>779</v>
       </c>
       <c r="F1899" s="0">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G1899" s="8">
-        <v>0.2272</v>
+        <v>0.3209</v>
       </c>
     </row>
     <row r="1900">
@@ -58093,10 +58093,10 @@
         <v>743</v>
       </c>
       <c r="F1935" s="0">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G1935" s="8">
-        <v>0.3876</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="1936">
@@ -58737,10 +58737,10 @@
         <v>576</v>
       </c>
       <c r="F1963" s="0">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="G1963" s="8">
-        <v>0.1927</v>
+        <v>0.3264</v>
       </c>
     </row>
     <row r="1964">
@@ -61635,10 +61635,10 @@
         <v>596</v>
       </c>
       <c r="F2089" s="0">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="G2089" s="8">
-        <v>0.2433</v>
+        <v>0.3859</v>
       </c>
     </row>
     <row r="2090">
@@ -62417,10 +62417,10 @@
         <v>204</v>
       </c>
       <c r="F2123" s="0">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G2123" s="8">
-        <v>0.3137</v>
+        <v>0.4461</v>
       </c>
     </row>
     <row r="2124">
@@ -64349,10 +64349,10 @@
         <v>358</v>
       </c>
       <c r="F2207" s="0">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G2207" s="8">
-        <v>0.1257</v>
+        <v>0.1872</v>
       </c>
     </row>
     <row r="2208">
@@ -65545,10 +65545,10 @@
         <v>244</v>
       </c>
       <c r="F2259" s="0">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G2259" s="8">
-        <v>0.2582</v>
+        <v>0.3975</v>
       </c>
     </row>
     <row r="2260">
@@ -66741,10 +66741,10 @@
         <v>342</v>
       </c>
       <c r="F2311" s="0">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="G2311" s="8">
-        <v>0.2719</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="2312">
@@ -67155,10 +67155,10 @@
         <v>621</v>
       </c>
       <c r="F2329" s="0">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="G2329" s="8">
-        <v>0.2641</v>
+        <v>0.3623</v>
       </c>
     </row>
     <row r="2330">
@@ -68949,10 +68949,10 @@
         <v>510</v>
       </c>
       <c r="F2407" s="0">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="G2407" s="8">
-        <v>0.2392</v>
+        <v>0.3137</v>
       </c>
     </row>
     <row r="2408">
@@ -70490,10 +70490,10 @@
         <v>231</v>
       </c>
       <c r="F2474" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G2474" s="8">
-        <v>0.303</v>
+        <v>0.4199</v>
       </c>
     </row>
     <row r="2475">
@@ -71709,10 +71709,10 @@
         <v>464</v>
       </c>
       <c r="F2527" s="0">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="G2527" s="8">
-        <v>0.2565</v>
+        <v>0.3944</v>
       </c>
     </row>
     <row r="2528">
@@ -72767,10 +72767,10 @@
         <v>542</v>
       </c>
       <c r="F2573" s="0">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="G2573" s="8">
-        <v>0.262</v>
+        <v>0.3524</v>
       </c>
     </row>
     <row r="2574">
@@ -75849,10 +75849,10 @@
         <v>892</v>
       </c>
       <c r="F2707" s="0">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="G2707" s="8">
-        <v>0.2534</v>
+        <v>0.4047</v>
       </c>
     </row>
     <row r="2708">
@@ -77183,10 +77183,10 @@
         <v>743</v>
       </c>
       <c r="F2765" s="0">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="G2765" s="8">
-        <v>0.2423</v>
+        <v>0.4172</v>
       </c>
     </row>
     <row r="2766">
@@ -77298,10 +77298,10 @@
         <v>1032</v>
       </c>
       <c r="F2770" s="0">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="G2770" s="8">
-        <v>0.1521</v>
+        <v>0.3043</v>
       </c>
     </row>
     <row r="2771">
@@ -77528,10 +77528,10 @@
         <v>699</v>
       </c>
       <c r="F2780" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G2780" s="8">
-        <v>0.2904</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="2781">
@@ -78471,10 +78471,10 @@
         <v>488</v>
       </c>
       <c r="F2821" s="0">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="G2821" s="8">
-        <v>0.2254</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="2822">
@@ -79046,10 +79046,10 @@
         <v>454</v>
       </c>
       <c r="F2846" s="0">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="G2846" s="8">
-        <v>0.2841</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="2847">
@@ -79483,10 +79483,10 @@
         <v>143</v>
       </c>
       <c r="F2865" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G2865" s="8">
-        <v>0.2797</v>
+        <v>0.3357</v>
       </c>
     </row>
     <row r="2866">
@@ -80771,10 +80771,10 @@
         <v>173</v>
       </c>
       <c r="F2921" s="0">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G2921" s="8">
-        <v>0.2023</v>
+        <v>0.3815</v>
       </c>
     </row>
     <row r="2922">
@@ -83163,10 +83163,10 @@
         <v>156</v>
       </c>
       <c r="F3025" s="0">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G3025" s="8">
-        <v>0.2244</v>
+        <v>0.3397</v>
       </c>
     </row>
     <row r="3026">
@@ -83393,10 +83393,10 @@
         <v>173</v>
       </c>
       <c r="F3035" s="0">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G3035" s="8">
-        <v>0.3526</v>
+        <v>0.5087</v>
       </c>
     </row>
     <row r="3036">
@@ -85026,10 +85026,10 @@
         <v>201</v>
       </c>
       <c r="F3106" s="0">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G3106" s="8">
-        <v>0.4129</v>
+        <v>0.5373</v>
       </c>
     </row>
     <row r="3107">
@@ -86268,10 +86268,10 @@
         <v>699</v>
       </c>
       <c r="F3160" s="0">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="G3160" s="8">
-        <v>0.2761</v>
+        <v>0.3891</v>
       </c>
     </row>
     <row r="3161">
@@ -87188,10 +87188,10 @@
         <v>609</v>
       </c>
       <c r="F3200" s="0">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="G3200" s="8">
-        <v>0.2775</v>
+        <v>0.4122</v>
       </c>
     </row>
     <row r="3201">
@@ -87372,10 +87372,10 @@
         <v>477</v>
       </c>
       <c r="F3208" s="0">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="G3208" s="8">
-        <v>0.2788</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="3209">
@@ -88844,10 +88844,10 @@
         <v>441</v>
       </c>
       <c r="F3272" s="0">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G3272" s="8">
-        <v>0.2494</v>
+        <v>0.3719</v>
       </c>
     </row>
     <row r="3273">
@@ -89143,10 +89143,10 @@
         <v>351</v>
       </c>
       <c r="F3285" s="0">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="G3285" s="8">
-        <v>0.2336</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="3286">

--- a/data/ep2024/izvoz.xlsx
+++ b/data/ep2024/izvoz.xlsx
@@ -25,7 +25,7 @@
     <t>Podatki osveženi:</t>
   </si>
   <si>
-    <t>22:35</t>
+    <t>22:40</t>
   </si>
   <si>
     <t>Volilna enota</t>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45452.94097222222</v>
+        <v>45452.944444444445</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -10290,10 +10290,10 @@
         <v>1689512</v>
       </c>
       <c r="D6" s="0">
-        <v>493027</v>
+        <v>497131</v>
       </c>
       <c r="E6" s="8">
-        <v>0.2918</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="7">
@@ -10304,10 +10304,10 @@
         <v>208091</v>
       </c>
       <c r="D7" s="0">
-        <v>66401</v>
+        <v>66942</v>
       </c>
       <c r="E7" s="8">
-        <v>0.3191</v>
+        <v>0.3217</v>
       </c>
     </row>
     <row r="8">
@@ -10338,10 +10338,10 @@
         <v>13412</v>
       </c>
       <c r="D9" s="0">
-        <v>4762</v>
+        <v>4838</v>
       </c>
       <c r="E9" s="8">
-        <v>0.3551</v>
+        <v>0.3607</v>
       </c>
     </row>
     <row r="10">
@@ -10355,10 +10355,10 @@
         <v>15875</v>
       </c>
       <c r="D10" s="0">
-        <v>4711</v>
+        <v>4765</v>
       </c>
       <c r="E10" s="8">
-        <v>0.2968</v>
+        <v>0.3002</v>
       </c>
     </row>
     <row r="11">
@@ -10372,10 +10372,10 @@
         <v>20255</v>
       </c>
       <c r="D11" s="0">
-        <v>5649</v>
+        <v>5729</v>
       </c>
       <c r="E11" s="8">
-        <v>0.2789</v>
+        <v>0.2828</v>
       </c>
     </row>
     <row r="12">
@@ -10406,10 +10406,10 @@
         <v>24388</v>
       </c>
       <c r="D13" s="0">
-        <v>9568</v>
+        <v>9647</v>
       </c>
       <c r="E13" s="8">
-        <v>0.3923</v>
+        <v>0.3956</v>
       </c>
     </row>
     <row r="14">
@@ -10440,10 +10440,10 @@
         <v>18652</v>
       </c>
       <c r="D15" s="0">
-        <v>6951</v>
+        <v>7047</v>
       </c>
       <c r="E15" s="8">
-        <v>0.3727</v>
+        <v>0.3778</v>
       </c>
     </row>
     <row r="16">
@@ -10457,10 +10457,10 @@
         <v>15430</v>
       </c>
       <c r="D16" s="0">
-        <v>6424</v>
+        <v>6505</v>
       </c>
       <c r="E16" s="8">
-        <v>0.4163</v>
+        <v>0.4216</v>
       </c>
     </row>
     <row r="17">
@@ -10474,10 +10474,10 @@
         <v>28081</v>
       </c>
       <c r="D17" s="0">
-        <v>8074</v>
+        <v>8149</v>
       </c>
       <c r="E17" s="8">
-        <v>0.2875</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="18">
@@ -10505,10 +10505,10 @@
         <v>208563</v>
       </c>
       <c r="D19" s="0">
-        <v>58024</v>
+        <v>58577</v>
       </c>
       <c r="E19" s="8">
-        <v>0.2782</v>
+        <v>0.2809</v>
       </c>
     </row>
     <row r="20">
@@ -10522,10 +10522,10 @@
         <v>15809</v>
       </c>
       <c r="D20" s="0">
-        <v>5498</v>
+        <v>5502</v>
       </c>
       <c r="E20" s="8">
-        <v>0.3478</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="21">
@@ -10539,10 +10539,10 @@
         <v>14516</v>
       </c>
       <c r="D21" s="0">
-        <v>4206</v>
+        <v>4353</v>
       </c>
       <c r="E21" s="8">
-        <v>0.2897</v>
+        <v>0.2999</v>
       </c>
     </row>
     <row r="22">
@@ -10556,10 +10556,10 @@
         <v>12475</v>
       </c>
       <c r="D22" s="0">
-        <v>2734</v>
+        <v>2814</v>
       </c>
       <c r="E22" s="8">
-        <v>0.2192</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="23">
@@ -10573,10 +10573,10 @@
         <v>18286</v>
       </c>
       <c r="D23" s="0">
-        <v>4111</v>
+        <v>4152</v>
       </c>
       <c r="E23" s="8">
-        <v>0.2248</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="24">
@@ -10590,10 +10590,10 @@
         <v>25254</v>
       </c>
       <c r="D24" s="0">
-        <v>6074</v>
+        <v>6121</v>
       </c>
       <c r="E24" s="8">
-        <v>0.2405</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="25">
@@ -10607,10 +10607,10 @@
         <v>22167</v>
       </c>
       <c r="D25" s="0">
-        <v>5773</v>
+        <v>5802</v>
       </c>
       <c r="E25" s="8">
-        <v>0.2604</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="26">
@@ -10624,10 +10624,10 @@
         <v>12655</v>
       </c>
       <c r="D26" s="0">
-        <v>3144</v>
+        <v>3230</v>
       </c>
       <c r="E26" s="8">
-        <v>0.2484</v>
+        <v>0.2552</v>
       </c>
     </row>
     <row r="27">
@@ -10675,10 +10675,10 @@
         <v>23787</v>
       </c>
       <c r="D29" s="0">
-        <v>6537</v>
+        <v>6602</v>
       </c>
       <c r="E29" s="8">
-        <v>0.2748</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="30">
@@ -10692,10 +10692,10 @@
         <v>20634</v>
       </c>
       <c r="D30" s="0">
-        <v>7266</v>
+        <v>7320</v>
       </c>
       <c r="E30" s="8">
-        <v>0.3521</v>
+        <v>0.3548</v>
       </c>
     </row>
     <row r="31">
@@ -10706,10 +10706,10 @@
         <v>219993</v>
       </c>
       <c r="D31" s="0">
-        <v>67217</v>
+        <v>67908</v>
       </c>
       <c r="E31" s="8">
-        <v>0.3055</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="32">
@@ -10723,10 +10723,10 @@
         <v>25111</v>
       </c>
       <c r="D32" s="0">
-        <v>8153</v>
+        <v>8297</v>
       </c>
       <c r="E32" s="8">
-        <v>0.3247</v>
+        <v>0.3304</v>
       </c>
     </row>
     <row r="33">
@@ -10740,10 +10740,10 @@
         <v>20176</v>
       </c>
       <c r="D33" s="0">
-        <v>6646</v>
+        <v>6786</v>
       </c>
       <c r="E33" s="8">
-        <v>0.3294</v>
+        <v>0.3363</v>
       </c>
     </row>
     <row r="34">
@@ -10808,10 +10808,10 @@
         <v>21969</v>
       </c>
       <c r="D37" s="0">
-        <v>6692</v>
+        <v>6816</v>
       </c>
       <c r="E37" s="8">
-        <v>0.3046</v>
+        <v>0.3103</v>
       </c>
     </row>
     <row r="38">
@@ -10825,10 +10825,10 @@
         <v>22046</v>
       </c>
       <c r="D38" s="0">
-        <v>6150</v>
+        <v>6181</v>
       </c>
       <c r="E38" s="8">
-        <v>0.279</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="39">
@@ -10842,10 +10842,10 @@
         <v>13904</v>
       </c>
       <c r="D39" s="0">
-        <v>4120</v>
+        <v>4241</v>
       </c>
       <c r="E39" s="8">
-        <v>0.2963</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="40">
@@ -10859,10 +10859,10 @@
         <v>17996</v>
       </c>
       <c r="D40" s="0">
-        <v>5380</v>
+        <v>5453</v>
       </c>
       <c r="E40" s="8">
-        <v>0.299</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="41">
@@ -10893,10 +10893,10 @@
         <v>22794</v>
       </c>
       <c r="D42" s="0">
-        <v>7155</v>
+        <v>7213</v>
       </c>
       <c r="E42" s="8">
-        <v>0.3139</v>
+        <v>0.3164</v>
       </c>
     </row>
     <row r="43">
@@ -10907,10 +10907,10 @@
         <v>208624</v>
       </c>
       <c r="D43" s="0">
-        <v>59744</v>
+        <v>60389</v>
       </c>
       <c r="E43" s="8">
-        <v>0.2864</v>
+        <v>0.2895</v>
       </c>
     </row>
     <row r="44">
@@ -10941,10 +10941,10 @@
         <v>14548</v>
       </c>
       <c r="D45" s="0">
-        <v>4599</v>
+        <v>4668</v>
       </c>
       <c r="E45" s="8">
-        <v>0.3161</v>
+        <v>0.3209</v>
       </c>
     </row>
     <row r="46">
@@ -10958,10 +10958,10 @@
         <v>16101</v>
       </c>
       <c r="D46" s="0">
-        <v>4884</v>
+        <v>5037</v>
       </c>
       <c r="E46" s="8">
-        <v>0.3033</v>
+        <v>0.3128</v>
       </c>
     </row>
     <row r="47">
@@ -11009,10 +11009,10 @@
         <v>15046</v>
       </c>
       <c r="D49" s="0">
-        <v>3932</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="8">
-        <v>0.2613</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="50">
@@ -11026,10 +11026,10 @@
         <v>19940</v>
       </c>
       <c r="D50" s="0">
-        <v>5500</v>
+        <v>5606</v>
       </c>
       <c r="E50" s="8">
-        <v>0.2758</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="51">
@@ -11043,10 +11043,10 @@
         <v>23286</v>
       </c>
       <c r="D51" s="0">
-        <v>6897</v>
+        <v>7025</v>
       </c>
       <c r="E51" s="8">
-        <v>0.2962</v>
+        <v>0.3017</v>
       </c>
     </row>
     <row r="52">
@@ -11060,10 +11060,10 @@
         <v>21348</v>
       </c>
       <c r="D52" s="0">
-        <v>5300</v>
+        <v>5421</v>
       </c>
       <c r="E52" s="8">
-        <v>0.2483</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="53">
@@ -11108,10 +11108,10 @@
         <v>210445</v>
       </c>
       <c r="D55" s="0">
-        <v>59155</v>
+        <v>59869</v>
       </c>
       <c r="E55" s="8">
-        <v>0.2811</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="56">
@@ -11125,10 +11125,10 @@
         <v>17035</v>
       </c>
       <c r="D56" s="0">
-        <v>4752</v>
+        <v>4779</v>
       </c>
       <c r="E56" s="8">
-        <v>0.279</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="57">
@@ -11142,10 +11142,10 @@
         <v>29350</v>
       </c>
       <c r="D57" s="0">
-        <v>8810</v>
+        <v>8909</v>
       </c>
       <c r="E57" s="8">
-        <v>0.3002</v>
+        <v>0.3035</v>
       </c>
     </row>
     <row r="58">
@@ -11159,10 +11159,10 @@
         <v>21305</v>
       </c>
       <c r="D58" s="0">
-        <v>5265</v>
+        <v>5362</v>
       </c>
       <c r="E58" s="8">
-        <v>0.2471</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="59">
@@ -11176,10 +11176,10 @@
         <v>18123</v>
       </c>
       <c r="D59" s="0">
-        <v>5138</v>
+        <v>5257</v>
       </c>
       <c r="E59" s="8">
-        <v>0.2835</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="60">
@@ -11193,10 +11193,10 @@
         <v>18748</v>
       </c>
       <c r="D60" s="0">
-        <v>6002</v>
+        <v>6063</v>
       </c>
       <c r="E60" s="8">
-        <v>0.3201</v>
+        <v>0.3234</v>
       </c>
     </row>
     <row r="61">
@@ -11210,10 +11210,10 @@
         <v>13622</v>
       </c>
       <c r="D61" s="0">
-        <v>3766</v>
+        <v>3931</v>
       </c>
       <c r="E61" s="8">
-        <v>0.2765</v>
+        <v>0.2886</v>
       </c>
     </row>
     <row r="62">
@@ -11244,10 +11244,10 @@
         <v>17242</v>
       </c>
       <c r="D63" s="0">
-        <v>4799</v>
+        <v>4883</v>
       </c>
       <c r="E63" s="8">
-        <v>0.2783</v>
+        <v>0.2832</v>
       </c>
     </row>
     <row r="64">
@@ -11295,10 +11295,10 @@
         <v>20409</v>
       </c>
       <c r="D66" s="0">
-        <v>5916</v>
+        <v>5978</v>
       </c>
       <c r="E66" s="8">
-        <v>0.2899</v>
+        <v>0.2929</v>
       </c>
     </row>
     <row r="67">
@@ -11309,10 +11309,10 @@
         <v>217449</v>
       </c>
       <c r="D67" s="0">
-        <v>63225</v>
+        <v>63589</v>
       </c>
       <c r="E67" s="8">
-        <v>0.2908</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="68">
@@ -11326,10 +11326,10 @@
         <v>22687</v>
       </c>
       <c r="D68" s="0">
-        <v>6298</v>
+        <v>6339</v>
       </c>
       <c r="E68" s="8">
-        <v>0.2776</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="69">
@@ -11343,10 +11343,10 @@
         <v>24393</v>
       </c>
       <c r="D69" s="0">
-        <v>7034</v>
+        <v>7102</v>
       </c>
       <c r="E69" s="8">
-        <v>0.2884</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="70">
@@ -11377,10 +11377,10 @@
         <v>17025</v>
       </c>
       <c r="D71" s="0">
-        <v>5468</v>
+        <v>5489</v>
       </c>
       <c r="E71" s="8">
-        <v>0.3212</v>
+        <v>0.3224</v>
       </c>
     </row>
     <row r="72">
@@ -11394,10 +11394,10 @@
         <v>21167</v>
       </c>
       <c r="D72" s="0">
-        <v>5433</v>
+        <v>5470</v>
       </c>
       <c r="E72" s="8">
-        <v>0.2567</v>
+        <v>0.2584</v>
       </c>
     </row>
     <row r="73">
@@ -11411,10 +11411,10 @@
         <v>23168</v>
       </c>
       <c r="D73" s="0">
-        <v>7071</v>
+        <v>7129</v>
       </c>
       <c r="E73" s="8">
-        <v>0.3052</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="74">
@@ -11445,10 +11445,10 @@
         <v>14612</v>
       </c>
       <c r="D75" s="0">
-        <v>4340</v>
+        <v>4416</v>
       </c>
       <c r="E75" s="8">
-        <v>0.297</v>
+        <v>0.3022</v>
       </c>
     </row>
     <row r="76">
@@ -11479,10 +11479,10 @@
         <v>20831</v>
       </c>
       <c r="D77" s="0">
-        <v>6379</v>
+        <v>6406</v>
       </c>
       <c r="E77" s="8">
-        <v>0.3062</v>
+        <v>0.3075</v>
       </c>
     </row>
     <row r="78">
@@ -11496,10 +11496,10 @@
         <v>13579</v>
       </c>
       <c r="D78" s="0">
-        <v>3995</v>
+        <v>4031</v>
       </c>
       <c r="E78" s="8">
-        <v>0.2942</v>
+        <v>0.2969</v>
       </c>
     </row>
     <row r="79">
@@ -11510,10 +11510,10 @@
         <v>206665</v>
       </c>
       <c r="D79" s="0">
-        <v>53879</v>
+        <v>54190</v>
       </c>
       <c r="E79" s="8">
-        <v>0.2607</v>
+        <v>0.2622</v>
       </c>
     </row>
     <row r="80">
@@ -11544,10 +11544,10 @@
         <v>25212</v>
       </c>
       <c r="D81" s="0">
-        <v>7452</v>
+        <v>7494</v>
       </c>
       <c r="E81" s="8">
-        <v>0.2956</v>
+        <v>0.2972</v>
       </c>
     </row>
     <row r="82">
@@ -11561,10 +11561,10 @@
         <v>18998</v>
       </c>
       <c r="D82" s="0">
-        <v>5378</v>
+        <v>5450</v>
       </c>
       <c r="E82" s="8">
-        <v>0.2831</v>
+        <v>0.2869</v>
       </c>
     </row>
     <row r="83">
@@ -11578,10 +11578,10 @@
         <v>12532</v>
       </c>
       <c r="D83" s="0">
-        <v>3693</v>
+        <v>3746</v>
       </c>
       <c r="E83" s="8">
-        <v>0.2947</v>
+        <v>0.2989</v>
       </c>
     </row>
     <row r="84">
@@ -11697,10 +11697,10 @@
         <v>13608</v>
       </c>
       <c r="D90" s="0">
-        <v>3101</v>
+        <v>3245</v>
       </c>
       <c r="E90" s="8">
-        <v>0.2279</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="91">
@@ -11711,10 +11711,10 @@
         <v>209677</v>
       </c>
       <c r="D91" s="0">
-        <v>61482</v>
+        <v>61767</v>
       </c>
       <c r="E91" s="8">
-        <v>0.2932</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="92">
@@ -11745,10 +11745,10 @@
         <v>14121</v>
       </c>
       <c r="D93" s="0">
-        <v>4459</v>
+        <v>4477</v>
       </c>
       <c r="E93" s="8">
-        <v>0.3158</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="94">
@@ -11762,10 +11762,10 @@
         <v>15109</v>
       </c>
       <c r="D94" s="0">
-        <v>4145</v>
+        <v>4216</v>
       </c>
       <c r="E94" s="8">
-        <v>0.2743</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="95">
@@ -11779,10 +11779,10 @@
         <v>24318</v>
       </c>
       <c r="D95" s="0">
-        <v>7250</v>
+        <v>7285</v>
       </c>
       <c r="E95" s="8">
-        <v>0.2981</v>
+        <v>0.2996</v>
       </c>
     </row>
     <row r="96">
@@ -11796,10 +11796,10 @@
         <v>24845</v>
       </c>
       <c r="D96" s="0">
-        <v>7090</v>
+        <v>7134</v>
       </c>
       <c r="E96" s="8">
-        <v>0.2854</v>
+        <v>0.2871</v>
       </c>
     </row>
     <row r="97">
@@ -11813,10 +11813,10 @@
         <v>17768</v>
       </c>
       <c r="D97" s="0">
-        <v>5579</v>
+        <v>5677</v>
       </c>
       <c r="E97" s="8">
-        <v>0.314</v>
+        <v>0.3195</v>
       </c>
     </row>
     <row r="98">
@@ -11864,10 +11864,10 @@
         <v>21295</v>
       </c>
       <c r="D100" s="0">
-        <v>6794</v>
+        <v>6813</v>
       </c>
       <c r="E100" s="8">
-        <v>0.319</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="101">
@@ -14830,10 +14830,10 @@
         <v>422</v>
       </c>
       <c r="F54" s="0">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="G54" s="8">
-        <v>0.2891</v>
+        <v>0.4692</v>
       </c>
     </row>
     <row r="55">
@@ -16003,10 +16003,10 @@
         <v>387</v>
       </c>
       <c r="F105" s="0">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G105" s="8">
-        <v>0.3256</v>
+        <v>0.4651</v>
       </c>
     </row>
     <row r="106">
@@ -16210,10 +16210,10 @@
         <v>779</v>
       </c>
       <c r="F114" s="0">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="G114" s="8">
-        <v>0.1707</v>
+        <v>0.2734</v>
       </c>
     </row>
     <row r="115">
@@ -17337,10 +17337,10 @@
         <v>448</v>
       </c>
       <c r="F163" s="0">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="G163" s="8">
-        <v>0.3371</v>
+        <v>0.5134</v>
       </c>
     </row>
     <row r="164">
@@ -18855,10 +18855,10 @@
         <v>1010</v>
       </c>
       <c r="F229" s="0">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="G229" s="8">
-        <v>0.301</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="230">
@@ -19407,10 +19407,10 @@
         <v>519</v>
       </c>
       <c r="F253" s="0">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="G253" s="8">
-        <v>0.341</v>
+        <v>0.4971</v>
       </c>
     </row>
     <row r="254">
@@ -20304,10 +20304,10 @@
         <v>515</v>
       </c>
       <c r="F292" s="0">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="G292" s="8">
-        <v>0.2951</v>
+        <v>0.4408</v>
       </c>
     </row>
     <row r="293">
@@ -22075,10 +22075,10 @@
         <v>51</v>
       </c>
       <c r="F369" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G369" s="8">
-        <v>0.5882</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="370">
@@ -23869,10 +23869,10 @@
         <v>1323</v>
       </c>
       <c r="F447" s="0">
-        <v>261</v>
+        <v>408</v>
       </c>
       <c r="G447" s="8">
-        <v>0.1973</v>
+        <v>0.3084</v>
       </c>
     </row>
     <row r="448">
@@ -24467,10 +24467,10 @@
         <v>504</v>
       </c>
       <c r="F473" s="0">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="G473" s="8">
-        <v>0.244</v>
+        <v>0.4028</v>
       </c>
     </row>
     <row r="474">
@@ -24858,10 +24858,10 @@
         <v>498</v>
       </c>
       <c r="F490" s="0">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="G490" s="8">
-        <v>0.2329</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="491">
@@ -25755,10 +25755,10 @@
         <v>45</v>
       </c>
       <c r="F529" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G529" s="8">
-        <v>0.3778</v>
+        <v>0.4222</v>
       </c>
     </row>
     <row r="530">
@@ -26307,10 +26307,10 @@
         <v>377</v>
       </c>
       <c r="F553" s="0">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="G553" s="8">
-        <v>0.1671</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="554">
@@ -27503,10 +27503,10 @@
         <v>177</v>
       </c>
       <c r="F605" s="0">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G605" s="8">
-        <v>0.3333</v>
+        <v>0.4972</v>
       </c>
     </row>
     <row r="606">
@@ -28791,10 +28791,10 @@
         <v>251</v>
       </c>
       <c r="F661" s="0">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G661" s="8">
-        <v>0.2988</v>
+        <v>0.4223</v>
       </c>
     </row>
     <row r="662">
@@ -29251,10 +29251,10 @@
         <v>371</v>
       </c>
       <c r="F681" s="0">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="G681" s="8">
-        <v>0.221</v>
+        <v>0.3693</v>
       </c>
     </row>
     <row r="682">
@@ -32609,10 +32609,10 @@
         <v>655</v>
       </c>
       <c r="F827" s="0">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="G827" s="8">
-        <v>0.2779</v>
+        <v>0.3771</v>
       </c>
     </row>
     <row r="828">
@@ -33851,10 +33851,10 @@
         <v>258</v>
       </c>
       <c r="F881" s="0">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="G881" s="8">
-        <v>0.3256</v>
+        <v>0.5349</v>
       </c>
     </row>
     <row r="882">
@@ -35162,10 +35162,10 @@
         <v>1312</v>
       </c>
       <c r="F938" s="0">
-        <v>330</v>
+        <v>474</v>
       </c>
       <c r="G938" s="8">
-        <v>0.2515</v>
+        <v>0.3613</v>
       </c>
     </row>
     <row r="939">
@@ -35645,10 +35645,10 @@
         <v>987</v>
       </c>
       <c r="F959" s="0">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="G959" s="8">
-        <v>0.2563</v>
+        <v>0.3982</v>
       </c>
     </row>
     <row r="960">
@@ -38428,10 +38428,10 @@
         <v>681</v>
       </c>
       <c r="F1080" s="0">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="G1080" s="8">
-        <v>0.3759</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="1081">
@@ -38980,10 +38980,10 @@
         <v>629</v>
       </c>
       <c r="F1104" s="0">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G1104" s="8">
-        <v>0.3211</v>
+        <v>0.3704</v>
       </c>
     </row>
     <row r="1105">
@@ -39647,10 +39647,10 @@
         <v>810</v>
       </c>
       <c r="F1133" s="0">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="G1133" s="8">
-        <v>0.2593</v>
+        <v>0.4086</v>
       </c>
     </row>
     <row r="1134">
@@ -40268,10 +40268,10 @@
         <v>646</v>
       </c>
       <c r="F1160" s="0">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="G1160" s="8">
-        <v>0.3019</v>
+        <v>0.4149</v>
       </c>
     </row>
     <row r="1161">
@@ -41487,10 +41487,10 @@
         <v>370</v>
       </c>
       <c r="F1213" s="0">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="G1213" s="8">
-        <v>0.327</v>
+        <v>0.4838</v>
       </c>
     </row>
     <row r="1214">
@@ -42936,10 +42936,10 @@
         <v>171</v>
       </c>
       <c r="F1276" s="0">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G1276" s="8">
-        <v>0.345</v>
+        <v>0.4854</v>
       </c>
     </row>
     <row r="1277">
@@ -42959,10 +42959,10 @@
         <v>476</v>
       </c>
       <c r="F1277" s="0">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="G1277" s="8">
-        <v>0.2248</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="1278">
@@ -44569,10 +44569,10 @@
         <v>928</v>
       </c>
       <c r="F1347" s="0">
-        <v>262</v>
+        <v>415</v>
       </c>
       <c r="G1347" s="8">
-        <v>0.2823</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="1348">
@@ -46386,10 +46386,10 @@
         <v>665</v>
       </c>
       <c r="F1426" s="0">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G1426" s="8">
-        <v>0.1925</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="1427">
@@ -46708,10 +46708,10 @@
         <v>807</v>
       </c>
       <c r="F1440" s="0">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="G1440" s="8">
-        <v>0.2466</v>
+        <v>0.3779</v>
       </c>
     </row>
     <row r="1441">
@@ -47743,10 +47743,10 @@
         <v>855</v>
       </c>
       <c r="F1485" s="0">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="G1485" s="8">
-        <v>0.2924</v>
+        <v>0.4421</v>
       </c>
     </row>
     <row r="1486">
@@ -48295,10 +48295,10 @@
         <v>1031</v>
       </c>
       <c r="F1509" s="0">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="G1509" s="8">
-        <v>0.226</v>
+        <v>0.3434</v>
       </c>
     </row>
     <row r="1510">
@@ -50457,10 +50457,10 @@
         <v>379</v>
       </c>
       <c r="F1603" s="0">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G1603" s="8">
-        <v>0.2269</v>
+        <v>0.2982</v>
       </c>
     </row>
     <row r="1604">
@@ -51193,10 +51193,10 @@
         <v>596</v>
       </c>
       <c r="F1635" s="0">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="G1635" s="8">
-        <v>0.2936</v>
+        <v>0.4597</v>
       </c>
     </row>
     <row r="1636">
@@ -52297,10 +52297,10 @@
         <v>983</v>
       </c>
       <c r="F1683" s="0">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="G1683" s="8">
-        <v>0.2401</v>
+        <v>0.3388</v>
       </c>
     </row>
     <row r="1684">
@@ -52596,10 +52596,10 @@
         <v>777</v>
       </c>
       <c r="F1696" s="0">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="G1696" s="8">
-        <v>0.2304</v>
+        <v>0.3835</v>
       </c>
     </row>
     <row r="1697">
@@ -53148,10 +53148,10 @@
         <v>656</v>
       </c>
       <c r="F1720" s="0">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="G1720" s="8">
-        <v>0.2485</v>
+        <v>0.3415</v>
       </c>
     </row>
     <row r="1721">
@@ -54114,10 +54114,10 @@
         <v>1000</v>
       </c>
       <c r="F1762" s="0">
-        <v>251</v>
+        <v>416</v>
       </c>
       <c r="G1762" s="8">
-        <v>0.251</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="1763">
@@ -55517,10 +55517,10 @@
         <v>550</v>
       </c>
       <c r="F1823" s="0">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="G1823" s="8">
-        <v>0.3182</v>
+        <v>0.4709</v>
       </c>
     </row>
     <row r="1824">
@@ -58162,10 +58162,10 @@
         <v>367</v>
       </c>
       <c r="F1938" s="0">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="G1938" s="8">
-        <v>0.1308</v>
+        <v>0.2997</v>
       </c>
     </row>
     <row r="1939">
@@ -59933,10 +59933,10 @@
         <v>437</v>
       </c>
       <c r="F2015" s="0">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="G2015" s="8">
-        <v>0.2929</v>
+        <v>0.3867</v>
       </c>
     </row>
     <row r="2016">
@@ -60209,10 +60209,10 @@
         <v>548</v>
       </c>
       <c r="F2027" s="0">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="G2027" s="8">
-        <v>0.1843</v>
+        <v>0.3084</v>
       </c>
     </row>
     <row r="2028">
@@ -62647,10 +62647,10 @@
         <v>161</v>
       </c>
       <c r="F2133" s="0">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G2133" s="8">
-        <v>0.2795</v>
+        <v>0.4099</v>
       </c>
     </row>
     <row r="2134">
@@ -63636,10 +63636,10 @@
         <v>493</v>
       </c>
       <c r="F2176" s="0">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="G2176" s="8">
-        <v>0.2231</v>
+        <v>0.2982</v>
       </c>
     </row>
     <row r="2177">
@@ -65384,10 +65384,10 @@
         <v>439</v>
       </c>
       <c r="F2252" s="0">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="G2252" s="8">
-        <v>0.2483</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="2253">
@@ -67247,10 +67247,10 @@
         <v>631</v>
       </c>
       <c r="F2333" s="0">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="G2333" s="8">
-        <v>0.1791</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="2334">
@@ -69570,10 +69570,10 @@
         <v>622</v>
       </c>
       <c r="F2434" s="0">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G2434" s="8">
-        <v>0.3826</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="2435">
@@ -70536,10 +70536,10 @@
         <v>277</v>
       </c>
       <c r="F2476" s="0">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="G2476" s="8">
-        <v>0.3141</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="2477">
@@ -73204,10 +73204,10 @@
         <v>254</v>
       </c>
       <c r="F2592" s="0">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="G2592" s="8">
-        <v>0.2756</v>
+        <v>0.4409</v>
       </c>
     </row>
     <row r="2593">
@@ -73503,10 +73503,10 @@
         <v>392</v>
       </c>
       <c r="F2605" s="0">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="G2605" s="8">
-        <v>0.1888</v>
+        <v>0.3724</v>
       </c>
     </row>
     <row r="2606">
@@ -74492,10 +74492,10 @@
         <v>457</v>
       </c>
       <c r="F2648" s="0">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G2648" s="8">
-        <v>0.2166</v>
+        <v>0.3326</v>
       </c>
     </row>
     <row r="2649">
@@ -78517,10 +78517,10 @@
         <v>797</v>
       </c>
       <c r="F2823" s="0">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="G2823" s="8">
-        <v>0.1895</v>
+        <v>0.3701</v>
       </c>
     </row>
     <row r="2824">
@@ -80242,10 +80242,10 @@
         <v>277</v>
       </c>
       <c r="F2898" s="0">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G2898" s="8">
-        <v>0.2599</v>
+        <v>0.3249</v>
       </c>
     </row>
     <row r="2899">
@@ -81392,10 +81392,10 @@
         <v>481</v>
       </c>
       <c r="F2948" s="0">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G2948" s="8">
-        <v>0.2328</v>
+        <v>0.3805</v>
       </c>
     </row>
     <row r="2949">
@@ -83462,10 +83462,10 @@
         <v>425</v>
       </c>
       <c r="F3038" s="0">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G3038" s="8">
-        <v>0.28</v>
+        <v>0.3624</v>
       </c>
     </row>
     <row r="3039">
@@ -84888,10 +84888,10 @@
         <v>480</v>
       </c>
       <c r="F3100" s="0">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="G3100" s="8">
-        <v>0.2583</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3101">
@@ -86176,10 +86176,10 @@
         <v>980</v>
       </c>
       <c r="F3156" s="0">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="G3156" s="8">
-        <v>0.2388</v>
+        <v>0.3388</v>
       </c>
     </row>
     <row r="3157">
@@ -89580,10 +89580,10 @@
         <v>291</v>
       </c>
       <c r="F3304" s="0">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G3304" s="8">
-        <v>0.2577</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="3305">
